--- a/integrator/test/Proba32.xlsx
+++ b/integrator/test/Proba32.xlsx
@@ -978,7 +978,7 @@
     <t xml:space="preserve">ἀνάκλισις</t>
   </si>
   <si>
-    <t xml:space="preserve">ἀνάκλησιν CMPcPa</t>
+    <t xml:space="preserve">ἀνάκλησιν CsMPcPa</t>
   </si>
   <si>
     <t xml:space="preserve">хⷪ҇домь WG ходт H</t>
@@ -3086,628 +3086,624 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="156">
+  <cellXfs count="155">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="42" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="46" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="42" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="46" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="51" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="49" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="51" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="53" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="35" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="51" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="57" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="53" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="35" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="51" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="57" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="32" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="58" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="56" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="44" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="44" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="14" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="56" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="56" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="32" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="56" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="56" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="32" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="58" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="56" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="44" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="44" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="14" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="56" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="56" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="32" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="56" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="56" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3785,4955 +3781,4955 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:AA204"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A48" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E182" activeCellId="0" sqref="E182"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A63" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J76" activeCellId="0" sqref="J76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.55859375" defaultRowHeight="17.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5625" defaultRowHeight="17.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="5.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="12.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="10.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="8.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="6.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="11.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="8.88"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="14" min="14" style="2" width="8.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="4.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="8.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="12.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="3" width="7.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="8.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="6.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="7.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="10.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="5.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="12.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="10.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="8.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="6.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="11.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="3" width="8.88"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="14" min="14" style="3" width="8.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="4.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="8.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="12.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="4" width="7.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="8.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="6.22"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="8"/>
-      <c r="M2" s="2" t="s">
+      <c r="L2" s="9"/>
+      <c r="M2" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="4" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="M3" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="8" t="s">
+      <c r="M4" s="9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2" t="s">
+      <c r="L5" s="3"/>
+      <c r="M5" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="10" t="s">
+      <c r="G6" s="7"/>
+      <c r="H6" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="L6" s="12" t="s">
+      <c r="L6" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="8" t="s">
+      <c r="M6" s="9" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="L7" s="12" t="s">
+      <c r="L7" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="M7" s="8" t="s">
+      <c r="M7" s="9" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="L8" s="12" t="s">
+      <c r="L8" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="M8" s="8" t="s">
+      <c r="M8" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="L9" s="12" t="s">
+      <c r="L9" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="M9" s="8" t="s">
+      <c r="M9" s="9" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="2" t="s">
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="M10" s="8" t="s">
+      <c r="M10" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="H11" s="16" t="s">
+      <c r="H11" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="I11" s="17"/>
-      <c r="J11" s="18" t="s">
+      <c r="I11" s="18"/>
+      <c r="J11" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="K11" s="17"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="19" t="s">
+      <c r="K11" s="18"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="20" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I12" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="L12" s="2" t="s">
+      <c r="L12" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="M12" s="8" t="s">
+      <c r="M12" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="N12" s="2" t="s">
+      <c r="N12" s="3" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I13" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="L13" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="M13" s="8" t="s">
+      <c r="M13" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="N13" s="2" t="s">
+      <c r="N13" s="3" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I14" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="L14" s="2" t="s">
+      <c r="L14" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="M14" s="8" t="s">
+      <c r="M14" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="N14" s="2" t="s">
+      <c r="N14" s="3" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="L15" s="2" t="s">
+      <c r="L15" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="M15" s="8"/>
-      <c r="Q15" s="20" t="s">
+      <c r="M15" s="9"/>
+      <c r="Q15" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="R15" s="21" t="s">
+      <c r="R15" s="22" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="L16" s="2" t="s">
+      <c r="L16" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="M16" s="8" t="s">
+      <c r="M16" s="9" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H17" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="L17" s="2" t="s">
+      <c r="L17" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="M17" s="8" t="s">
+      <c r="M17" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="N17" s="2" t="s">
+      <c r="N17" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="Q17" s="20" t="s">
+      <c r="Q17" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="R17" s="21" t="s">
+      <c r="R17" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="S17" s="0" t="s">
+      <c r="S17" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F18" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G18" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="H18" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="L18" s="2" t="s">
+      <c r="L18" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="M18" s="8" t="s">
+      <c r="M18" s="9" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="G19" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="H19" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="L19" s="2" t="s">
+      <c r="L19" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="M19" s="8" t="s">
+      <c r="M19" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="Q19" s="20" t="s">
+      <c r="Q19" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="R19" s="21" t="s">
+      <c r="R19" s="22" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="G20" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="H20" s="7" t="s">
+      <c r="H20" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="I20" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="L20" s="2" t="s">
+      <c r="L20" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="M20" s="8" t="s">
+      <c r="M20" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="N20" s="2" t="s">
+      <c r="N20" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="G21" s="6"/>
-      <c r="H21" s="7" t="s">
+      <c r="G21" s="7"/>
+      <c r="H21" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="J21" s="22" t="s">
+      <c r="J21" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="L21" s="8"/>
-      <c r="M21" s="2" t="s">
+      <c r="L21" s="9"/>
+      <c r="M21" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="G22" s="6"/>
-      <c r="H22" s="7" t="s">
+      <c r="G22" s="7"/>
+      <c r="H22" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
     </row>
     <row r="23" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E23" s="4"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="7"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="8"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
     </row>
     <row r="24" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="F24" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G24" s="6"/>
-      <c r="H24" s="7" t="s">
+      <c r="G24" s="7"/>
+      <c r="H24" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="L24" s="23" t="s">
+      <c r="L24" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="M24" s="8" t="s">
+      <c r="M24" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="O24" s="24"/>
-      <c r="Q24" s="25"/>
+      <c r="O24" s="25"/>
+      <c r="Q24" s="26"/>
     </row>
     <row r="25" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="F25" s="10" t="s">
+      <c r="F25" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="G25" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="H25" s="7" t="s">
+      <c r="H25" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="L25" s="23" t="s">
+      <c r="L25" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="M25" s="8" t="s">
+      <c r="M25" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="N25" s="2" t="s">
+      <c r="N25" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="Q25" s="20" t="s">
+      <c r="Q25" s="21" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E26" s="4"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="7"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="8"/>
-      <c r="Q26" s="20"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="8"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="9"/>
+      <c r="Q26" s="21"/>
     </row>
     <row r="27" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="F27" s="10" t="s">
+      <c r="F27" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G27" s="6"/>
-      <c r="H27" s="10" t="s">
+      <c r="G27" s="7"/>
+      <c r="H27" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="L27" s="26" t="s">
+      <c r="L27" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="M27" s="8" t="s">
+      <c r="M27" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="O27" s="24"/>
+      <c r="O27" s="25"/>
     </row>
     <row r="28" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="F28" s="10" t="s">
+      <c r="F28" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="G28" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="H28" s="7" t="s">
+      <c r="H28" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="L28" s="26" t="s">
+      <c r="L28" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="M28" s="8" t="s">
+      <c r="M28" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="N28" s="2" t="s">
+      <c r="N28" s="3" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="27"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="7"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="8"/>
+      <c r="A29" s="28"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="8"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="9"/>
     </row>
     <row r="30" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="F30" s="10" t="s">
+      <c r="F30" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="G30" s="6" t="s">
+      <c r="G30" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="H30" s="7" t="s">
+      <c r="H30" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="L30" s="2" t="s">
+      <c r="L30" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="M30" s="8" t="s">
+      <c r="M30" s="9" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E31" s="4" t="s">
+      <c r="E31" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="F31" s="10" t="s">
+      <c r="F31" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="G31" s="6" t="s">
+      <c r="G31" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="H31" s="7" t="s">
+      <c r="H31" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="L31" s="2" t="s">
+      <c r="L31" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="M31" s="8" t="s">
+      <c r="M31" s="9" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E32" s="4"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="7"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="8"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="8"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="9"/>
     </row>
     <row r="33" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E33" s="4" t="s">
+      <c r="E33" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="F33" s="10" t="s">
+      <c r="F33" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="G33" s="6" t="s">
+      <c r="G33" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="H33" s="7" t="s">
+      <c r="H33" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="L33" s="2" t="s">
+      <c r="L33" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="M33" s="8" t="s">
+      <c r="M33" s="9" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E34" s="4" t="s">
+      <c r="E34" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="F34" s="10" t="s">
+      <c r="F34" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="G34" s="6" t="s">
+      <c r="G34" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="H34" s="7" t="s">
+      <c r="H34" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="L34" s="2" t="s">
+      <c r="L34" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="M34" s="8" t="s">
+      <c r="M34" s="9" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E35" s="4" t="s">
+      <c r="E35" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="F35" s="10" t="s">
+      <c r="F35" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="G35" s="6" t="s">
+      <c r="G35" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="H35" s="7" t="s">
+      <c r="H35" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="L35" s="2" t="s">
+      <c r="L35" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="M35" s="8" t="s">
+      <c r="M35" s="9" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E36" s="4" t="s">
+      <c r="E36" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="F36" s="10" t="s">
+      <c r="F36" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="G36" s="6" t="s">
+      <c r="G36" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="H36" s="7" t="s">
+      <c r="H36" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="L36" s="2" t="s">
+      <c r="L36" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="M36" s="8" t="s">
+      <c r="M36" s="9" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E37" s="4"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="7"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="8"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="8"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="9"/>
     </row>
     <row r="38" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="27" t="s">
+      <c r="A38" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="B38" s="7"/>
-      <c r="C38" s="1" t="s">
+      <c r="B38" s="8"/>
+      <c r="C38" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D38" s="1"/>
-      <c r="E38" s="4" t="s">
+      <c r="D38" s="2"/>
+      <c r="E38" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="F38" s="5" t="s">
+      <c r="F38" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="G38" s="6" t="s">
+      <c r="G38" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="H38" s="28" t="s">
+      <c r="H38" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="I38" s="1" t="s">
+      <c r="I38" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="L38" s="2" t="s">
+      <c r="L38" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="M38" s="8" t="s">
+      <c r="M38" s="9" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="27" t="s">
+      <c r="A39" s="28" t="s">
         <v>161</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="4" t="s">
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="F39" s="5" t="s">
+      <c r="F39" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="G39" s="6" t="s">
+      <c r="G39" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="H39" s="7" t="s">
+      <c r="H39" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="L39" s="2"/>
-      <c r="M39" s="8"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="9"/>
     </row>
     <row r="40" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="27"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="4" t="s">
+      <c r="A40" s="28"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="F40" s="10" t="s">
+      <c r="F40" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="G40" s="6" t="s">
+      <c r="G40" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="H40" s="7" t="s">
+      <c r="H40" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="L40" s="2" t="s">
+      <c r="L40" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="M40" s="8" t="s">
+      <c r="M40" s="9" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="27"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="4" t="s">
+      <c r="A41" s="28"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="F41" s="10" t="s">
+      <c r="F41" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="G41" s="6" t="s">
+      <c r="G41" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="H41" s="7" t="s">
+      <c r="H41" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="L41" s="2" t="s">
+      <c r="L41" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="M41" s="8" t="s">
+      <c r="M41" s="9" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E42" s="4" t="s">
+      <c r="E42" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="F42" s="10" t="s">
+      <c r="F42" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="G42" s="6" t="s">
+      <c r="G42" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="H42" s="7" t="s">
+      <c r="H42" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="L42" s="2" t="s">
+      <c r="L42" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="M42" s="8" t="s">
+      <c r="M42" s="9" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E43" s="4" t="s">
+      <c r="E43" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="F43" s="10" t="s">
+      <c r="F43" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="G43" s="6" t="s">
+      <c r="G43" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="H43" s="7" t="s">
+      <c r="H43" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="L43" s="2" t="s">
+      <c r="L43" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="M43" s="8" t="s">
+      <c r="M43" s="9" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E44" s="4" t="s">
+      <c r="E44" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="F44" s="10" t="s">
+      <c r="F44" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="G44" s="6"/>
-      <c r="H44" s="7" t="s">
+      <c r="G44" s="7"/>
+      <c r="H44" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="L44" s="2" t="s">
+      <c r="L44" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="M44" s="8" t="s">
+      <c r="M44" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="N44" s="2" t="s">
+      <c r="N44" s="3" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E45" s="4" t="s">
+      <c r="E45" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="F45" s="10" t="s">
+      <c r="F45" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="G45" s="6"/>
-      <c r="H45" s="28" t="s">
+      <c r="G45" s="7"/>
+      <c r="H45" s="29" t="s">
         <v>179</v>
       </c>
-      <c r="L45" s="2" t="s">
+      <c r="L45" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="M45" s="8" t="s">
+      <c r="M45" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="N45" s="2" t="s">
+      <c r="N45" s="3" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E46" s="4" t="s">
+      <c r="E46" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="F46" s="10" t="s">
+      <c r="F46" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="G46" s="6"/>
-      <c r="H46" s="7" t="s">
+      <c r="G46" s="7"/>
+      <c r="H46" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="L46" s="2" t="s">
+      <c r="L46" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="M46" s="8" t="s">
+      <c r="M46" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="N46" s="2" t="s">
+      <c r="N46" s="3" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="27" t="s">
+      <c r="A47" s="28" t="s">
         <v>187</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="D47" s="1"/>
-      <c r="E47" s="4" t="s">
+      <c r="D47" s="2"/>
+      <c r="E47" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="F47" s="10" t="s">
+      <c r="F47" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="G47" s="6" t="s">
+      <c r="G47" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="H47" s="7" t="s">
+      <c r="H47" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="I47" s="1" t="s">
+      <c r="I47" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="L47" s="2" t="s">
+      <c r="L47" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="M47" s="8"/>
-      <c r="Q47" s="29" t="s">
+      <c r="M47" s="9"/>
+      <c r="Q47" s="30" t="s">
         <v>196</v>
       </c>
-      <c r="R47" s="21" t="s">
+      <c r="R47" s="22" t="s">
         <v>197</v>
       </c>
-      <c r="S47" s="21" t="s">
+      <c r="S47" s="22" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B48" s="7"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="4" t="s">
+      <c r="B48" s="8"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="F48" s="10" t="s">
+      <c r="F48" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="G48" s="6" t="s">
+      <c r="G48" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="H48" s="7" t="s">
+      <c r="H48" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="L48" s="2" t="s">
+      <c r="L48" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="M48" s="8" t="s">
+      <c r="M48" s="9" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="4" t="s">
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="F49" s="10" t="s">
+      <c r="F49" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="G49" s="6"/>
-      <c r="H49" s="7" t="s">
+      <c r="G49" s="7"/>
+      <c r="H49" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="L49" s="2" t="s">
+      <c r="L49" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="M49" s="8" t="s">
+      <c r="M49" s="9" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="27" t="s">
+      <c r="A51" s="28" t="s">
         <v>209</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="4" t="s">
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="F51" s="10" t="s">
+      <c r="F51" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="G51" s="6" t="s">
+      <c r="G51" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="H51" s="28" t="s">
+      <c r="H51" s="29" t="s">
         <v>214</v>
       </c>
-      <c r="L51" s="2" t="s">
+      <c r="L51" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="M51" s="8" t="s">
+      <c r="M51" s="9" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E52" s="4" t="s">
+      <c r="E52" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="F52" s="10" t="s">
+      <c r="F52" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="G52" s="6" t="s">
+      <c r="G52" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="H52" s="7" t="s">
+      <c r="H52" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="L52" s="2" t="s">
+      <c r="L52" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="M52" s="8" t="s">
+      <c r="M52" s="9" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="27" t="s">
+      <c r="A53" s="28" t="s">
         <v>222</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="11" t="s">
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="F53" s="10" t="s">
+      <c r="F53" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="G53" s="6" t="s">
+      <c r="G53" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="H53" s="28" t="s">
+      <c r="H53" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="L53" s="12" t="s">
+      <c r="L53" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="M53" s="8" t="s">
+      <c r="M53" s="9" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="4" t="s">
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="F54" s="10" t="s">
+      <c r="F54" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="G54" s="6" t="s">
+      <c r="G54" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="H54" s="28" t="s">
+      <c r="H54" s="29" t="s">
         <v>230</v>
       </c>
-      <c r="L54" s="2" t="s">
+      <c r="L54" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="M54" s="8" t="s">
+      <c r="M54" s="9" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="27" t="s">
+      <c r="A55" s="28" t="s">
         <v>232</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="4" t="s">
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="F55" s="10" t="s">
+      <c r="F55" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="G55" s="6" t="s">
+      <c r="G55" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="H55" s="28" t="s">
+      <c r="H55" s="29" t="s">
         <v>236</v>
       </c>
-      <c r="L55" s="2" t="s">
+      <c r="L55" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="M55" s="8" t="s">
+      <c r="M55" s="9" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E56" s="4" t="s">
+      <c r="E56" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="F56" s="10" t="s">
+      <c r="F56" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="G56" s="6" t="s">
+      <c r="G56" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="H56" s="7" t="s">
+      <c r="H56" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="L56" s="2" t="s">
+      <c r="L56" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="M56" s="8" t="s">
+      <c r="M56" s="9" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E57" s="4" t="s">
+      <c r="E57" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="F57" s="10" t="s">
+      <c r="F57" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="G57" s="6" t="s">
+      <c r="G57" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="H57" s="7" t="s">
+      <c r="H57" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="L57" s="2" t="s">
+      <c r="L57" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="M57" s="8" t="s">
+      <c r="M57" s="9" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E58" s="4" t="s">
+      <c r="E58" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="F58" s="10" t="s">
+      <c r="F58" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="G58" s="6" t="s">
+      <c r="G58" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="H58" s="7" t="s">
+      <c r="H58" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="L58" s="2" t="s">
+      <c r="L58" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="M58" s="8" t="s">
+      <c r="M58" s="9" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E59" s="4" t="s">
+      <c r="E59" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="F59" s="10" t="s">
+      <c r="F59" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="G59" s="6" t="s">
+      <c r="G59" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="H59" s="7" t="s">
+      <c r="H59" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="L59" s="2" t="s">
+      <c r="L59" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="M59" s="8" t="s">
+      <c r="M59" s="9" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E60" s="4" t="s">
+      <c r="E60" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="F60" s="10" t="s">
+      <c r="F60" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="G60" s="6" t="s">
+      <c r="G60" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="H60" s="7" t="s">
+      <c r="H60" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="L60" s="2" t="s">
+      <c r="L60" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="M60" s="8" t="s">
+      <c r="M60" s="9" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E61" s="4" t="s">
+      <c r="E61" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="F61" s="10" t="s">
+      <c r="F61" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="G61" s="6" t="s">
+      <c r="G61" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="H61" s="7" t="s">
+      <c r="H61" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="L61" s="2" t="s">
+      <c r="L61" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="M61" s="8" t="s">
+      <c r="M61" s="9" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E62" s="4" t="s">
+      <c r="E62" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="F62" s="10" t="s">
+      <c r="F62" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="G62" s="6" t="s">
+      <c r="G62" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="H62" s="7" t="s">
+      <c r="H62" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="L62" s="2" t="s">
+      <c r="L62" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="M62" s="8" t="s">
+      <c r="M62" s="9" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E63" s="4" t="s">
+      <c r="E63" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="F63" s="10" t="s">
+      <c r="F63" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="G63" s="6" t="s">
+      <c r="G63" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="H63" s="7" t="s">
+      <c r="H63" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="L63" s="2" t="s">
+      <c r="L63" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="M63" s="8" t="s">
+      <c r="M63" s="9" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E64" s="4" t="s">
+      <c r="E64" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="F64" s="10" t="s">
+      <c r="F64" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="G64" s="6" t="s">
+      <c r="G64" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="H64" s="7" t="s">
+      <c r="H64" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="L64" s="2" t="s">
+      <c r="L64" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="M64" s="8" t="s">
+      <c r="M64" s="9" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="1"/>
-      <c r="B65" s="30"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="31"/>
-      <c r="E65" s="31" t="s">
+      <c r="A65" s="2"/>
+      <c r="B65" s="31"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="32" t="s">
         <v>265</v>
       </c>
-      <c r="F65" s="17" t="s">
+      <c r="F65" s="18" t="s">
         <v>266</v>
       </c>
-      <c r="G65" s="15" t="s">
+      <c r="G65" s="16" t="s">
         <v>266</v>
       </c>
-      <c r="H65" s="16" t="s">
+      <c r="H65" s="17" t="s">
         <v>267</v>
       </c>
-      <c r="I65" s="17"/>
-      <c r="J65" s="17"/>
-      <c r="L65" s="2" t="s">
+      <c r="I65" s="18"/>
+      <c r="J65" s="18"/>
+      <c r="L65" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="M65" s="32" t="s">
+      <c r="M65" s="33" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="17" t="s">
+      <c r="A66" s="18" t="s">
         <v>269</v>
       </c>
-      <c r="B66" s="30" t="s">
+      <c r="B66" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="C66" s="1"/>
-      <c r="D66" s="33" t="s">
+      <c r="C66" s="2"/>
+      <c r="D66" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="E66" s="31" t="s">
+      <c r="E66" s="32" t="s">
         <v>265</v>
       </c>
-      <c r="F66" s="1" t="s">
+      <c r="F66" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="G66" s="15" t="s">
+      <c r="G66" s="16" t="s">
         <v>266</v>
       </c>
-      <c r="H66" s="16" t="s">
+      <c r="H66" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="I66" s="17"/>
-      <c r="J66" s="17"/>
-      <c r="L66" s="2" t="s">
+      <c r="I66" s="18"/>
+      <c r="J66" s="18"/>
+      <c r="L66" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="M66" s="32" t="s">
+      <c r="M66" s="33" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="47.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="34" t="s">
+      <c r="A68" s="35" t="s">
         <v>270</v>
       </c>
-      <c r="B68" s="35" t="s">
+      <c r="B68" s="36" t="s">
         <v>271</v>
       </c>
-      <c r="D68" s="13"/>
-      <c r="E68" s="13" t="s">
+      <c r="D68" s="14"/>
+      <c r="E68" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="F68" s="14" t="s">
+      <c r="F68" s="15" t="s">
         <v>273</v>
       </c>
-      <c r="G68" s="15" t="s">
+      <c r="G68" s="16" t="s">
         <v>274</v>
       </c>
-      <c r="H68" s="16" t="s">
+      <c r="H68" s="17" t="s">
         <v>275</v>
       </c>
-      <c r="I68" s="17"/>
-      <c r="J68" s="17"/>
-      <c r="K68" s="36"/>
-      <c r="L68" s="37" t="s">
+      <c r="I68" s="18"/>
+      <c r="J68" s="18"/>
+      <c r="K68" s="37"/>
+      <c r="L68" s="38" t="s">
         <v>276</v>
       </c>
-      <c r="M68" s="38" t="s">
+      <c r="M68" s="39" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="16"/>
-      <c r="D69" s="39"/>
-      <c r="E69" s="13" t="s">
+      <c r="B69" s="17"/>
+      <c r="D69" s="40"/>
+      <c r="E69" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="F69" s="14" t="s">
+      <c r="F69" s="15" t="s">
         <v>278</v>
       </c>
-      <c r="G69" s="15" t="s">
+      <c r="G69" s="16" t="s">
         <v>274</v>
       </c>
-      <c r="H69" s="16" t="s">
+      <c r="H69" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="I69" s="17"/>
-      <c r="J69" s="33" t="s">
+      <c r="I69" s="18"/>
+      <c r="J69" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="K69" s="36"/>
-      <c r="L69" s="40"/>
-      <c r="M69" s="38" t="s">
+      <c r="K69" s="37"/>
+      <c r="L69" s="41"/>
+      <c r="M69" s="39" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E70" s="13" t="s">
+      <c r="E70" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="F70" s="17" t="s">
+      <c r="F70" s="18" t="s">
         <v>280</v>
       </c>
-      <c r="G70" s="15" t="s">
+      <c r="G70" s="16" t="s">
         <v>281</v>
       </c>
-      <c r="H70" s="16" t="s">
+      <c r="H70" s="17" t="s">
         <v>282</v>
       </c>
-      <c r="I70" s="41"/>
-      <c r="J70" s="17"/>
-      <c r="K70" s="36"/>
-      <c r="L70" s="42" t="s">
+      <c r="I70" s="42"/>
+      <c r="J70" s="18"/>
+      <c r="K70" s="37"/>
+      <c r="L70" s="43" t="s">
         <v>283</v>
       </c>
-      <c r="M70" s="38"/>
-      <c r="N70" s="43"/>
-      <c r="O70" s="40"/>
-      <c r="Q70" s="44" t="s">
+      <c r="M70" s="39"/>
+      <c r="N70" s="44"/>
+      <c r="O70" s="41"/>
+      <c r="Q70" s="45" t="s">
         <v>284</v>
       </c>
-      <c r="R70" s="32" t="s">
+      <c r="R70" s="33" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E71" s="13" t="s">
+      <c r="E71" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="F71" s="17" t="s">
+      <c r="F71" s="18" t="s">
         <v>286</v>
       </c>
-      <c r="G71" s="15" t="s">
+      <c r="G71" s="16" t="s">
         <v>281</v>
       </c>
-      <c r="H71" s="16" t="s">
+      <c r="H71" s="17" t="s">
         <v>287</v>
       </c>
-      <c r="I71" s="45"/>
-      <c r="J71" s="17"/>
-      <c r="K71" s="36"/>
-      <c r="L71" s="42" t="s">
+      <c r="I71" s="46"/>
+      <c r="J71" s="18"/>
+      <c r="K71" s="37"/>
+      <c r="L71" s="43" t="s">
         <v>288</v>
       </c>
-      <c r="M71" s="38" t="s">
+      <c r="M71" s="39" t="s">
         <v>289</v>
       </c>
-      <c r="N71" s="43"/>
-      <c r="O71" s="40"/>
-      <c r="Q71" s="44" t="s">
+      <c r="N71" s="44"/>
+      <c r="O71" s="41"/>
+      <c r="Q71" s="45" t="s">
         <v>290</v>
       </c>
-      <c r="R71" s="32"/>
+      <c r="R71" s="33"/>
     </row>
     <row r="72" customFormat="false" ht="34.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="46" t="s">
+      <c r="A72" s="47" t="s">
         <v>291</v>
       </c>
-      <c r="B72" s="47" t="s">
+      <c r="B72" s="48" t="s">
         <v>292</v>
       </c>
-      <c r="C72" s="48" t="s">
+      <c r="C72" s="49" t="s">
         <v>293</v>
       </c>
-      <c r="D72" s="17"/>
-      <c r="E72" s="17" t="s">
+      <c r="D72" s="18"/>
+      <c r="E72" s="18" t="s">
         <v>294</v>
       </c>
-      <c r="F72" s="14" t="s">
+      <c r="F72" s="15" t="s">
         <v>295</v>
       </c>
-      <c r="G72" s="15" t="s">
+      <c r="G72" s="16" t="s">
         <v>296</v>
       </c>
-      <c r="H72" s="16" t="s">
+      <c r="H72" s="17" t="s">
         <v>297</v>
       </c>
-      <c r="I72" s="49" t="s">
+      <c r="I72" s="50" t="s">
         <v>298</v>
       </c>
-      <c r="J72" s="17"/>
-      <c r="K72" s="50"/>
-      <c r="L72" s="51" t="s">
+      <c r="J72" s="18"/>
+      <c r="K72" s="51"/>
+      <c r="L72" s="52" t="s">
         <v>299</v>
       </c>
-      <c r="M72" s="52" t="s">
+      <c r="M72" s="53" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="34.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="46" t="s">
+      <c r="A73" s="47" t="s">
         <v>301</v>
       </c>
-      <c r="B73" s="53" t="s">
+      <c r="B73" s="54" t="s">
         <v>302</v>
       </c>
-      <c r="C73" s="1"/>
-      <c r="D73" s="17"/>
-      <c r="E73" s="17" t="s">
+      <c r="C73" s="2"/>
+      <c r="D73" s="18"/>
+      <c r="E73" s="18" t="s">
         <v>303</v>
       </c>
-      <c r="F73" s="14" t="s">
+      <c r="F73" s="15" t="s">
         <v>304</v>
       </c>
-      <c r="G73" s="15" t="s">
+      <c r="G73" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="H73" s="54" t="s">
+      <c r="H73" s="55" t="s">
         <v>306</v>
       </c>
-      <c r="I73" s="17"/>
-      <c r="J73" s="17"/>
-      <c r="K73" s="50"/>
-      <c r="L73" s="51"/>
-      <c r="M73" s="52"/>
-      <c r="Q73" s="29"/>
+      <c r="I73" s="18"/>
+      <c r="J73" s="18"/>
+      <c r="K73" s="51"/>
+      <c r="L73" s="52"/>
+      <c r="M73" s="53"/>
+      <c r="Q73" s="30"/>
     </row>
     <row r="74" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q74" s="55"/>
+      <c r="Q74" s="56"/>
     </row>
     <row r="75" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="1"/>
-      <c r="B75" s="30"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="31"/>
-      <c r="E75" s="31" t="s">
+      <c r="A75" s="2"/>
+      <c r="B75" s="31"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="32"/>
+      <c r="E75" s="32" t="s">
         <v>307</v>
       </c>
-      <c r="F75" s="17" t="s">
+      <c r="F75" s="18" t="s">
         <v>266</v>
       </c>
-      <c r="G75" s="15" t="s">
+      <c r="G75" s="16" t="s">
         <v>266</v>
       </c>
-      <c r="H75" s="16" t="s">
+      <c r="H75" s="17" t="s">
         <v>267</v>
       </c>
-      <c r="I75" s="17"/>
-      <c r="J75" s="17"/>
-      <c r="L75" s="2" t="s">
+      <c r="I75" s="18"/>
+      <c r="J75" s="18"/>
+      <c r="L75" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="M75" s="32" t="s">
+      <c r="M75" s="33" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="17" t="s">
+      <c r="A76" s="18" t="s">
         <v>269</v>
       </c>
-      <c r="B76" s="30" t="s">
+      <c r="B76" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="C76" s="1"/>
-      <c r="D76" s="33" t="s">
+      <c r="C76" s="2"/>
+      <c r="D76" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="E76" s="31" t="s">
+      <c r="E76" s="32" t="s">
         <v>307</v>
       </c>
-      <c r="F76" s="1" t="s">
+      <c r="F76" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="G76" s="15" t="s">
+      <c r="G76" s="16" t="s">
         <v>266</v>
       </c>
-      <c r="H76" s="16" t="s">
+      <c r="H76" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="I76" s="17"/>
-      <c r="J76" s="17"/>
-      <c r="L76" s="2" t="s">
+      <c r="I76" s="18"/>
+      <c r="J76" s="18"/>
+      <c r="L76" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="M76" s="32" t="s">
+      <c r="M76" s="33" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="78" s="59" customFormat="true" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="56"/>
-      <c r="B78" s="56"/>
-      <c r="C78" s="56"/>
-      <c r="D78" s="56"/>
-      <c r="E78" s="4" t="s">
+    <row r="78" s="60" customFormat="true" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="57"/>
+      <c r="B78" s="57"/>
+      <c r="C78" s="57"/>
+      <c r="D78" s="57"/>
+      <c r="E78" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="F78" s="57" t="s">
+      <c r="F78" s="58" t="s">
         <v>309</v>
       </c>
-      <c r="G78" s="10" t="s">
+      <c r="G78" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="H78" s="10" t="s">
+      <c r="H78" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="I78" s="10"/>
-      <c r="J78" s="10"/>
-      <c r="K78" s="10"/>
-      <c r="L78" s="4" t="s">
+      <c r="I78" s="11"/>
+      <c r="J78" s="11"/>
+      <c r="K78" s="11"/>
+      <c r="L78" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="M78" s="4" t="s">
+      <c r="M78" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="N78" s="58"/>
-      <c r="R78" s="60"/>
-    </row>
-    <row r="79" s="59" customFormat="true" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="10" t="s">
+      <c r="N78" s="59"/>
+      <c r="R78" s="61"/>
+    </row>
+    <row r="79" s="60" customFormat="true" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="B79" s="56"/>
-      <c r="C79" s="56"/>
-      <c r="D79" s="56"/>
-      <c r="E79" s="4" t="s">
+      <c r="B79" s="57"/>
+      <c r="C79" s="57"/>
+      <c r="D79" s="57"/>
+      <c r="E79" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="F79" s="57" t="s">
+      <c r="F79" s="58" t="s">
         <v>315</v>
       </c>
-      <c r="G79" s="10" t="s">
+      <c r="G79" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="H79" s="10" t="s">
+      <c r="H79" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="I79" s="10"/>
-      <c r="J79" s="61" t="s">
+      <c r="I79" s="11"/>
+      <c r="J79" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="K79" s="10"/>
-      <c r="L79" s="56"/>
-      <c r="M79" s="4" t="s">
+      <c r="K79" s="11"/>
+      <c r="L79" s="57"/>
+      <c r="M79" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="N79" s="58"/>
-      <c r="R79" s="60"/>
+      <c r="N79" s="59"/>
+      <c r="R79" s="61"/>
     </row>
     <row r="80" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="1"/>
-      <c r="E80" s="58"/>
-      <c r="F80" s="62"/>
-      <c r="G80" s="62"/>
-      <c r="H80" s="62"/>
-      <c r="I80" s="62"/>
-      <c r="J80" s="62"/>
+      <c r="A80" s="2"/>
+      <c r="E80" s="59"/>
+      <c r="F80" s="63"/>
+      <c r="G80" s="63"/>
+      <c r="H80" s="63"/>
+      <c r="I80" s="63"/>
+      <c r="J80" s="63"/>
     </row>
     <row r="81" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="63"/>
-      <c r="B81" s="63"/>
-      <c r="C81" s="63"/>
-      <c r="D81" s="63"/>
-      <c r="E81" s="64" t="s">
+      <c r="A81" s="64"/>
+      <c r="B81" s="64"/>
+      <c r="C81" s="64"/>
+      <c r="D81" s="64"/>
+      <c r="E81" s="65" t="s">
         <v>316</v>
       </c>
-      <c r="F81" s="65" t="s">
+      <c r="F81" s="66" t="s">
         <v>317</v>
       </c>
-      <c r="G81" s="66" t="s">
+      <c r="G81" s="67" t="s">
         <v>318</v>
       </c>
-      <c r="H81" s="67" t="s">
+      <c r="H81" s="68" t="s">
         <v>319</v>
       </c>
-      <c r="I81" s="64"/>
-      <c r="J81" s="64"/>
-      <c r="K81" s="64"/>
-      <c r="L81" s="68" t="s">
+      <c r="I81" s="65"/>
+      <c r="J81" s="65"/>
+      <c r="K81" s="65"/>
+      <c r="L81" s="69" t="s">
         <v>320</v>
       </c>
-      <c r="M81" s="69" t="s">
+      <c r="M81" s="70" t="s">
         <v>321</v>
       </c>
-      <c r="N81" s="68"/>
+      <c r="N81" s="69"/>
     </row>
     <row r="82" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E82" s="64" t="s">
+      <c r="E82" s="65" t="s">
         <v>322</v>
       </c>
-      <c r="F82" s="65" t="s">
+      <c r="F82" s="66" t="s">
         <v>315</v>
       </c>
-      <c r="G82" s="66" t="s">
+      <c r="G82" s="67" t="s">
         <v>323</v>
       </c>
-      <c r="H82" s="67" t="s">
+      <c r="H82" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="I82" s="64"/>
-      <c r="J82" s="70" t="s">
+      <c r="I82" s="65"/>
+      <c r="J82" s="71" t="s">
         <v>324</v>
       </c>
-      <c r="K82" s="64"/>
-      <c r="L82" s="68" t="s">
+      <c r="K82" s="65"/>
+      <c r="L82" s="69" t="s">
         <v>325</v>
       </c>
-      <c r="M82" s="69" t="s">
+      <c r="M82" s="70" t="s">
         <v>326</v>
       </c>
-      <c r="N82" s="68"/>
+      <c r="N82" s="69"/>
     </row>
     <row r="83" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="27"/>
-      <c r="B83" s="7"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="4" t="s">
+      <c r="A83" s="28"/>
+      <c r="B83" s="8"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="F83" s="10" t="s">
+      <c r="F83" s="11" t="s">
         <v>328</v>
       </c>
-      <c r="G83" s="6" t="s">
+      <c r="G83" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="H83" s="7" t="s">
+      <c r="H83" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="I83" s="1" t="s">
+      <c r="I83" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="L83" s="2" t="s">
+      <c r="L83" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="M83" s="71" t="s">
+      <c r="M83" s="72" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E84" s="4" t="s">
+      <c r="E84" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="F84" s="10" t="s">
+      <c r="F84" s="11" t="s">
         <v>335</v>
       </c>
-      <c r="G84" s="6" t="s">
+      <c r="G84" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="H84" s="7" t="s">
+      <c r="H84" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="I84" s="1" t="s">
+      <c r="I84" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="L84" s="2" t="s">
+      <c r="L84" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="M84" s="8" t="s">
+      <c r="M84" s="9" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="27" t="s">
+      <c r="A85" s="28" t="s">
         <v>340</v>
       </c>
-      <c r="B85" s="7" t="s">
+      <c r="B85" s="8" t="s">
         <v>341</v>
       </c>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-      <c r="E85" s="4" t="s">
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="F85" s="10" t="s">
+      <c r="F85" s="11" t="s">
         <v>343</v>
       </c>
-      <c r="G85" s="6" t="s">
+      <c r="G85" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="H85" s="28" t="s">
+      <c r="H85" s="29" t="s">
         <v>345</v>
       </c>
-      <c r="I85" s="1" t="s">
+      <c r="I85" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="L85" s="2" t="s">
+      <c r="L85" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="M85" s="8" t="s">
+      <c r="M85" s="9" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="72" t="s">
+      <c r="A86" s="73" t="s">
         <v>348</v>
       </c>
-      <c r="B86" s="7" t="s">
+      <c r="B86" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="4" t="s">
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="F86" s="10" t="s">
+      <c r="F86" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="G86" s="6" t="s">
+      <c r="G86" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="H86" s="28" t="s">
+      <c r="H86" s="29" t="s">
         <v>351</v>
       </c>
-      <c r="I86" s="1" t="s">
+      <c r="I86" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="L86" s="2" t="s">
+      <c r="L86" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="M86" s="8" t="s">
+      <c r="M86" s="9" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E87" s="4" t="s">
+      <c r="E87" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="F87" s="10" t="s">
+      <c r="F87" s="11" t="s">
         <v>355</v>
       </c>
-      <c r="G87" s="6" t="s">
+      <c r="G87" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="H87" s="7" t="s">
+      <c r="H87" s="8" t="s">
         <v>356</v>
       </c>
-      <c r="I87" s="1" t="s">
+      <c r="I87" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="L87" s="4" t="s">
+      <c r="L87" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="M87" s="8" t="s">
+      <c r="M87" s="9" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="27" t="s">
+      <c r="A88" s="28" t="s">
         <v>360</v>
       </c>
-      <c r="B88" s="7" t="s">
+      <c r="B88" s="8" t="s">
         <v>361</v>
       </c>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-      <c r="E88" s="4" t="s">
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="F88" s="10" t="s">
+      <c r="F88" s="11" t="s">
         <v>363</v>
       </c>
-      <c r="G88" s="6" t="s">
+      <c r="G88" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="H88" s="28" t="s">
+      <c r="H88" s="29" t="s">
         <v>365</v>
       </c>
-      <c r="I88" s="1" t="s">
+      <c r="I88" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="L88" s="2" t="s">
+      <c r="L88" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="M88" s="8" t="s">
+      <c r="M88" s="9" t="s">
         <v>368</v>
       </c>
-      <c r="N88" s="2" t="s">
+      <c r="N88" s="3" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="62" t="s">
+      <c r="A89" s="63" t="s">
         <v>370</v>
       </c>
-      <c r="B89" s="7"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-      <c r="E89" s="4" t="s">
+      <c r="B89" s="8"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="F89" s="10" t="s">
+      <c r="F89" s="11" t="s">
         <v>371</v>
       </c>
-      <c r="G89" s="6" t="s">
+      <c r="G89" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="H89" s="7" t="s">
+      <c r="H89" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="I89" s="1" t="s">
+      <c r="I89" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="L89" s="2" t="s">
+      <c r="L89" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="M89" s="8" t="s">
+      <c r="M89" s="9" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E90" s="4" t="s">
+      <c r="E90" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="F90" s="10" t="s">
+      <c r="F90" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="G90" s="6" t="s">
+      <c r="G90" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="H90" s="7" t="s">
+      <c r="H90" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="I90" s="1" t="s">
+      <c r="I90" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="L90" s="2" t="s">
+      <c r="L90" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="M90" s="8" t="s">
+      <c r="M90" s="9" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E91" s="4" t="s">
+      <c r="E91" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="F91" s="10" t="s">
+      <c r="F91" s="11" t="s">
         <v>382</v>
       </c>
-      <c r="G91" s="6" t="s">
+      <c r="G91" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="H91" s="7" t="s">
+      <c r="H91" s="8" t="s">
         <v>384</v>
       </c>
-      <c r="L91" s="2" t="s">
+      <c r="L91" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="M91" s="8" t="s">
+      <c r="M91" s="9" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E92" s="4"/>
-      <c r="F92" s="10" t="s">
+      <c r="E92" s="5"/>
+      <c r="F92" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="G92" s="6"/>
-      <c r="H92" s="28" t="s">
+      <c r="G92" s="7"/>
+      <c r="H92" s="29" t="s">
         <v>179</v>
       </c>
-      <c r="L92" s="2" t="s">
+      <c r="L92" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="M92" s="8" t="s">
+      <c r="M92" s="9" t="s">
         <v>388</v>
       </c>
-      <c r="N92" s="2" t="s">
+      <c r="N92" s="3" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E93" s="4" t="s">
+      <c r="E93" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="F93" s="10" t="s">
+      <c r="F93" s="11" t="s">
         <v>391</v>
       </c>
-      <c r="G93" s="6" t="s">
+      <c r="G93" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="H93" s="7" t="s">
+      <c r="H93" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="L93" s="2" t="s">
+      <c r="L93" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="M93" s="8" t="s">
+      <c r="M93" s="9" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E94" s="4"/>
-      <c r="F94" s="10" t="s">
+      <c r="E94" s="5"/>
+      <c r="F94" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="G94" s="6"/>
-      <c r="H94" s="7" t="s">
+      <c r="G94" s="7"/>
+      <c r="H94" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="L94" s="2" t="s">
+      <c r="L94" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="M94" s="8" t="s">
+      <c r="M94" s="9" t="s">
         <v>395</v>
       </c>
-      <c r="N94" s="2" t="s">
+      <c r="N94" s="3" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="27" t="s">
+      <c r="A95" s="28" t="s">
         <v>397</v>
       </c>
-      <c r="B95" s="7" t="s">
+      <c r="B95" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-      <c r="E95" s="4" t="s">
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="F95" s="10" t="s">
+      <c r="F95" s="11" t="s">
         <v>399</v>
       </c>
-      <c r="G95" s="6" t="s">
+      <c r="G95" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="H95" s="7" t="s">
+      <c r="H95" s="8" t="s">
         <v>399</v>
       </c>
-      <c r="L95" s="2" t="s">
+      <c r="L95" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="M95" s="8" t="s">
+      <c r="M95" s="9" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="27"/>
-      <c r="B96" s="7"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
-      <c r="E96" s="4" t="s">
+      <c r="A96" s="28"/>
+      <c r="B96" s="8"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="F96" s="10" t="s">
+      <c r="F96" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="G96" s="6" t="s">
+      <c r="G96" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="H96" s="7" t="s">
+      <c r="H96" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="L96" s="2" t="s">
+      <c r="L96" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="M96" s="8" t="s">
+      <c r="M96" s="9" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="27" t="s">
+      <c r="A97" s="28" t="s">
         <v>397</v>
       </c>
-      <c r="B97" s="7" t="s">
+      <c r="B97" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-      <c r="E97" s="4" t="s">
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="F97" s="10" t="s">
+      <c r="F97" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="G97" s="6" t="s">
+      <c r="G97" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="H97" s="7" t="s">
+      <c r="H97" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="L97" s="2" t="s">
+      <c r="L97" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="M97" s="8" t="s">
+      <c r="M97" s="9" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="27" t="s">
+      <c r="A98" s="28" t="s">
         <v>401</v>
       </c>
-      <c r="B98" s="7" t="s">
+      <c r="B98" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="4" t="s">
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="F98" s="1" t="s">
+      <c r="F98" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="G98" s="6"/>
-      <c r="H98" s="7" t="s">
+      <c r="G98" s="7"/>
+      <c r="H98" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="L98" s="2" t="s">
+      <c r="L98" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="M98" s="8" t="s">
+      <c r="M98" s="9" t="s">
         <v>404</v>
       </c>
-      <c r="N98" s="2" t="s">
+      <c r="N98" s="3" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="17" t="s">
+      <c r="A99" s="18" t="s">
         <v>406</v>
       </c>
-      <c r="B99" s="16" t="s">
+      <c r="B99" s="17" t="s">
         <v>407</v>
       </c>
-      <c r="C99" s="1"/>
-      <c r="D99" s="17"/>
-      <c r="E99" s="17" t="s">
+      <c r="C99" s="2"/>
+      <c r="D99" s="18"/>
+      <c r="E99" s="18" t="s">
         <v>408</v>
       </c>
-      <c r="F99" s="17" t="s">
+      <c r="F99" s="18" t="s">
         <v>409</v>
       </c>
-      <c r="G99" s="15" t="s">
+      <c r="G99" s="16" t="s">
         <v>410</v>
       </c>
-      <c r="H99" s="16" t="s">
+      <c r="H99" s="17" t="s">
         <v>409</v>
       </c>
-      <c r="I99" s="17"/>
-      <c r="J99" s="17"/>
-      <c r="K99" s="17"/>
-      <c r="L99" s="51" t="s">
+      <c r="I99" s="18"/>
+      <c r="J99" s="18"/>
+      <c r="K99" s="18"/>
+      <c r="L99" s="52" t="s">
         <v>411</v>
       </c>
-      <c r="M99" s="51" t="s">
+      <c r="M99" s="52" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E100" s="17" t="s">
+      <c r="E100" s="18" t="s">
         <v>412</v>
       </c>
-      <c r="F100" s="14" t="s">
+      <c r="F100" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="G100" s="15" t="s">
+      <c r="G100" s="16" t="s">
         <v>414</v>
       </c>
-      <c r="H100" s="16" t="s">
+      <c r="H100" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="I100" s="17"/>
-      <c r="J100" s="73" t="s">
+      <c r="I100" s="18"/>
+      <c r="J100" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="K100" s="17"/>
-      <c r="L100" s="2"/>
-      <c r="M100" s="19" t="s">
+      <c r="K100" s="18"/>
+      <c r="L100" s="3"/>
+      <c r="M100" s="20" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E101" s="17" t="s">
+      <c r="E101" s="18" t="s">
         <v>415</v>
       </c>
-      <c r="F101" s="14" t="s">
+      <c r="F101" s="15" t="s">
         <v>416</v>
       </c>
-      <c r="G101" s="15" t="s">
+      <c r="G101" s="16" t="s">
         <v>417</v>
       </c>
-      <c r="H101" s="16" t="s">
+      <c r="H101" s="17" t="s">
         <v>418</v>
       </c>
-      <c r="I101" s="17"/>
-      <c r="J101" s="17"/>
-      <c r="K101" s="17"/>
-      <c r="L101" s="2" t="s">
+      <c r="I101" s="18"/>
+      <c r="J101" s="18"/>
+      <c r="K101" s="18"/>
+      <c r="L101" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="M101" s="74" t="s">
+      <c r="M101" s="75" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="17" t="s">
+      <c r="A102" s="18" t="s">
         <v>420</v>
       </c>
-      <c r="B102" s="16" t="s">
+      <c r="B102" s="17" t="s">
         <v>421</v>
       </c>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
-      <c r="E102" s="17" t="s">
+      <c r="C102" s="2"/>
+      <c r="D102" s="2"/>
+      <c r="E102" s="18" t="s">
         <v>422</v>
       </c>
-      <c r="F102" s="17" t="s">
+      <c r="F102" s="18" t="s">
         <v>423</v>
       </c>
-      <c r="G102" s="15" t="s">
+      <c r="G102" s="16" t="s">
         <v>424</v>
       </c>
-      <c r="H102" s="16" t="s">
+      <c r="H102" s="17" t="s">
         <v>423</v>
       </c>
-      <c r="I102" s="17"/>
-      <c r="J102" s="17"/>
-      <c r="K102" s="17"/>
-      <c r="L102" s="2" t="s">
+      <c r="I102" s="18"/>
+      <c r="J102" s="18"/>
+      <c r="K102" s="18"/>
+      <c r="L102" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="M102" s="75" t="s">
+      <c r="M102" s="76" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="17" t="s">
+      <c r="A103" s="18" t="s">
         <v>427</v>
       </c>
-      <c r="B103" s="16" t="s">
+      <c r="B103" s="17" t="s">
         <v>428</v>
       </c>
-      <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
-      <c r="E103" s="17" t="s">
+      <c r="C103" s="2"/>
+      <c r="D103" s="2"/>
+      <c r="E103" s="18" t="s">
         <v>422</v>
       </c>
-      <c r="F103" s="17" t="s">
+      <c r="F103" s="18" t="s">
         <v>423</v>
       </c>
-      <c r="G103" s="15" t="s">
+      <c r="G103" s="16" t="s">
         <v>424</v>
       </c>
-      <c r="H103" s="16" t="s">
+      <c r="H103" s="17" t="s">
         <v>423</v>
       </c>
-      <c r="I103" s="17"/>
-      <c r="J103" s="17"/>
-      <c r="K103" s="17"/>
-      <c r="L103" s="2" t="s">
+      <c r="I103" s="18"/>
+      <c r="J103" s="18"/>
+      <c r="K103" s="18"/>
+      <c r="L103" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="M103" s="75" t="s">
+      <c r="M103" s="76" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="17" t="s">
+      <c r="A104" s="18" t="s">
         <v>429</v>
       </c>
-      <c r="B104" s="16" t="s">
+      <c r="B104" s="17" t="s">
         <v>430</v>
       </c>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
-      <c r="E104" s="17" t="s">
+      <c r="C104" s="2"/>
+      <c r="D104" s="2"/>
+      <c r="E104" s="18" t="s">
         <v>431</v>
       </c>
-      <c r="F104" s="17" t="s">
+      <c r="F104" s="18" t="s">
         <v>432</v>
       </c>
-      <c r="G104" s="15" t="s">
+      <c r="G104" s="16" t="s">
         <v>433</v>
       </c>
-      <c r="H104" s="16" t="s">
+      <c r="H104" s="17" t="s">
         <v>432</v>
       </c>
-      <c r="I104" s="17"/>
-      <c r="J104" s="17"/>
-      <c r="K104" s="17"/>
-      <c r="L104" s="2" t="s">
+      <c r="I104" s="18"/>
+      <c r="J104" s="18"/>
+      <c r="K104" s="18"/>
+      <c r="L104" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="M104" s="75" t="s">
+      <c r="M104" s="76" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="17" t="s">
+      <c r="A105" s="18" t="s">
         <v>429</v>
       </c>
-      <c r="B105" s="16" t="s">
+      <c r="B105" s="17" t="s">
         <v>430</v>
       </c>
-      <c r="E105" s="17" t="s">
+      <c r="E105" s="18" t="s">
         <v>431</v>
       </c>
-      <c r="F105" s="17" t="s">
+      <c r="F105" s="18" t="s">
         <v>436</v>
       </c>
-      <c r="G105" s="15" t="s">
+      <c r="G105" s="16" t="s">
         <v>433</v>
       </c>
-      <c r="H105" s="16" t="s">
+      <c r="H105" s="17" t="s">
         <v>436</v>
       </c>
-      <c r="I105" s="17"/>
-      <c r="J105" s="17"/>
-      <c r="K105" s="17"/>
-      <c r="L105" s="2" t="s">
+      <c r="I105" s="18"/>
+      <c r="J105" s="18"/>
+      <c r="K105" s="18"/>
+      <c r="L105" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="M105" s="75" t="s">
+      <c r="M105" s="76" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="106" s="76" customFormat="true" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B106" s="16"/>
-      <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
-      <c r="E106" s="17" t="s">
+    <row r="106" s="77" customFormat="true" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B106" s="17"/>
+      <c r="C106" s="2"/>
+      <c r="D106" s="2"/>
+      <c r="E106" s="18" t="s">
         <v>437</v>
       </c>
-      <c r="F106" s="17" t="s">
+      <c r="F106" s="18" t="s">
         <v>438</v>
       </c>
-      <c r="G106" s="15" t="s">
+      <c r="G106" s="16" t="s">
         <v>439</v>
       </c>
-      <c r="H106" s="16" t="s">
+      <c r="H106" s="17" t="s">
         <v>440</v>
       </c>
-      <c r="I106" s="17"/>
-      <c r="J106" s="17"/>
-      <c r="K106" s="17"/>
-      <c r="L106" s="2" t="s">
+      <c r="I106" s="18"/>
+      <c r="J106" s="18"/>
+      <c r="K106" s="18"/>
+      <c r="L106" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="M106" s="74" t="s">
+      <c r="M106" s="75" t="s">
         <v>442</v>
       </c>
-      <c r="N106" s="19"/>
-      <c r="O106" s="19"/>
-      <c r="P106" s="2"/>
-      <c r="Q106" s="2"/>
-      <c r="R106" s="8"/>
-      <c r="T106" s="77"/>
-      <c r="U106" s="77"/>
-      <c r="V106" s="77"/>
-      <c r="W106" s="77"/>
-      <c r="X106" s="77"/>
-      <c r="Y106" s="77" t="s">
+      <c r="N106" s="20"/>
+      <c r="O106" s="20"/>
+      <c r="P106" s="3"/>
+      <c r="Q106" s="3"/>
+      <c r="R106" s="9"/>
+      <c r="T106" s="78"/>
+      <c r="U106" s="78"/>
+      <c r="V106" s="78"/>
+      <c r="W106" s="78"/>
+      <c r="X106" s="78"/>
+      <c r="Y106" s="78" t="s">
         <v>442</v>
       </c>
-      <c r="Z106" s="77"/>
-      <c r="AA106" s="77"/>
-    </row>
-    <row r="107" s="76" customFormat="true" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="17" t="s">
+      <c r="Z106" s="78"/>
+      <c r="AA106" s="78"/>
+    </row>
+    <row r="107" s="77" customFormat="true" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="18" t="s">
         <v>443</v>
       </c>
-      <c r="B107" s="16" t="s">
+      <c r="B107" s="17" t="s">
         <v>444</v>
       </c>
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
-      <c r="E107" s="17" t="s">
+      <c r="C107" s="2"/>
+      <c r="D107" s="2"/>
+      <c r="E107" s="18" t="s">
         <v>437</v>
       </c>
-      <c r="F107" s="17" t="s">
+      <c r="F107" s="18" t="s">
         <v>445</v>
       </c>
-      <c r="G107" s="15" t="s">
+      <c r="G107" s="16" t="s">
         <v>439</v>
       </c>
-      <c r="H107" s="16" t="s">
+      <c r="H107" s="17" t="s">
         <v>446</v>
       </c>
-      <c r="I107" s="17"/>
-      <c r="J107" s="17"/>
-      <c r="K107" s="17"/>
-      <c r="L107" s="2" t="s">
+      <c r="I107" s="18"/>
+      <c r="J107" s="18"/>
+      <c r="K107" s="18"/>
+      <c r="L107" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="M107" s="8" t="s">
+      <c r="M107" s="9" t="s">
         <v>448</v>
       </c>
-      <c r="N107" s="19"/>
-      <c r="O107" s="19"/>
-      <c r="P107" s="2"/>
-      <c r="Q107" s="2"/>
-      <c r="R107" s="8"/>
-      <c r="T107" s="77"/>
-      <c r="U107" s="77"/>
-      <c r="V107" s="77"/>
-      <c r="W107" s="77"/>
-      <c r="X107" s="77"/>
-      <c r="Y107" s="77" t="s">
+      <c r="N107" s="20"/>
+      <c r="O107" s="20"/>
+      <c r="P107" s="3"/>
+      <c r="Q107" s="3"/>
+      <c r="R107" s="9"/>
+      <c r="T107" s="78"/>
+      <c r="U107" s="78"/>
+      <c r="V107" s="78"/>
+      <c r="W107" s="78"/>
+      <c r="X107" s="78"/>
+      <c r="Y107" s="78" t="s">
         <v>448</v>
       </c>
-      <c r="Z107" s="77"/>
-      <c r="AA107" s="77"/>
-    </row>
-    <row r="108" s="76" customFormat="true" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="17" t="s">
+      <c r="Z107" s="78"/>
+      <c r="AA107" s="78"/>
+    </row>
+    <row r="108" s="77" customFormat="true" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="18" t="s">
         <v>449</v>
       </c>
-      <c r="B108" s="16" t="s">
+      <c r="B108" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
-      <c r="E108" s="17" t="s">
+      <c r="C108" s="2"/>
+      <c r="D108" s="2"/>
+      <c r="E108" s="18" t="s">
         <v>450</v>
       </c>
-      <c r="F108" s="17" t="s">
+      <c r="F108" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="G108" s="15" t="s">
+      <c r="G108" s="16" t="s">
         <v>451</v>
       </c>
-      <c r="H108" s="16" t="s">
+      <c r="H108" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="I108" s="17"/>
-      <c r="J108" s="17"/>
-      <c r="K108" s="45"/>
-      <c r="L108" s="2" t="s">
+      <c r="I108" s="18"/>
+      <c r="J108" s="18"/>
+      <c r="K108" s="46"/>
+      <c r="L108" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="M108" s="75" t="s">
+      <c r="M108" s="76" t="s">
         <v>160</v>
       </c>
-      <c r="N108" s="19"/>
-      <c r="O108" s="19"/>
-      <c r="P108" s="2"/>
-      <c r="Q108" s="2"/>
-      <c r="R108" s="8"/>
-      <c r="T108" s="77"/>
-      <c r="U108" s="77"/>
-      <c r="V108" s="77"/>
-      <c r="W108" s="77"/>
-      <c r="X108" s="77"/>
-      <c r="Y108" s="77"/>
-      <c r="Z108" s="77"/>
-      <c r="AA108" s="77"/>
-    </row>
-    <row r="109" s="76" customFormat="true" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B109" s="16"/>
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
-      <c r="E109" s="17" t="s">
+      <c r="N108" s="20"/>
+      <c r="O108" s="20"/>
+      <c r="P108" s="3"/>
+      <c r="Q108" s="3"/>
+      <c r="R108" s="9"/>
+      <c r="T108" s="78"/>
+      <c r="U108" s="78"/>
+      <c r="V108" s="78"/>
+      <c r="W108" s="78"/>
+      <c r="X108" s="78"/>
+      <c r="Y108" s="78"/>
+      <c r="Z108" s="78"/>
+      <c r="AA108" s="78"/>
+    </row>
+    <row r="109" s="77" customFormat="true" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B109" s="17"/>
+      <c r="C109" s="2"/>
+      <c r="D109" s="2"/>
+      <c r="E109" s="18" t="s">
         <v>450</v>
       </c>
-      <c r="F109" s="17" t="s">
+      <c r="F109" s="18" t="s">
         <v>453</v>
       </c>
-      <c r="G109" s="15" t="s">
+      <c r="G109" s="16" t="s">
         <v>451</v>
       </c>
-      <c r="H109" s="16" t="s">
+      <c r="H109" s="17" t="s">
         <v>454</v>
       </c>
-      <c r="I109" s="17"/>
-      <c r="J109" s="17"/>
-      <c r="K109" s="17"/>
-      <c r="L109" s="2" t="s">
+      <c r="I109" s="18"/>
+      <c r="J109" s="18"/>
+      <c r="K109" s="18"/>
+      <c r="L109" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="M109" s="74" t="s">
+      <c r="M109" s="75" t="s">
         <v>456</v>
       </c>
-      <c r="N109" s="19"/>
-      <c r="O109" s="19"/>
-      <c r="P109" s="2"/>
-      <c r="Q109" s="2"/>
-      <c r="R109" s="8"/>
-      <c r="T109" s="77"/>
-      <c r="U109" s="77"/>
-      <c r="V109" s="77"/>
-      <c r="W109" s="77"/>
-      <c r="X109" s="77"/>
-      <c r="Y109" s="77" t="s">
+      <c r="N109" s="20"/>
+      <c r="O109" s="20"/>
+      <c r="P109" s="3"/>
+      <c r="Q109" s="3"/>
+      <c r="R109" s="9"/>
+      <c r="T109" s="78"/>
+      <c r="U109" s="78"/>
+      <c r="V109" s="78"/>
+      <c r="W109" s="78"/>
+      <c r="X109" s="78"/>
+      <c r="Y109" s="78" t="s">
         <v>456</v>
       </c>
-      <c r="Z109" s="77"/>
-      <c r="AA109" s="77"/>
-    </row>
-    <row r="110" s="76" customFormat="true" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="17" t="s">
+      <c r="Z109" s="78"/>
+      <c r="AA109" s="78"/>
+    </row>
+    <row r="110" s="77" customFormat="true" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="18" t="s">
         <v>457</v>
       </c>
-      <c r="B110" s="16" t="s">
+      <c r="B110" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
-      <c r="E110" s="17" t="s">
+      <c r="C110" s="2"/>
+      <c r="D110" s="2"/>
+      <c r="E110" s="18" t="s">
         <v>458</v>
       </c>
-      <c r="F110" s="17" t="s">
+      <c r="F110" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="G110" s="15" t="s">
+      <c r="G110" s="16" t="s">
         <v>459</v>
       </c>
-      <c r="H110" s="16" t="s">
+      <c r="H110" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="I110" s="17"/>
-      <c r="J110" s="17"/>
-      <c r="K110" s="17"/>
-      <c r="L110" s="2" t="s">
+      <c r="I110" s="18"/>
+      <c r="J110" s="18"/>
+      <c r="K110" s="18"/>
+      <c r="L110" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="M110" s="74" t="s">
+      <c r="M110" s="75" t="s">
         <v>461</v>
       </c>
-      <c r="N110" s="19"/>
-      <c r="O110" s="19"/>
-      <c r="P110" s="2"/>
-      <c r="Q110" s="2"/>
-      <c r="R110" s="8"/>
-      <c r="T110" s="77"/>
-      <c r="U110" s="77"/>
-      <c r="V110" s="77"/>
-      <c r="W110" s="77"/>
-      <c r="X110" s="77"/>
-      <c r="Y110" s="77" t="s">
+      <c r="N110" s="20"/>
+      <c r="O110" s="20"/>
+      <c r="P110" s="3"/>
+      <c r="Q110" s="3"/>
+      <c r="R110" s="9"/>
+      <c r="T110" s="78"/>
+      <c r="U110" s="78"/>
+      <c r="V110" s="78"/>
+      <c r="W110" s="78"/>
+      <c r="X110" s="78"/>
+      <c r="Y110" s="78" t="s">
         <v>461</v>
       </c>
-      <c r="Z110" s="77"/>
-      <c r="AA110" s="77"/>
+      <c r="Z110" s="78"/>
+      <c r="AA110" s="78"/>
     </row>
     <row r="111" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="76"/>
-      <c r="B111" s="16"/>
-      <c r="C111" s="1"/>
-      <c r="D111" s="1"/>
-      <c r="E111" s="17" t="s">
+      <c r="A111" s="77"/>
+      <c r="B111" s="17"/>
+      <c r="C111" s="2"/>
+      <c r="D111" s="2"/>
+      <c r="E111" s="18" t="s">
         <v>462</v>
       </c>
-      <c r="F111" s="17" t="s">
+      <c r="F111" s="18" t="s">
         <v>463</v>
       </c>
-      <c r="G111" s="15" t="s">
+      <c r="G111" s="16" t="s">
         <v>464</v>
       </c>
-      <c r="H111" s="16" t="s">
+      <c r="H111" s="17" t="s">
         <v>463</v>
       </c>
-      <c r="I111" s="17"/>
-      <c r="J111" s="17"/>
-      <c r="K111" s="17"/>
-      <c r="L111" s="78" t="s">
+      <c r="I111" s="18"/>
+      <c r="J111" s="18"/>
+      <c r="K111" s="18"/>
+      <c r="L111" s="79" t="s">
         <v>465</v>
       </c>
-      <c r="M111" s="75" t="s">
+      <c r="M111" s="76" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="76"/>
-      <c r="B112" s="16"/>
-      <c r="C112" s="1"/>
-      <c r="D112" s="1"/>
-      <c r="E112" s="17" t="s">
+      <c r="A112" s="77"/>
+      <c r="B112" s="17"/>
+      <c r="C112" s="2"/>
+      <c r="D112" s="2"/>
+      <c r="E112" s="18" t="s">
         <v>462</v>
       </c>
-      <c r="F112" s="14" t="s">
+      <c r="F112" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="G112" s="15" t="s">
+      <c r="G112" s="16" t="s">
         <v>464</v>
       </c>
-      <c r="H112" s="16" t="s">
+      <c r="H112" s="17" t="s">
         <v>399</v>
       </c>
-      <c r="I112" s="17" t="s">
+      <c r="I112" s="18" t="s">
         <v>467</v>
       </c>
-      <c r="J112" s="17"/>
-      <c r="K112" s="17"/>
-      <c r="L112" s="78" t="s">
+      <c r="J112" s="18"/>
+      <c r="K112" s="18"/>
+      <c r="L112" s="79" t="s">
         <v>452</v>
       </c>
-      <c r="M112" s="75" t="s">
+      <c r="M112" s="76" t="s">
         <v>160</v>
       </c>
-      <c r="N112" s="79"/>
+      <c r="N112" s="80"/>
     </row>
     <row r="113" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="76"/>
-      <c r="B113" s="16"/>
-      <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
-      <c r="E113" s="17" t="s">
+      <c r="A113" s="77"/>
+      <c r="B113" s="17"/>
+      <c r="C113" s="2"/>
+      <c r="D113" s="2"/>
+      <c r="E113" s="18" t="s">
         <v>462</v>
       </c>
-      <c r="F113" s="14" t="s">
+      <c r="F113" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="G113" s="15" t="s">
+      <c r="G113" s="16" t="s">
         <v>464</v>
       </c>
-      <c r="H113" s="16" t="s">
+      <c r="H113" s="17" t="s">
         <v>257</v>
       </c>
-      <c r="I113" s="17"/>
-      <c r="J113" s="17"/>
-      <c r="K113" s="17"/>
-      <c r="L113" s="76"/>
-      <c r="M113" s="75"/>
+      <c r="I113" s="18"/>
+      <c r="J113" s="18"/>
+      <c r="K113" s="18"/>
+      <c r="L113" s="77"/>
+      <c r="M113" s="76"/>
     </row>
     <row r="114" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="76"/>
-      <c r="B114" s="16"/>
-      <c r="C114" s="1"/>
-      <c r="D114" s="1"/>
-      <c r="E114" s="17" t="s">
+      <c r="A114" s="77"/>
+      <c r="B114" s="17"/>
+      <c r="C114" s="2"/>
+      <c r="D114" s="2"/>
+      <c r="E114" s="18" t="s">
         <v>462</v>
       </c>
-      <c r="F114" s="17" t="s">
+      <c r="F114" s="18" t="s">
         <v>468</v>
       </c>
-      <c r="G114" s="15" t="s">
+      <c r="G114" s="16" t="s">
         <v>464</v>
       </c>
-      <c r="H114" s="16" t="s">
+      <c r="H114" s="17" t="s">
         <v>469</v>
       </c>
-      <c r="I114" s="17"/>
-      <c r="J114" s="17"/>
-      <c r="K114" s="17"/>
-      <c r="L114" s="78" t="s">
+      <c r="I114" s="18"/>
+      <c r="J114" s="18"/>
+      <c r="K114" s="18"/>
+      <c r="L114" s="79" t="s">
         <v>470</v>
       </c>
-      <c r="M114" s="74" t="s">
+      <c r="M114" s="75" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="76"/>
-      <c r="B115" s="16"/>
-      <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
-      <c r="E115" s="17" t="s">
+      <c r="A115" s="77"/>
+      <c r="B115" s="17"/>
+      <c r="C115" s="2"/>
+      <c r="D115" s="2"/>
+      <c r="E115" s="18" t="s">
         <v>462</v>
       </c>
-      <c r="F115" s="17" t="s">
+      <c r="F115" s="18" t="s">
         <v>472</v>
       </c>
-      <c r="G115" s="15" t="s">
+      <c r="G115" s="16" t="s">
         <v>464</v>
       </c>
-      <c r="H115" s="16" t="s">
+      <c r="H115" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="I115" s="17"/>
-      <c r="J115" s="17"/>
-      <c r="K115" s="17"/>
-      <c r="L115" s="78" t="s">
+      <c r="I115" s="18"/>
+      <c r="J115" s="18"/>
+      <c r="K115" s="18"/>
+      <c r="L115" s="79" t="s">
         <v>473</v>
       </c>
-      <c r="M115" s="74" t="s">
+      <c r="M115" s="75" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="76"/>
-      <c r="B116" s="16"/>
-      <c r="C116" s="1"/>
-      <c r="D116" s="1"/>
-      <c r="E116" s="17" t="s">
+      <c r="A116" s="77"/>
+      <c r="B116" s="17"/>
+      <c r="C116" s="2"/>
+      <c r="D116" s="2"/>
+      <c r="E116" s="18" t="s">
         <v>475</v>
       </c>
-      <c r="F116" s="17" t="s">
+      <c r="F116" s="18" t="s">
         <v>256</v>
       </c>
-      <c r="G116" s="15" t="s">
+      <c r="G116" s="16" t="s">
         <v>476</v>
       </c>
-      <c r="H116" s="16" t="s">
+      <c r="H116" s="17" t="s">
         <v>257</v>
       </c>
-      <c r="I116" s="17"/>
-      <c r="J116" s="17"/>
-      <c r="K116" s="17"/>
-      <c r="L116" s="78" t="s">
+      <c r="I116" s="18"/>
+      <c r="J116" s="18"/>
+      <c r="K116" s="18"/>
+      <c r="L116" s="79" t="s">
         <v>452</v>
       </c>
-      <c r="M116" s="75" t="s">
+      <c r="M116" s="76" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="76"/>
-      <c r="B117" s="16"/>
-      <c r="C117" s="1"/>
-      <c r="D117" s="1"/>
-      <c r="E117" s="17" t="s">
+      <c r="A117" s="77"/>
+      <c r="B117" s="17"/>
+      <c r="C117" s="2"/>
+      <c r="D117" s="2"/>
+      <c r="E117" s="18" t="s">
         <v>475</v>
       </c>
-      <c r="F117" s="17" t="s">
+      <c r="F117" s="18" t="s">
         <v>477</v>
       </c>
-      <c r="G117" s="15" t="s">
+      <c r="G117" s="16" t="s">
         <v>476</v>
       </c>
-      <c r="H117" s="16" t="s">
+      <c r="H117" s="17" t="s">
         <v>478</v>
       </c>
-      <c r="I117" s="17"/>
-      <c r="J117" s="17"/>
-      <c r="K117" s="17"/>
-      <c r="L117" s="78" t="s">
+      <c r="I117" s="18"/>
+      <c r="J117" s="18"/>
+      <c r="K117" s="18"/>
+      <c r="L117" s="79" t="s">
         <v>479</v>
       </c>
-      <c r="M117" s="74" t="s">
+      <c r="M117" s="75" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="76"/>
-      <c r="B118" s="16"/>
-      <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
-      <c r="E118" s="17" t="s">
+      <c r="A118" s="77"/>
+      <c r="B118" s="17"/>
+      <c r="C118" s="2"/>
+      <c r="D118" s="2"/>
+      <c r="E118" s="18" t="s">
         <v>481</v>
       </c>
-      <c r="F118" s="17" t="s">
+      <c r="F118" s="18" t="s">
         <v>482</v>
       </c>
-      <c r="G118" s="15" t="s">
+      <c r="G118" s="16" t="s">
         <v>483</v>
       </c>
-      <c r="H118" s="16" t="s">
+      <c r="H118" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="I118" s="17"/>
-      <c r="J118" s="17"/>
-      <c r="K118" s="17"/>
-      <c r="L118" s="78" t="s">
+      <c r="I118" s="18"/>
+      <c r="J118" s="18"/>
+      <c r="K118" s="18"/>
+      <c r="L118" s="79" t="s">
         <v>195</v>
       </c>
-      <c r="M118" s="80" t="s">
+      <c r="M118" s="81" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E120" s="19" t="s">
+      <c r="E120" s="20" t="s">
         <v>484</v>
       </c>
-      <c r="F120" s="17" t="s">
+      <c r="F120" s="18" t="s">
         <v>485</v>
       </c>
-      <c r="G120" s="15" t="s">
+      <c r="G120" s="16" t="s">
         <v>486</v>
       </c>
-      <c r="H120" s="16" t="s">
+      <c r="H120" s="17" t="s">
         <v>487</v>
       </c>
-      <c r="I120" s="17"/>
-      <c r="J120" s="17"/>
-      <c r="K120" s="17"/>
-      <c r="L120" s="78" t="s">
+      <c r="I120" s="18"/>
+      <c r="J120" s="18"/>
+      <c r="K120" s="18"/>
+      <c r="L120" s="79" t="s">
         <v>488</v>
       </c>
-      <c r="M120" s="81"/>
-      <c r="N120" s="19"/>
-      <c r="O120" s="17"/>
-      <c r="P120" s="82"/>
-      <c r="Q120" s="83" t="s">
+      <c r="M120" s="82"/>
+      <c r="N120" s="20"/>
+      <c r="O120" s="18"/>
+      <c r="P120" s="83"/>
+      <c r="Q120" s="84" t="s">
         <v>353</v>
       </c>
-      <c r="R120" s="84" t="s">
+      <c r="R120" s="85" t="s">
         <v>178</v>
       </c>
-      <c r="S120" s="85" t="s">
+      <c r="S120" s="86" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E121" s="19"/>
-      <c r="F121" s="10"/>
-      <c r="G121" s="15"/>
-      <c r="H121" s="28"/>
-      <c r="I121" s="17"/>
-      <c r="J121" s="17"/>
-      <c r="K121" s="17"/>
-      <c r="L121" s="78"/>
-      <c r="M121" s="81"/>
-      <c r="N121" s="19"/>
-      <c r="O121" s="17"/>
-      <c r="P121" s="82"/>
-      <c r="Q121" s="83" t="s">
+      <c r="E121" s="20"/>
+      <c r="F121" s="11"/>
+      <c r="G121" s="16"/>
+      <c r="H121" s="29"/>
+      <c r="I121" s="18"/>
+      <c r="J121" s="18"/>
+      <c r="K121" s="18"/>
+      <c r="L121" s="79"/>
+      <c r="M121" s="82"/>
+      <c r="N121" s="20"/>
+      <c r="O121" s="18"/>
+      <c r="P121" s="83"/>
+      <c r="Q121" s="84" t="s">
         <v>488</v>
       </c>
-      <c r="R121" s="84" t="s">
+      <c r="R121" s="85" t="s">
         <v>490</v>
       </c>
-      <c r="S121" s="84"/>
+      <c r="S121" s="85"/>
     </row>
     <row r="122" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="17" t="s">
+      <c r="A122" s="18" t="s">
         <v>491</v>
       </c>
-      <c r="B122" s="16" t="s">
+      <c r="B122" s="17" t="s">
         <v>492</v>
       </c>
-      <c r="C122" s="1"/>
-      <c r="D122" s="1"/>
-      <c r="E122" s="17" t="s">
+      <c r="C122" s="2"/>
+      <c r="D122" s="2"/>
+      <c r="E122" s="18" t="s">
         <v>493</v>
       </c>
-      <c r="F122" s="17" t="s">
+      <c r="F122" s="18" t="s">
         <v>494</v>
       </c>
-      <c r="G122" s="15" t="s">
+      <c r="G122" s="16" t="s">
         <v>495</v>
       </c>
-      <c r="H122" s="16" t="s">
+      <c r="H122" s="17" t="s">
         <v>494</v>
       </c>
-      <c r="I122" s="17"/>
-      <c r="J122" s="17"/>
-      <c r="K122" s="17"/>
-      <c r="L122" s="2" t="s">
+      <c r="I122" s="18"/>
+      <c r="J122" s="18"/>
+      <c r="K122" s="18"/>
+      <c r="L122" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="M122" s="86" t="s">
+      <c r="M122" s="87" t="s">
         <v>497</v>
       </c>
-      <c r="O122" s="87"/>
-      <c r="P122" s="87"/>
-      <c r="Q122" s="87"/>
-      <c r="S122" s="87"/>
-      <c r="T122" s="87"/>
+      <c r="O122" s="88"/>
+      <c r="P122" s="88"/>
+      <c r="Q122" s="88"/>
+      <c r="S122" s="88"/>
+      <c r="T122" s="88"/>
     </row>
     <row r="123" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="13" t="s">
+      <c r="A123" s="14" t="s">
         <v>498</v>
       </c>
-      <c r="B123" s="16"/>
-      <c r="C123" s="1"/>
-      <c r="D123" s="1"/>
-      <c r="E123" s="88" t="s">
+      <c r="B123" s="17"/>
+      <c r="C123" s="2"/>
+      <c r="D123" s="2"/>
+      <c r="E123" s="89" t="s">
         <v>499</v>
       </c>
-      <c r="F123" s="17" t="s">
+      <c r="F123" s="18" t="s">
         <v>500</v>
       </c>
-      <c r="G123" s="15" t="s">
+      <c r="G123" s="16" t="s">
         <v>501</v>
       </c>
-      <c r="H123" s="16" t="s">
+      <c r="H123" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="I123" s="17"/>
-      <c r="J123" s="17"/>
-      <c r="K123" s="36"/>
-      <c r="L123" s="89" t="s">
+      <c r="I123" s="18"/>
+      <c r="J123" s="18"/>
+      <c r="K123" s="37"/>
+      <c r="L123" s="90" t="s">
         <v>195</v>
       </c>
-      <c r="M123" s="90" t="s">
+      <c r="M123" s="91" t="s">
         <v>195</v>
       </c>
-      <c r="N123" s="40"/>
-      <c r="O123" s="40"/>
-      <c r="P123" s="87"/>
-      <c r="Q123" s="91" t="s">
+      <c r="N123" s="41"/>
+      <c r="O123" s="41"/>
+      <c r="P123" s="88"/>
+      <c r="Q123" s="92" t="s">
         <v>502</v>
       </c>
-      <c r="R123" s="32" t="s">
+      <c r="R123" s="33" t="s">
         <v>503</v>
       </c>
-      <c r="S123" s="87"/>
-      <c r="T123" s="87"/>
+      <c r="S123" s="88"/>
+      <c r="T123" s="88"/>
     </row>
     <row r="124" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="87"/>
-      <c r="B124" s="87"/>
-      <c r="C124" s="87"/>
-      <c r="D124" s="87"/>
-      <c r="E124" s="13" t="s">
+      <c r="A124" s="88"/>
+      <c r="B124" s="88"/>
+      <c r="C124" s="88"/>
+      <c r="D124" s="88"/>
+      <c r="E124" s="14" t="s">
         <v>504</v>
       </c>
-      <c r="F124" s="17" t="s">
+      <c r="F124" s="18" t="s">
         <v>463</v>
       </c>
-      <c r="G124" s="15" t="s">
+      <c r="G124" s="16" t="s">
         <v>505</v>
       </c>
-      <c r="H124" s="16" t="s">
+      <c r="H124" s="17" t="s">
         <v>463</v>
       </c>
-      <c r="I124" s="92"/>
-      <c r="J124" s="17"/>
-      <c r="K124" s="36"/>
-      <c r="L124" s="40" t="s">
+      <c r="I124" s="93"/>
+      <c r="J124" s="18"/>
+      <c r="K124" s="37"/>
+      <c r="L124" s="41" t="s">
         <v>506</v>
       </c>
-      <c r="M124" s="90"/>
-      <c r="N124" s="40"/>
-      <c r="O124" s="40"/>
-      <c r="P124" s="87"/>
-      <c r="Q124" s="44" t="s">
+      <c r="M124" s="91"/>
+      <c r="N124" s="41"/>
+      <c r="O124" s="41"/>
+      <c r="P124" s="88"/>
+      <c r="Q124" s="45" t="s">
         <v>507</v>
       </c>
-      <c r="R124" s="32" t="s">
+      <c r="R124" s="33" t="s">
         <v>466</v>
       </c>
-      <c r="S124" s="87"/>
-      <c r="T124" s="87"/>
+      <c r="S124" s="88"/>
+      <c r="T124" s="88"/>
     </row>
     <row r="125" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="87"/>
-      <c r="B125" s="87"/>
-      <c r="C125" s="87"/>
-      <c r="D125" s="87"/>
-      <c r="E125" s="13" t="s">
+      <c r="A125" s="88"/>
+      <c r="B125" s="88"/>
+      <c r="C125" s="88"/>
+      <c r="D125" s="88"/>
+      <c r="E125" s="14" t="s">
         <v>508</v>
       </c>
-      <c r="F125" s="17" t="s">
+      <c r="F125" s="18" t="s">
         <v>509</v>
       </c>
-      <c r="G125" s="15" t="s">
+      <c r="G125" s="16" t="s">
         <v>510</v>
       </c>
-      <c r="H125" s="16" t="s">
+      <c r="H125" s="17" t="s">
         <v>511</v>
       </c>
-      <c r="I125" s="17"/>
-      <c r="J125" s="17"/>
-      <c r="K125" s="17"/>
-      <c r="L125" s="93" t="s">
+      <c r="I125" s="18"/>
+      <c r="J125" s="18"/>
+      <c r="K125" s="18"/>
+      <c r="L125" s="94" t="s">
         <v>195</v>
       </c>
-      <c r="M125" s="93" t="s">
+      <c r="M125" s="94" t="s">
         <v>195</v>
       </c>
-      <c r="N125" s="40"/>
-      <c r="O125" s="94"/>
-      <c r="P125" s="95"/>
-      <c r="Q125" s="95" t="s">
+      <c r="N125" s="41"/>
+      <c r="O125" s="95"/>
+      <c r="P125" s="96"/>
+      <c r="Q125" s="96" t="s">
         <v>512</v>
       </c>
-      <c r="R125" s="96" t="s">
+      <c r="R125" s="97" t="s">
         <v>513</v>
       </c>
-      <c r="S125" s="87"/>
-      <c r="T125" s="87"/>
+      <c r="S125" s="88"/>
+      <c r="T125" s="88"/>
     </row>
     <row r="126" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="87"/>
-      <c r="B126" s="87"/>
-      <c r="C126" s="87"/>
-      <c r="D126" s="87"/>
-      <c r="E126" s="17" t="s">
+      <c r="A126" s="88"/>
+      <c r="B126" s="88"/>
+      <c r="C126" s="88"/>
+      <c r="D126" s="88"/>
+      <c r="E126" s="18" t="s">
         <v>514</v>
       </c>
-      <c r="F126" s="17" t="s">
+      <c r="F126" s="18" t="s">
         <v>515</v>
       </c>
-      <c r="G126" s="15" t="s">
+      <c r="G126" s="16" t="s">
         <v>516</v>
       </c>
-      <c r="H126" s="16" t="s">
+      <c r="H126" s="17" t="s">
         <v>517</v>
       </c>
-      <c r="I126" s="17"/>
-      <c r="J126" s="17"/>
-      <c r="K126" s="17"/>
-      <c r="L126" s="2" t="s">
+      <c r="I126" s="18"/>
+      <c r="J126" s="18"/>
+      <c r="K126" s="18"/>
+      <c r="L126" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="M126" s="81" t="s">
+      <c r="M126" s="82" t="s">
         <v>195</v>
       </c>
-      <c r="N126" s="94"/>
-      <c r="O126" s="94"/>
-      <c r="P126" s="87"/>
-      <c r="Q126" s="97" t="s">
+      <c r="N126" s="95"/>
+      <c r="O126" s="95"/>
+      <c r="P126" s="88"/>
+      <c r="Q126" s="98" t="s">
         <v>518</v>
       </c>
-      <c r="R126" s="21" t="s">
+      <c r="R126" s="22" t="s">
         <v>519</v>
       </c>
-      <c r="S126" s="87"/>
-      <c r="T126" s="87"/>
+      <c r="S126" s="88"/>
+      <c r="T126" s="88"/>
     </row>
     <row r="127" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="87"/>
-      <c r="B127" s="87"/>
-      <c r="C127" s="87"/>
-      <c r="D127" s="87"/>
-      <c r="E127" s="87"/>
-      <c r="L127" s="87"/>
-      <c r="O127" s="87"/>
-      <c r="P127" s="87"/>
-      <c r="Q127" s="87"/>
-      <c r="S127" s="87"/>
-      <c r="T127" s="87"/>
+      <c r="A127" s="88"/>
+      <c r="B127" s="88"/>
+      <c r="C127" s="88"/>
+      <c r="D127" s="88"/>
+      <c r="E127" s="88"/>
+      <c r="L127" s="88"/>
+      <c r="O127" s="88"/>
+      <c r="P127" s="88"/>
+      <c r="Q127" s="88"/>
+      <c r="S127" s="88"/>
+      <c r="T127" s="88"/>
     </row>
     <row r="128" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="87"/>
-      <c r="B128" s="87"/>
-      <c r="C128" s="87"/>
-      <c r="D128" s="87"/>
-      <c r="E128" s="17" t="s">
+      <c r="A128" s="88"/>
+      <c r="B128" s="88"/>
+      <c r="C128" s="88"/>
+      <c r="D128" s="88"/>
+      <c r="E128" s="18" t="s">
         <v>520</v>
       </c>
-      <c r="F128" s="14" t="s">
+      <c r="F128" s="15" t="s">
         <v>521</v>
       </c>
-      <c r="G128" s="15" t="s">
+      <c r="G128" s="16" t="s">
         <v>522</v>
       </c>
-      <c r="H128" s="16" t="s">
+      <c r="H128" s="17" t="s">
         <v>523</v>
       </c>
-      <c r="I128" s="17"/>
-      <c r="J128" s="17"/>
-      <c r="K128" s="17"/>
-      <c r="L128" s="98" t="s">
+      <c r="I128" s="18"/>
+      <c r="J128" s="18"/>
+      <c r="K128" s="18"/>
+      <c r="L128" s="99" t="s">
         <v>524</v>
       </c>
-      <c r="M128" s="99" t="s">
+      <c r="M128" s="100" t="s">
         <v>525</v>
       </c>
-      <c r="N128" s="40" t="s">
+      <c r="N128" s="41" t="s">
         <v>526</v>
       </c>
-      <c r="O128" s="87"/>
-      <c r="P128" s="87"/>
-      <c r="Q128" s="87"/>
-      <c r="R128" s="13"/>
-      <c r="S128" s="13"/>
-      <c r="T128" s="100"/>
+      <c r="O128" s="88"/>
+      <c r="P128" s="88"/>
+      <c r="Q128" s="88"/>
+      <c r="R128" s="14"/>
+      <c r="S128" s="14"/>
+      <c r="T128" s="101"/>
     </row>
     <row r="129" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="87"/>
-      <c r="B129" s="87"/>
-      <c r="C129" s="87"/>
-      <c r="D129" s="87"/>
-      <c r="E129" s="17" t="s">
+      <c r="A129" s="88"/>
+      <c r="B129" s="88"/>
+      <c r="C129" s="88"/>
+      <c r="D129" s="88"/>
+      <c r="E129" s="18" t="s">
         <v>527</v>
       </c>
-      <c r="F129" s="14" t="s">
+      <c r="F129" s="15" t="s">
         <v>528</v>
       </c>
-      <c r="G129" s="15" t="s">
+      <c r="G129" s="16" t="s">
         <v>529</v>
       </c>
-      <c r="H129" s="16" t="s">
+      <c r="H129" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="I129" s="17"/>
-      <c r="J129" s="101" t="s">
+      <c r="I129" s="18"/>
+      <c r="J129" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="K129" s="17"/>
-      <c r="L129" s="98"/>
-      <c r="M129" s="102" t="s">
+      <c r="K129" s="18"/>
+      <c r="L129" s="99"/>
+      <c r="M129" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="N129" s="40"/>
-      <c r="O129" s="87"/>
-      <c r="P129" s="87"/>
-      <c r="Q129" s="87"/>
-      <c r="S129" s="87"/>
-      <c r="T129" s="87"/>
+      <c r="N129" s="41"/>
+      <c r="O129" s="88"/>
+      <c r="P129" s="88"/>
+      <c r="Q129" s="88"/>
+      <c r="S129" s="88"/>
+      <c r="T129" s="88"/>
     </row>
     <row r="130" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="87"/>
-      <c r="B130" s="87"/>
-      <c r="C130" s="87"/>
-      <c r="D130" s="87"/>
-      <c r="E130" s="17"/>
-      <c r="F130" s="10" t="s">
+      <c r="A130" s="88"/>
+      <c r="B130" s="88"/>
+      <c r="C130" s="88"/>
+      <c r="D130" s="88"/>
+      <c r="E130" s="18"/>
+      <c r="F130" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G130" s="6"/>
-      <c r="H130" s="10" t="s">
+      <c r="G130" s="7"/>
+      <c r="H130" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="I130" s="17"/>
-      <c r="J130" s="17"/>
-      <c r="K130" s="17"/>
-      <c r="L130" s="98" t="s">
+      <c r="I130" s="18"/>
+      <c r="J130" s="18"/>
+      <c r="K130" s="18"/>
+      <c r="L130" s="99" t="s">
         <v>530</v>
       </c>
-      <c r="M130" s="99" t="s">
+      <c r="M130" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="N130" s="40"/>
-      <c r="O130" s="103"/>
-      <c r="P130" s="87"/>
-      <c r="Q130" s="87"/>
-      <c r="S130" s="87"/>
-      <c r="T130" s="87"/>
+      <c r="N130" s="41"/>
+      <c r="O130" s="104"/>
+      <c r="P130" s="88"/>
+      <c r="Q130" s="88"/>
+      <c r="S130" s="88"/>
+      <c r="T130" s="88"/>
     </row>
     <row r="131" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="87"/>
-      <c r="B131" s="87"/>
-      <c r="C131" s="87"/>
-      <c r="D131" s="87"/>
-      <c r="E131" s="17"/>
-      <c r="F131" s="17"/>
-      <c r="G131" s="15"/>
-      <c r="H131" s="16"/>
-      <c r="I131" s="17"/>
-      <c r="J131" s="17"/>
-      <c r="K131" s="17"/>
-      <c r="L131" s="98" t="s">
+      <c r="A131" s="88"/>
+      <c r="B131" s="88"/>
+      <c r="C131" s="88"/>
+      <c r="D131" s="88"/>
+      <c r="E131" s="18"/>
+      <c r="F131" s="18"/>
+      <c r="G131" s="16"/>
+      <c r="H131" s="17"/>
+      <c r="I131" s="18"/>
+      <c r="J131" s="18"/>
+      <c r="K131" s="18"/>
+      <c r="L131" s="99" t="s">
         <v>531</v>
       </c>
-      <c r="M131" s="99" t="s">
+      <c r="M131" s="100" t="s">
         <v>532</v>
       </c>
-      <c r="N131" s="40"/>
-      <c r="O131" s="87"/>
-      <c r="P131" s="87"/>
-      <c r="Q131" s="87"/>
-      <c r="S131" s="87"/>
-      <c r="T131" s="87"/>
+      <c r="N131" s="41"/>
+      <c r="O131" s="88"/>
+      <c r="P131" s="88"/>
+      <c r="Q131" s="88"/>
+      <c r="S131" s="88"/>
+      <c r="T131" s="88"/>
     </row>
     <row r="132" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="87"/>
-      <c r="B132" s="87"/>
-      <c r="C132" s="87"/>
-      <c r="D132" s="87"/>
-      <c r="E132" s="17" t="s">
+      <c r="A132" s="88"/>
+      <c r="B132" s="88"/>
+      <c r="C132" s="88"/>
+      <c r="D132" s="88"/>
+      <c r="E132" s="18" t="s">
         <v>533</v>
       </c>
-      <c r="F132" s="17" t="s">
+      <c r="F132" s="18" t="s">
         <v>534</v>
       </c>
-      <c r="G132" s="15" t="s">
+      <c r="G132" s="16" t="s">
         <v>535</v>
       </c>
-      <c r="H132" s="16" t="s">
+      <c r="H132" s="17" t="s">
         <v>536</v>
       </c>
-      <c r="I132" s="17"/>
-      <c r="J132" s="17"/>
-      <c r="K132" s="17"/>
-      <c r="L132" s="2" t="s">
+      <c r="I132" s="18"/>
+      <c r="J132" s="18"/>
+      <c r="K132" s="18"/>
+      <c r="L132" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="M132" s="81" t="s">
+      <c r="M132" s="82" t="s">
         <v>195</v>
       </c>
-      <c r="N132" s="94"/>
-      <c r="O132" s="94"/>
-      <c r="P132" s="76"/>
-      <c r="Q132" s="97" t="s">
+      <c r="N132" s="95"/>
+      <c r="O132" s="95"/>
+      <c r="P132" s="77"/>
+      <c r="Q132" s="98" t="s">
         <v>537</v>
       </c>
-      <c r="R132" s="21" t="s">
+      <c r="R132" s="22" t="s">
         <v>538</v>
       </c>
-      <c r="S132" s="87"/>
-      <c r="T132" s="87"/>
+      <c r="S132" s="88"/>
+      <c r="T132" s="88"/>
     </row>
     <row r="133" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="87"/>
-      <c r="B133" s="87"/>
-      <c r="C133" s="87"/>
-      <c r="D133" s="87"/>
-      <c r="E133" s="17" t="s">
+      <c r="A133" s="88"/>
+      <c r="B133" s="88"/>
+      <c r="C133" s="88"/>
+      <c r="D133" s="88"/>
+      <c r="E133" s="18" t="s">
         <v>533</v>
       </c>
-      <c r="F133" s="17" t="s">
+      <c r="F133" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="G133" s="15" t="s">
+      <c r="G133" s="16" t="s">
         <v>535</v>
       </c>
-      <c r="H133" s="16" t="s">
+      <c r="H133" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="I133" s="17"/>
-      <c r="J133" s="17"/>
-      <c r="K133" s="17"/>
-      <c r="L133" s="2" t="s">
+      <c r="I133" s="18"/>
+      <c r="J133" s="18"/>
+      <c r="K133" s="18"/>
+      <c r="L133" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="M133" s="81" t="s">
+      <c r="M133" s="82" t="s">
         <v>195</v>
       </c>
-      <c r="N133" s="94"/>
-      <c r="O133" s="94"/>
-      <c r="P133" s="76"/>
-      <c r="Q133" s="97" t="s">
+      <c r="N133" s="95"/>
+      <c r="O133" s="95"/>
+      <c r="P133" s="77"/>
+      <c r="Q133" s="98" t="s">
         <v>539</v>
       </c>
-      <c r="R133" s="21" t="s">
+      <c r="R133" s="22" t="s">
         <v>540</v>
       </c>
-      <c r="S133" s="87"/>
-      <c r="T133" s="87"/>
+      <c r="S133" s="88"/>
+      <c r="T133" s="88"/>
     </row>
     <row r="134" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="87"/>
-      <c r="B134" s="87"/>
-      <c r="C134" s="87"/>
-      <c r="D134" s="87"/>
-      <c r="E134" s="17" t="s">
+      <c r="A134" s="88"/>
+      <c r="B134" s="88"/>
+      <c r="C134" s="88"/>
+      <c r="D134" s="88"/>
+      <c r="E134" s="18" t="s">
         <v>541</v>
       </c>
-      <c r="F134" s="17" t="s">
+      <c r="F134" s="18" t="s">
         <v>542</v>
       </c>
-      <c r="G134" s="15" t="s">
+      <c r="G134" s="16" t="s">
         <v>543</v>
       </c>
-      <c r="H134" s="16" t="s">
+      <c r="H134" s="17" t="s">
         <v>544</v>
       </c>
-      <c r="I134" s="17"/>
-      <c r="J134" s="17"/>
-      <c r="K134" s="17"/>
-      <c r="L134" s="2" t="s">
+      <c r="I134" s="18"/>
+      <c r="J134" s="18"/>
+      <c r="K134" s="18"/>
+      <c r="L134" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="M134" s="81" t="s">
+      <c r="M134" s="82" t="s">
         <v>195</v>
       </c>
-      <c r="N134" s="94"/>
-      <c r="O134" s="94"/>
-      <c r="P134" s="76"/>
-      <c r="Q134" s="97" t="s">
+      <c r="N134" s="95"/>
+      <c r="O134" s="95"/>
+      <c r="P134" s="77"/>
+      <c r="Q134" s="98" t="s">
         <v>545</v>
       </c>
-      <c r="R134" s="21" t="s">
+      <c r="R134" s="22" t="s">
         <v>546</v>
       </c>
-      <c r="S134" s="87"/>
-      <c r="T134" s="87"/>
+      <c r="S134" s="88"/>
+      <c r="T134" s="88"/>
     </row>
     <row r="135" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="17" t="s">
+      <c r="A135" s="18" t="s">
         <v>547</v>
       </c>
-      <c r="B135" s="47" t="s">
+      <c r="B135" s="48" t="s">
         <v>548</v>
       </c>
-      <c r="C135" s="1"/>
-      <c r="D135" s="1"/>
-      <c r="E135" s="13" t="s">
+      <c r="C135" s="2"/>
+      <c r="D135" s="2"/>
+      <c r="E135" s="14" t="s">
         <v>549</v>
       </c>
-      <c r="F135" s="17" t="s">
+      <c r="F135" s="18" t="s">
         <v>550</v>
       </c>
-      <c r="G135" s="15" t="s">
+      <c r="G135" s="16" t="s">
         <v>551</v>
       </c>
-      <c r="H135" s="104" t="s">
+      <c r="H135" s="105" t="s">
         <v>552</v>
       </c>
-      <c r="I135" s="2"/>
-      <c r="J135" s="17"/>
-      <c r="K135" s="17"/>
-      <c r="L135" s="78" t="s">
+      <c r="I135" s="3"/>
+      <c r="J135" s="18"/>
+      <c r="K135" s="18"/>
+      <c r="L135" s="79" t="s">
         <v>553</v>
       </c>
-      <c r="M135" s="78" t="s">
+      <c r="M135" s="79" t="s">
         <v>553</v>
       </c>
-      <c r="N135" s="94"/>
-      <c r="O135" s="94"/>
-      <c r="P135" s="78"/>
-      <c r="Q135" s="97" t="s">
+      <c r="N135" s="95"/>
+      <c r="O135" s="95"/>
+      <c r="P135" s="79"/>
+      <c r="Q135" s="98" t="s">
         <v>554</v>
       </c>
-      <c r="R135" s="105" t="s">
+      <c r="R135" s="106" t="s">
         <v>555</v>
       </c>
-      <c r="S135" s="87"/>
-      <c r="T135" s="87"/>
+      <c r="S135" s="88"/>
+      <c r="T135" s="88"/>
     </row>
     <row r="136" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="87"/>
-      <c r="B136" s="87"/>
-      <c r="C136" s="87"/>
-      <c r="D136" s="87"/>
-      <c r="E136" s="106" t="s">
+      <c r="A136" s="88"/>
+      <c r="B136" s="88"/>
+      <c r="C136" s="88"/>
+      <c r="D136" s="88"/>
+      <c r="E136" s="107" t="s">
         <v>556</v>
       </c>
-      <c r="F136" s="107" t="s">
+      <c r="F136" s="108" t="s">
         <v>557</v>
       </c>
-      <c r="G136" s="15" t="s">
+      <c r="G136" s="16" t="s">
         <v>558</v>
       </c>
-      <c r="H136" s="16" t="s">
+      <c r="H136" s="17" t="s">
         <v>559</v>
       </c>
-      <c r="I136" s="17"/>
-      <c r="J136" s="17" t="s">
+      <c r="I136" s="18"/>
+      <c r="J136" s="18" t="s">
         <v>560</v>
       </c>
-      <c r="K136" s="17"/>
-      <c r="L136" s="108" t="s">
+      <c r="K136" s="18"/>
+      <c r="L136" s="109" t="s">
         <v>561</v>
       </c>
-      <c r="M136" s="81" t="s">
+      <c r="M136" s="82" t="s">
         <v>561</v>
       </c>
-      <c r="N136" s="19"/>
-      <c r="O136" s="17"/>
-      <c r="P136" s="82"/>
-      <c r="Q136" s="85" t="s">
+      <c r="N136" s="20"/>
+      <c r="O136" s="18"/>
+      <c r="P136" s="83"/>
+      <c r="Q136" s="86" t="s">
         <v>562</v>
       </c>
-      <c r="R136" s="84" t="s">
+      <c r="R136" s="85" t="s">
         <v>563</v>
       </c>
-      <c r="S136" s="87"/>
-      <c r="T136" s="87"/>
+      <c r="S136" s="88"/>
+      <c r="T136" s="88"/>
     </row>
     <row r="137" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="87"/>
-      <c r="B137" s="87"/>
-      <c r="C137" s="87"/>
-      <c r="D137" s="87"/>
-      <c r="E137" s="106" t="s">
+      <c r="A137" s="88"/>
+      <c r="B137" s="88"/>
+      <c r="C137" s="88"/>
+      <c r="D137" s="88"/>
+      <c r="E137" s="107" t="s">
         <v>556</v>
       </c>
-      <c r="F137" s="107" t="s">
+      <c r="F137" s="108" t="s">
         <v>564</v>
       </c>
-      <c r="G137" s="15" t="s">
+      <c r="G137" s="16" t="s">
         <v>558</v>
       </c>
-      <c r="H137" s="16" t="s">
+      <c r="H137" s="17" t="s">
         <v>564</v>
       </c>
-      <c r="I137" s="109" t="s">
+      <c r="I137" s="110" t="s">
         <v>565</v>
       </c>
-      <c r="J137" s="17"/>
-      <c r="K137" s="17"/>
-      <c r="L137" s="78"/>
-      <c r="M137" s="81"/>
-      <c r="N137" s="19"/>
-      <c r="O137" s="17"/>
-      <c r="P137" s="82"/>
-      <c r="Q137" s="110"/>
-      <c r="R137" s="84"/>
-      <c r="S137" s="87"/>
-      <c r="T137" s="87"/>
+      <c r="J137" s="18"/>
+      <c r="K137" s="18"/>
+      <c r="L137" s="79"/>
+      <c r="M137" s="82"/>
+      <c r="N137" s="20"/>
+      <c r="O137" s="18"/>
+      <c r="P137" s="83"/>
+      <c r="Q137" s="111"/>
+      <c r="R137" s="85"/>
+      <c r="S137" s="88"/>
+      <c r="T137" s="88"/>
     </row>
     <row r="138" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="87"/>
-      <c r="B138" s="87"/>
-      <c r="C138" s="87"/>
-      <c r="D138" s="87"/>
-      <c r="E138" s="106" t="s">
+      <c r="A138" s="88"/>
+      <c r="B138" s="88"/>
+      <c r="C138" s="88"/>
+      <c r="D138" s="88"/>
+      <c r="E138" s="107" t="s">
         <v>556</v>
       </c>
-      <c r="F138" s="107" t="s">
+      <c r="F138" s="108" t="s">
         <v>566</v>
       </c>
-      <c r="G138" s="15" t="s">
+      <c r="G138" s="16" t="s">
         <v>558</v>
       </c>
-      <c r="H138" s="16" t="s">
+      <c r="H138" s="17" t="s">
         <v>567</v>
       </c>
-      <c r="I138" s="17"/>
-      <c r="J138" s="17"/>
-      <c r="K138" s="17"/>
-      <c r="L138" s="78"/>
-      <c r="M138" s="81"/>
-      <c r="N138" s="19"/>
-      <c r="O138" s="17"/>
-      <c r="P138" s="82"/>
-      <c r="Q138" s="110"/>
-      <c r="R138" s="84"/>
-      <c r="S138" s="87"/>
-      <c r="T138" s="87"/>
+      <c r="I138" s="18"/>
+      <c r="J138" s="18"/>
+      <c r="K138" s="18"/>
+      <c r="L138" s="79"/>
+      <c r="M138" s="82"/>
+      <c r="N138" s="20"/>
+      <c r="O138" s="18"/>
+      <c r="P138" s="83"/>
+      <c r="Q138" s="111"/>
+      <c r="R138" s="85"/>
+      <c r="S138" s="88"/>
+      <c r="T138" s="88"/>
     </row>
     <row r="139" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="87"/>
-      <c r="B139" s="87"/>
-      <c r="C139" s="87"/>
-      <c r="D139" s="87"/>
-      <c r="E139" s="87"/>
-      <c r="L139" s="87"/>
-      <c r="O139" s="87"/>
-      <c r="P139" s="87"/>
-      <c r="Q139" s="87"/>
-      <c r="S139" s="87"/>
-      <c r="T139" s="87"/>
+      <c r="A139" s="88"/>
+      <c r="B139" s="88"/>
+      <c r="C139" s="88"/>
+      <c r="D139" s="88"/>
+      <c r="E139" s="88"/>
+      <c r="L139" s="88"/>
+      <c r="O139" s="88"/>
+      <c r="P139" s="88"/>
+      <c r="Q139" s="88"/>
+      <c r="S139" s="88"/>
+      <c r="T139" s="88"/>
     </row>
     <row r="140" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="87"/>
-      <c r="B140" s="87"/>
-      <c r="C140" s="87"/>
-      <c r="D140" s="87"/>
-      <c r="E140" s="19" t="s">
+      <c r="A140" s="88"/>
+      <c r="B140" s="88"/>
+      <c r="C140" s="88"/>
+      <c r="D140" s="88"/>
+      <c r="E140" s="20" t="s">
         <v>484</v>
       </c>
-      <c r="F140" s="17" t="s">
+      <c r="F140" s="18" t="s">
         <v>485</v>
       </c>
-      <c r="G140" s="15" t="s">
+      <c r="G140" s="16" t="s">
         <v>486</v>
       </c>
-      <c r="H140" s="16" t="s">
+      <c r="H140" s="17" t="s">
         <v>487</v>
       </c>
-      <c r="I140" s="17"/>
-      <c r="J140" s="17"/>
-      <c r="K140" s="17"/>
-      <c r="L140" s="78" t="s">
+      <c r="I140" s="18"/>
+      <c r="J140" s="18"/>
+      <c r="K140" s="18"/>
+      <c r="L140" s="79" t="s">
         <v>195</v>
       </c>
-      <c r="M140" s="78" t="s">
+      <c r="M140" s="79" t="s">
         <v>488</v>
       </c>
-      <c r="N140" s="19"/>
-      <c r="O140" s="17"/>
-      <c r="P140" s="82"/>
-      <c r="Q140" s="83" t="s">
+      <c r="N140" s="20"/>
+      <c r="O140" s="18"/>
+      <c r="P140" s="83"/>
+      <c r="Q140" s="84" t="s">
         <v>353</v>
       </c>
-      <c r="R140" s="84" t="s">
+      <c r="R140" s="85" t="s">
         <v>178</v>
       </c>
-      <c r="S140" s="85" t="s">
+      <c r="S140" s="86" t="s">
         <v>489</v>
       </c>
-      <c r="T140" s="87"/>
+      <c r="T140" s="88"/>
     </row>
     <row r="141" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="87"/>
-      <c r="B141" s="87"/>
-      <c r="C141" s="87"/>
-      <c r="D141" s="87"/>
-      <c r="E141" s="19"/>
-      <c r="F141" s="10"/>
-      <c r="G141" s="15"/>
-      <c r="H141" s="28"/>
-      <c r="I141" s="17"/>
-      <c r="J141" s="17"/>
-      <c r="K141" s="17"/>
-      <c r="L141" s="78" t="s">
+      <c r="A141" s="88"/>
+      <c r="B141" s="88"/>
+      <c r="C141" s="88"/>
+      <c r="D141" s="88"/>
+      <c r="E141" s="20"/>
+      <c r="F141" s="11"/>
+      <c r="G141" s="16"/>
+      <c r="H141" s="29"/>
+      <c r="I141" s="18"/>
+      <c r="J141" s="18"/>
+      <c r="K141" s="18"/>
+      <c r="L141" s="79" t="s">
         <v>488</v>
       </c>
-      <c r="M141" s="81"/>
-      <c r="N141" s="19"/>
-      <c r="O141" s="17"/>
-      <c r="P141" s="82"/>
-      <c r="Q141" s="83" t="s">
+      <c r="M141" s="82"/>
+      <c r="N141" s="20"/>
+      <c r="O141" s="18"/>
+      <c r="P141" s="83"/>
+      <c r="Q141" s="84" t="s">
         <v>488</v>
       </c>
-      <c r="R141" s="84" t="s">
+      <c r="R141" s="85" t="s">
         <v>490</v>
       </c>
-      <c r="S141" s="84"/>
-      <c r="T141" s="87"/>
+      <c r="S141" s="85"/>
+      <c r="T141" s="88"/>
     </row>
     <row r="142" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="87"/>
-      <c r="B142" s="87"/>
-      <c r="C142" s="87"/>
-      <c r="D142" s="87"/>
-      <c r="E142" s="17" t="s">
+      <c r="A142" s="88"/>
+      <c r="B142" s="88"/>
+      <c r="C142" s="88"/>
+      <c r="D142" s="88"/>
+      <c r="E142" s="18" t="s">
         <v>568</v>
       </c>
-      <c r="F142" s="17" t="s">
+      <c r="F142" s="18" t="s">
         <v>569</v>
       </c>
-      <c r="G142" s="15" t="s">
+      <c r="G142" s="16" t="s">
         <v>570</v>
       </c>
-      <c r="H142" s="16" t="s">
+      <c r="H142" s="17" t="s">
         <v>571</v>
       </c>
-      <c r="I142" s="17"/>
-      <c r="J142" s="17"/>
-      <c r="K142" s="17"/>
-      <c r="L142" s="51" t="s">
+      <c r="I142" s="18"/>
+      <c r="J142" s="18"/>
+      <c r="K142" s="18"/>
+      <c r="L142" s="52" t="s">
         <v>572</v>
       </c>
-      <c r="M142" s="99"/>
-      <c r="N142" s="19"/>
-      <c r="O142" s="19"/>
-      <c r="P142" s="111"/>
-      <c r="Q142" s="111" t="s">
+      <c r="M142" s="100"/>
+      <c r="N142" s="20"/>
+      <c r="O142" s="20"/>
+      <c r="P142" s="112"/>
+      <c r="Q142" s="112" t="s">
         <v>573</v>
       </c>
-      <c r="R142" s="2" t="s">
+      <c r="R142" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="S142" s="87"/>
-      <c r="T142" s="87"/>
+      <c r="S142" s="88"/>
+      <c r="T142" s="88"/>
     </row>
     <row r="143" customFormat="false" ht="34.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="49" t="s">
+      <c r="A143" s="50" t="s">
         <v>575</v>
       </c>
-      <c r="B143" s="35" t="s">
+      <c r="B143" s="36" t="s">
         <v>576</v>
       </c>
-      <c r="C143" s="1" t="s">
+      <c r="C143" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="D143" s="1"/>
-      <c r="E143" s="17" t="s">
+      <c r="D143" s="2"/>
+      <c r="E143" s="18" t="s">
         <v>578</v>
       </c>
-      <c r="F143" s="112" t="s">
+      <c r="F143" s="113" t="s">
         <v>579</v>
       </c>
-      <c r="G143" s="15" t="s">
+      <c r="G143" s="16" t="s">
         <v>580</v>
       </c>
-      <c r="H143" s="35" t="s">
+      <c r="H143" s="36" t="s">
         <v>581</v>
       </c>
-      <c r="I143" s="17" t="s">
+      <c r="I143" s="18" t="s">
         <v>582</v>
       </c>
-      <c r="J143" s="17"/>
-      <c r="K143" s="17"/>
-      <c r="L143" s="113" t="s">
+      <c r="J143" s="18"/>
+      <c r="K143" s="18"/>
+      <c r="L143" s="114" t="s">
         <v>583</v>
       </c>
-      <c r="M143" s="75" t="s">
+      <c r="M143" s="76" t="s">
         <v>584</v>
       </c>
-      <c r="N143" s="114" t="s">
+      <c r="N143" s="115" t="s">
         <v>585</v>
       </c>
-      <c r="O143" s="87"/>
-      <c r="P143" s="87"/>
-      <c r="Q143" s="87"/>
-      <c r="S143" s="87"/>
-      <c r="T143" s="87"/>
+      <c r="O143" s="88"/>
+      <c r="P143" s="88"/>
+      <c r="Q143" s="88"/>
+      <c r="S143" s="88"/>
+      <c r="T143" s="88"/>
     </row>
     <row r="144" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="17" t="s">
+      <c r="A144" s="18" t="s">
         <v>586</v>
       </c>
-      <c r="B144" s="16" t="s">
+      <c r="B144" s="17" t="s">
         <v>587</v>
       </c>
-      <c r="C144" s="1"/>
-      <c r="D144" s="1"/>
-      <c r="E144" s="17" t="s">
+      <c r="C144" s="2"/>
+      <c r="D144" s="2"/>
+      <c r="E144" s="18" t="s">
         <v>588</v>
       </c>
-      <c r="F144" s="107" t="s">
+      <c r="F144" s="108" t="s">
         <v>589</v>
       </c>
-      <c r="G144" s="15" t="s">
+      <c r="G144" s="16" t="s">
         <v>590</v>
       </c>
-      <c r="H144" s="16" t="s">
+      <c r="H144" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="I144" s="17"/>
-      <c r="J144" s="17"/>
-      <c r="K144" s="17"/>
-      <c r="L144" s="113" t="s">
+      <c r="I144" s="18"/>
+      <c r="J144" s="18"/>
+      <c r="K144" s="18"/>
+      <c r="L144" s="114" t="s">
         <v>591</v>
       </c>
-      <c r="M144" s="75" t="s">
+      <c r="M144" s="76" t="s">
         <v>592</v>
       </c>
-      <c r="N144" s="114"/>
-      <c r="O144" s="87"/>
-      <c r="P144" s="87"/>
-      <c r="Q144" s="87"/>
-      <c r="S144" s="87"/>
-      <c r="T144" s="87"/>
+      <c r="N144" s="115"/>
+      <c r="O144" s="88"/>
+      <c r="P144" s="88"/>
+      <c r="Q144" s="88"/>
+      <c r="S144" s="88"/>
+      <c r="T144" s="88"/>
     </row>
     <row r="145" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="87"/>
-      <c r="B145" s="87"/>
-      <c r="C145" s="87"/>
-      <c r="D145" s="87"/>
-      <c r="E145" s="87"/>
-      <c r="L145" s="87"/>
-      <c r="O145" s="87"/>
-      <c r="P145" s="87"/>
-      <c r="Q145" s="87"/>
-      <c r="S145" s="87"/>
-      <c r="T145" s="87"/>
-    </row>
-    <row r="146" s="124" customFormat="true" ht="68.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="115" t="s">
+      <c r="A145" s="88"/>
+      <c r="B145" s="88"/>
+      <c r="C145" s="88"/>
+      <c r="D145" s="88"/>
+      <c r="E145" s="88"/>
+      <c r="L145" s="88"/>
+      <c r="O145" s="88"/>
+      <c r="P145" s="88"/>
+      <c r="Q145" s="88"/>
+      <c r="S145" s="88"/>
+      <c r="T145" s="88"/>
+    </row>
+    <row r="146" s="125" customFormat="true" ht="68.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="116" t="s">
         <v>593</v>
       </c>
-      <c r="B146" s="116" t="s">
+      <c r="B146" s="117" t="s">
         <v>594</v>
       </c>
-      <c r="C146" s="48" t="s">
+      <c r="C146" s="49" t="s">
         <v>595</v>
       </c>
-      <c r="D146" s="117"/>
-      <c r="E146" s="118" t="s">
+      <c r="D146" s="118"/>
+      <c r="E146" s="119" t="s">
         <v>596</v>
       </c>
-      <c r="F146" s="118" t="s">
+      <c r="F146" s="119" t="s">
         <v>597</v>
       </c>
-      <c r="G146" s="119" t="s">
+      <c r="G146" s="120" t="s">
         <v>598</v>
       </c>
-      <c r="H146" s="116" t="s">
+      <c r="H146" s="117" t="s">
         <v>599</v>
       </c>
-      <c r="I146" s="118"/>
-      <c r="J146" s="118"/>
-      <c r="K146" s="118"/>
-      <c r="L146" s="120" t="s">
+      <c r="I146" s="119"/>
+      <c r="J146" s="119"/>
+      <c r="K146" s="119"/>
+      <c r="L146" s="121" t="s">
         <v>600</v>
       </c>
-      <c r="M146" s="121" t="s">
+      <c r="M146" s="122" t="s">
         <v>601</v>
       </c>
-      <c r="N146" s="120"/>
-      <c r="O146" s="122"/>
-      <c r="P146" s="122"/>
-      <c r="Q146" s="122"/>
-      <c r="R146" s="123"/>
-      <c r="S146" s="122"/>
-      <c r="T146" s="122"/>
-    </row>
-    <row r="147" s="124" customFormat="true" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="125" t="s">
+      <c r="N146" s="121"/>
+      <c r="O146" s="123"/>
+      <c r="P146" s="123"/>
+      <c r="Q146" s="123"/>
+      <c r="R146" s="124"/>
+      <c r="S146" s="123"/>
+      <c r="T146" s="123"/>
+    </row>
+    <row r="147" s="125" customFormat="true" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="126" t="s">
         <v>602</v>
       </c>
-      <c r="B147" s="126" t="s">
+      <c r="B147" s="127" t="s">
         <v>603</v>
       </c>
-      <c r="C147" s="117"/>
-      <c r="D147" s="127"/>
-      <c r="E147" s="118"/>
-      <c r="F147" s="118"/>
-      <c r="G147" s="119"/>
-      <c r="H147" s="126"/>
-      <c r="I147" s="118"/>
-      <c r="J147" s="118"/>
-      <c r="K147" s="118"/>
-      <c r="L147" s="120"/>
-      <c r="M147" s="128"/>
-      <c r="N147" s="120"/>
-      <c r="O147" s="122"/>
-      <c r="P147" s="122"/>
-      <c r="Q147" s="122"/>
-      <c r="R147" s="123"/>
-      <c r="S147" s="122"/>
-      <c r="T147" s="122"/>
+      <c r="C147" s="118"/>
+      <c r="D147" s="128"/>
+      <c r="E147" s="119"/>
+      <c r="F147" s="119"/>
+      <c r="G147" s="120"/>
+      <c r="H147" s="127"/>
+      <c r="I147" s="119"/>
+      <c r="J147" s="119"/>
+      <c r="K147" s="119"/>
+      <c r="L147" s="121"/>
+      <c r="M147" s="129"/>
+      <c r="N147" s="121"/>
+      <c r="O147" s="123"/>
+      <c r="P147" s="123"/>
+      <c r="Q147" s="123"/>
+      <c r="R147" s="124"/>
+      <c r="S147" s="123"/>
+      <c r="T147" s="123"/>
     </row>
     <row r="148" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="87"/>
-      <c r="B148" s="87"/>
-      <c r="C148" s="87"/>
-      <c r="D148" s="87"/>
-      <c r="E148" s="87"/>
-      <c r="L148" s="87"/>
-      <c r="O148" s="87"/>
-      <c r="P148" s="87"/>
-      <c r="Q148" s="87"/>
-      <c r="S148" s="87"/>
-      <c r="T148" s="87"/>
+      <c r="A148" s="88"/>
+      <c r="B148" s="88"/>
+      <c r="C148" s="88"/>
+      <c r="D148" s="88"/>
+      <c r="E148" s="88"/>
+      <c r="L148" s="88"/>
+      <c r="O148" s="88"/>
+      <c r="P148" s="88"/>
+      <c r="Q148" s="88"/>
+      <c r="S148" s="88"/>
+      <c r="T148" s="88"/>
     </row>
     <row r="149" customFormat="false" ht="34.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="49" t="s">
+      <c r="A149" s="50" t="s">
         <v>604</v>
       </c>
-      <c r="B149" s="35" t="s">
+      <c r="B149" s="36" t="s">
         <v>605</v>
       </c>
-      <c r="C149" s="48"/>
-      <c r="D149" s="1"/>
-      <c r="E149" s="88" t="s">
+      <c r="C149" s="49"/>
+      <c r="D149" s="2"/>
+      <c r="E149" s="89" t="s">
         <v>606</v>
       </c>
-      <c r="F149" s="17" t="s">
+      <c r="F149" s="18" t="s">
         <v>607</v>
       </c>
-      <c r="G149" s="15" t="s">
+      <c r="G149" s="16" t="s">
         <v>608</v>
       </c>
-      <c r="H149" s="16" t="s">
+      <c r="H149" s="17" t="s">
         <v>609</v>
       </c>
-      <c r="I149" s="17"/>
-      <c r="J149" s="17"/>
-      <c r="K149" s="17"/>
-      <c r="L149" s="2" t="s">
+      <c r="I149" s="18"/>
+      <c r="J149" s="18"/>
+      <c r="K149" s="18"/>
+      <c r="L149" s="3" t="s">
         <v>610</v>
       </c>
-      <c r="M149" s="75" t="s">
+      <c r="M149" s="76" t="s">
         <v>611</v>
       </c>
-      <c r="O149" s="87"/>
-      <c r="P149" s="87"/>
-      <c r="Q149" s="87"/>
-      <c r="S149" s="87"/>
-      <c r="T149" s="87"/>
+      <c r="O149" s="88"/>
+      <c r="P149" s="88"/>
+      <c r="Q149" s="88"/>
+      <c r="S149" s="88"/>
+      <c r="T149" s="88"/>
     </row>
     <row r="150" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="17" t="s">
+      <c r="A150" s="18" t="s">
         <v>612</v>
       </c>
-      <c r="B150" s="16" t="s">
+      <c r="B150" s="17" t="s">
         <v>613</v>
       </c>
-      <c r="E150" s="17" t="s">
+      <c r="E150" s="18" t="s">
         <v>614</v>
       </c>
-      <c r="F150" s="17" t="s">
+      <c r="F150" s="18" t="s">
         <v>615</v>
       </c>
-      <c r="G150" s="15" t="s">
+      <c r="G150" s="16" t="s">
         <v>616</v>
       </c>
-      <c r="H150" s="16" t="s">
+      <c r="H150" s="17" t="s">
         <v>617</v>
       </c>
-      <c r="I150" s="17" t="s">
+      <c r="I150" s="18" t="s">
         <v>618</v>
       </c>
-      <c r="J150" s="17"/>
-      <c r="K150" s="17"/>
-      <c r="L150" s="2" t="s">
+      <c r="J150" s="18"/>
+      <c r="K150" s="18"/>
+      <c r="L150" s="3" t="s">
         <v>619</v>
       </c>
-      <c r="M150" s="52" t="s">
+      <c r="M150" s="53" t="s">
         <v>619</v>
       </c>
-      <c r="O150" s="87"/>
-      <c r="P150" s="87"/>
-      <c r="Q150" s="87"/>
-      <c r="S150" s="87"/>
-      <c r="T150" s="87"/>
+      <c r="O150" s="88"/>
+      <c r="P150" s="88"/>
+      <c r="Q150" s="88"/>
+      <c r="S150" s="88"/>
+      <c r="T150" s="88"/>
     </row>
     <row r="151" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="87"/>
-      <c r="B151" s="87"/>
-      <c r="C151" s="87"/>
-      <c r="D151" s="87"/>
-      <c r="E151" s="17" t="s">
+      <c r="A151" s="88"/>
+      <c r="B151" s="88"/>
+      <c r="C151" s="88"/>
+      <c r="D151" s="88"/>
+      <c r="E151" s="18" t="s">
         <v>620</v>
       </c>
-      <c r="F151" s="17" t="s">
+      <c r="F151" s="18" t="s">
         <v>621</v>
       </c>
-      <c r="G151" s="15" t="s">
+      <c r="G151" s="16" t="s">
         <v>622</v>
       </c>
-      <c r="H151" s="16" t="s">
+      <c r="H151" s="17" t="s">
         <v>613</v>
       </c>
-      <c r="I151" s="127" t="s">
+      <c r="I151" s="128" t="s">
         <v>623</v>
       </c>
-      <c r="J151" s="17"/>
-      <c r="K151" s="17"/>
-      <c r="L151" s="2" t="s">
+      <c r="J151" s="18"/>
+      <c r="K151" s="18"/>
+      <c r="L151" s="3" t="s">
         <v>624</v>
       </c>
-      <c r="M151" s="129" t="s">
+      <c r="M151" s="130" t="s">
         <v>625</v>
       </c>
-      <c r="O151" s="87"/>
-      <c r="P151" s="87"/>
-      <c r="Q151" s="87"/>
-      <c r="S151" s="87"/>
-      <c r="T151" s="87"/>
+      <c r="O151" s="88"/>
+      <c r="P151" s="88"/>
+      <c r="Q151" s="88"/>
+      <c r="S151" s="88"/>
+      <c r="T151" s="88"/>
     </row>
     <row r="152" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="27"/>
-      <c r="B152" s="7"/>
-      <c r="C152" s="130"/>
-      <c r="D152" s="130"/>
-      <c r="E152" s="4" t="s">
+      <c r="A152" s="28"/>
+      <c r="B152" s="8"/>
+      <c r="C152" s="131"/>
+      <c r="D152" s="131"/>
+      <c r="E152" s="5" t="s">
         <v>626</v>
       </c>
-      <c r="F152" s="131" t="s">
+      <c r="F152" s="132" t="s">
         <v>188</v>
       </c>
-      <c r="G152" s="6" t="s">
+      <c r="G152" s="7" t="s">
         <v>627</v>
       </c>
-      <c r="H152" s="7" t="s">
+      <c r="H152" s="8" t="s">
         <v>628</v>
       </c>
-      <c r="I152" s="132" t="s">
+      <c r="I152" s="133" t="s">
         <v>629</v>
       </c>
-      <c r="J152" s="133" t="s">
+      <c r="J152" s="134" t="s">
         <v>630</v>
       </c>
-      <c r="K152" s="133"/>
-      <c r="L152" s="2" t="s">
+      <c r="K152" s="134"/>
+      <c r="L152" s="3" t="s">
         <v>631</v>
       </c>
-      <c r="M152" s="8" t="s">
+      <c r="M152" s="9" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="27"/>
-      <c r="B153" s="7"/>
-      <c r="C153" s="130"/>
-      <c r="D153" s="130"/>
-      <c r="E153" s="4" t="s">
+      <c r="A153" s="28"/>
+      <c r="B153" s="8"/>
+      <c r="C153" s="131"/>
+      <c r="D153" s="131"/>
+      <c r="E153" s="5" t="s">
         <v>626</v>
       </c>
-      <c r="F153" s="131" t="s">
+      <c r="F153" s="132" t="s">
         <v>632</v>
       </c>
-      <c r="G153" s="6" t="s">
+      <c r="G153" s="7" t="s">
         <v>627</v>
       </c>
-      <c r="H153" s="7" t="s">
+      <c r="H153" s="8" t="s">
         <v>633</v>
       </c>
-      <c r="J153" s="130"/>
-      <c r="K153" s="130"/>
-      <c r="L153" s="2"/>
-      <c r="M153" s="8"/>
+      <c r="J153" s="131"/>
+      <c r="K153" s="131"/>
+      <c r="L153" s="3"/>
+      <c r="M153" s="9"/>
     </row>
     <row r="155" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E155" s="17" t="s">
+      <c r="E155" s="18" t="s">
         <v>634</v>
       </c>
-      <c r="F155" s="10" t="s">
+      <c r="F155" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G155" s="15"/>
-      <c r="H155" s="10" t="s">
+      <c r="G155" s="16"/>
+      <c r="H155" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="I155" s="17"/>
-      <c r="J155" s="17"/>
-      <c r="K155" s="17"/>
-      <c r="L155" s="2"/>
-      <c r="M155" s="129"/>
-      <c r="O155" s="2"/>
-      <c r="P155" s="2"/>
-      <c r="Q155" s="134" t="s">
+      <c r="I155" s="18"/>
+      <c r="J155" s="18"/>
+      <c r="K155" s="18"/>
+      <c r="L155" s="3"/>
+      <c r="M155" s="130"/>
+      <c r="O155" s="3"/>
+      <c r="P155" s="3"/>
+      <c r="Q155" s="135" t="s">
         <v>635</v>
       </c>
-      <c r="R155" s="135" t="s">
+      <c r="R155" s="136" t="s">
         <v>29</v>
       </c>
-      <c r="S155" s="94"/>
-      <c r="T155" s="136"/>
+      <c r="S155" s="95"/>
+      <c r="T155" s="137"/>
     </row>
     <row r="156" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E156" s="17" t="s">
+      <c r="E156" s="18" t="s">
         <v>634</v>
       </c>
-      <c r="F156" s="17" t="s">
+      <c r="F156" s="18" t="s">
         <v>636</v>
       </c>
-      <c r="G156" s="15" t="s">
+      <c r="G156" s="16" t="s">
         <v>637</v>
       </c>
-      <c r="H156" s="16" t="s">
+      <c r="H156" s="17" t="s">
         <v>638</v>
       </c>
-      <c r="I156" s="17"/>
-      <c r="J156" s="17"/>
-      <c r="K156" s="17"/>
-      <c r="L156" s="2"/>
-      <c r="M156" s="129"/>
-      <c r="O156" s="2"/>
-      <c r="P156" s="2"/>
-      <c r="Q156" s="134" t="s">
+      <c r="I156" s="18"/>
+      <c r="J156" s="18"/>
+      <c r="K156" s="18"/>
+      <c r="L156" s="3"/>
+      <c r="M156" s="130"/>
+      <c r="O156" s="3"/>
+      <c r="P156" s="3"/>
+      <c r="Q156" s="135" t="s">
         <v>639</v>
       </c>
-      <c r="R156" s="137" t="s">
+      <c r="R156" s="138" t="s">
         <v>640</v>
       </c>
-      <c r="S156" s="138" t="s">
+      <c r="S156" s="139" t="s">
         <v>641</v>
       </c>
-      <c r="T156" s="51" t="s">
+      <c r="T156" s="52" t="s">
         <v>642</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E157" s="17"/>
-      <c r="F157" s="17"/>
-      <c r="G157" s="15"/>
-      <c r="H157" s="16"/>
-      <c r="I157" s="17"/>
-      <c r="J157" s="17"/>
-      <c r="K157" s="17"/>
-      <c r="L157" s="2"/>
-      <c r="M157" s="129"/>
-      <c r="O157" s="2"/>
-      <c r="P157" s="2"/>
-      <c r="Q157" s="134" t="s">
+      <c r="E157" s="18"/>
+      <c r="F157" s="18"/>
+      <c r="G157" s="16"/>
+      <c r="H157" s="17"/>
+      <c r="I157" s="18"/>
+      <c r="J157" s="18"/>
+      <c r="K157" s="18"/>
+      <c r="L157" s="3"/>
+      <c r="M157" s="130"/>
+      <c r="O157" s="3"/>
+      <c r="P157" s="3"/>
+      <c r="Q157" s="135" t="s">
         <v>643</v>
       </c>
-      <c r="R157" s="137" t="s">
+      <c r="R157" s="138" t="s">
         <v>644</v>
       </c>
-      <c r="S157" s="80"/>
-      <c r="T157" s="19"/>
+      <c r="S157" s="81"/>
+      <c r="T157" s="20"/>
     </row>
     <row r="159" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E159" s="17"/>
-      <c r="F159" s="14" t="s">
+      <c r="E159" s="18"/>
+      <c r="F159" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G159" s="15"/>
-      <c r="H159" s="28" t="s">
+      <c r="G159" s="16"/>
+      <c r="H159" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="I159" s="17"/>
-      <c r="J159" s="17"/>
-      <c r="K159" s="17"/>
-      <c r="L159" s="2" t="s">
+      <c r="I159" s="18"/>
+      <c r="J159" s="18"/>
+      <c r="K159" s="18"/>
+      <c r="L159" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="M159" s="129" t="s">
+      <c r="M159" s="130" t="s">
         <v>195</v>
       </c>
-      <c r="N159" s="19"/>
-      <c r="O159" s="19"/>
-      <c r="P159" s="2"/>
-      <c r="Q159" s="97" t="s">
+      <c r="N159" s="20"/>
+      <c r="O159" s="20"/>
+      <c r="P159" s="3"/>
+      <c r="Q159" s="98" t="s">
         <v>645</v>
       </c>
-      <c r="R159" s="105" t="s">
+      <c r="R159" s="106" t="s">
         <v>29</v>
       </c>
-      <c r="S159" s="97"/>
-      <c r="T159" s="136"/>
+      <c r="S159" s="98"/>
+      <c r="T159" s="137"/>
     </row>
     <row r="160" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E160" s="17" t="s">
+      <c r="E160" s="18" t="s">
         <v>646</v>
       </c>
-      <c r="F160" s="107" t="s">
+      <c r="F160" s="108" t="s">
         <v>647</v>
       </c>
-      <c r="G160" s="15" t="s">
+      <c r="G160" s="16" t="s">
         <v>648</v>
       </c>
-      <c r="H160" s="16" t="s">
+      <c r="H160" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="I160" s="17"/>
-      <c r="J160" s="17" t="s">
+      <c r="I160" s="18"/>
+      <c r="J160" s="18" t="s">
         <v>649</v>
       </c>
-      <c r="K160" s="17"/>
-      <c r="L160" s="2" t="s">
+      <c r="K160" s="18"/>
+      <c r="L160" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="M160" s="129" t="s">
+      <c r="M160" s="130" t="s">
         <v>195</v>
       </c>
-      <c r="N160" s="19"/>
-      <c r="O160" s="19"/>
-      <c r="P160" s="2"/>
-      <c r="Q160" s="97" t="s">
+      <c r="N160" s="20"/>
+      <c r="O160" s="20"/>
+      <c r="P160" s="3"/>
+      <c r="Q160" s="98" t="s">
         <v>650</v>
       </c>
-      <c r="R160" s="105" t="s">
+      <c r="R160" s="106" t="s">
         <v>651</v>
       </c>
-      <c r="S160" s="97" t="s">
+      <c r="S160" s="98" t="s">
         <v>652</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E161" s="17" t="s">
+      <c r="E161" s="18" t="s">
         <v>646</v>
       </c>
-      <c r="F161" s="107" t="s">
+      <c r="F161" s="108" t="s">
         <v>653</v>
       </c>
-      <c r="G161" s="15" t="s">
+      <c r="G161" s="16" t="s">
         <v>648</v>
       </c>
-      <c r="H161" s="16" t="s">
+      <c r="H161" s="17" t="s">
         <v>653</v>
       </c>
-      <c r="I161" s="109" t="s">
+      <c r="I161" s="110" t="s">
         <v>654</v>
       </c>
-      <c r="J161" s="17"/>
-      <c r="K161" s="17"/>
-      <c r="L161" s="2"/>
-      <c r="M161" s="129"/>
-      <c r="N161" s="19"/>
-      <c r="O161" s="19"/>
-      <c r="P161" s="2"/>
-      <c r="Q161" s="97"/>
-      <c r="R161" s="105"/>
-      <c r="S161" s="97"/>
+      <c r="J161" s="18"/>
+      <c r="K161" s="18"/>
+      <c r="L161" s="3"/>
+      <c r="M161" s="130"/>
+      <c r="N161" s="20"/>
+      <c r="O161" s="20"/>
+      <c r="P161" s="3"/>
+      <c r="Q161" s="98"/>
+      <c r="R161" s="106"/>
+      <c r="S161" s="98"/>
     </row>
     <row r="162" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E162" s="17" t="s">
+      <c r="E162" s="18" t="s">
         <v>655</v>
       </c>
-      <c r="F162" s="107" t="s">
+      <c r="F162" s="108" t="s">
         <v>656</v>
       </c>
-      <c r="G162" s="15" t="s">
+      <c r="G162" s="16" t="s">
         <v>657</v>
       </c>
-      <c r="H162" s="16" t="s">
+      <c r="H162" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="I162" s="17"/>
-      <c r="J162" s="17"/>
-      <c r="K162" s="17"/>
-      <c r="L162" s="2"/>
-      <c r="M162" s="129"/>
-      <c r="N162" s="19"/>
-      <c r="O162" s="19"/>
-      <c r="P162" s="2"/>
-      <c r="Q162" s="97"/>
-      <c r="R162" s="105"/>
-      <c r="S162" s="97"/>
+      <c r="I162" s="18"/>
+      <c r="J162" s="18"/>
+      <c r="K162" s="18"/>
+      <c r="L162" s="3"/>
+      <c r="M162" s="130"/>
+      <c r="N162" s="20"/>
+      <c r="O162" s="20"/>
+      <c r="P162" s="3"/>
+      <c r="Q162" s="98"/>
+      <c r="R162" s="106"/>
+      <c r="S162" s="98"/>
     </row>
     <row r="164" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E164" s="17" t="s">
+      <c r="E164" s="18" t="s">
         <v>658</v>
       </c>
-      <c r="F164" s="17" t="s">
+      <c r="F164" s="18" t="s">
         <v>659</v>
       </c>
-      <c r="G164" s="15" t="s">
+      <c r="G164" s="16" t="s">
         <v>660</v>
       </c>
-      <c r="H164" s="16" t="s">
+      <c r="H164" s="17" t="s">
         <v>659</v>
       </c>
-      <c r="I164" s="17"/>
-      <c r="J164" s="17"/>
-      <c r="K164" s="17"/>
-      <c r="L164" s="98" t="s">
+      <c r="I164" s="18"/>
+      <c r="J164" s="18"/>
+      <c r="K164" s="18"/>
+      <c r="L164" s="99" t="s">
         <v>661</v>
       </c>
-      <c r="M164" s="81" t="s">
+      <c r="M164" s="82" t="s">
         <v>395</v>
       </c>
-      <c r="N164" s="139" t="s">
+      <c r="N164" s="140" t="s">
         <v>662</v>
       </c>
-      <c r="O164" s="19" t="s">
+      <c r="O164" s="20" t="s">
         <v>663</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E165" s="17"/>
-      <c r="F165" s="17"/>
-      <c r="G165" s="15"/>
-      <c r="H165" s="16"/>
-      <c r="I165" s="17"/>
-      <c r="J165" s="17"/>
-      <c r="K165" s="17"/>
-      <c r="L165" s="98" t="s">
+      <c r="E165" s="18"/>
+      <c r="F165" s="18"/>
+      <c r="G165" s="16"/>
+      <c r="H165" s="17"/>
+      <c r="I165" s="18"/>
+      <c r="J165" s="18"/>
+      <c r="K165" s="18"/>
+      <c r="L165" s="99" t="s">
         <v>664</v>
       </c>
-      <c r="M165" s="81" t="s">
+      <c r="M165" s="82" t="s">
         <v>665</v>
       </c>
-      <c r="N165" s="19"/>
-      <c r="O165" s="19"/>
+      <c r="N165" s="20"/>
+      <c r="O165" s="20"/>
     </row>
     <row r="167" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E167" s="17" t="s">
+      <c r="E167" s="18" t="s">
         <v>658</v>
       </c>
-      <c r="F167" s="1" t="s">
+      <c r="F167" s="2" t="s">
         <v>666</v>
       </c>
-      <c r="H167" s="1" t="s">
+      <c r="H167" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="L167" s="2" t="s">
+      <c r="L167" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="M167" s="2" t="s">
+      <c r="M167" s="3" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E168" s="17" t="s">
+      <c r="E168" s="18" t="s">
         <v>658</v>
       </c>
-      <c r="F168" s="1" t="s">
+      <c r="F168" s="2" t="s">
         <v>667</v>
       </c>
-      <c r="H168" s="1" t="s">
+      <c r="H168" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="L168" s="2" t="s">
+      <c r="L168" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="M168" s="2" t="s">
+      <c r="M168" s="3" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E170" s="17" t="s">
+      <c r="E170" s="18" t="s">
         <v>634</v>
       </c>
-      <c r="F170" s="1" t="s">
+      <c r="F170" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="H170" s="1" t="s">
+      <c r="H170" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="L170" s="2" t="s">
+      <c r="L170" s="3" t="s">
         <v>668</v>
       </c>
-      <c r="M170" s="2" t="s">
+      <c r="M170" s="3" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E171" s="17" t="s">
+      <c r="E171" s="18" t="s">
         <v>634</v>
       </c>
-      <c r="F171" s="1" t="s">
+      <c r="F171" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="H171" s="1" t="s">
+      <c r="H171" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="L171" s="1" t="s">
+      <c r="L171" s="2" t="s">
         <v>667</v>
       </c>
-      <c r="M171" s="2" t="s">
+      <c r="M171" s="3" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="1"/>
-      <c r="B172" s="16"/>
-      <c r="C172" s="28"/>
-      <c r="D172" s="1"/>
-      <c r="E172" s="19" t="s">
+      <c r="A172" s="2"/>
+      <c r="B172" s="17"/>
+      <c r="C172" s="29"/>
+      <c r="D172" s="2"/>
+      <c r="E172" s="20" t="s">
         <v>670</v>
       </c>
-      <c r="F172" s="17" t="s">
+      <c r="F172" s="18" t="s">
         <v>671</v>
       </c>
-      <c r="G172" s="15" t="s">
+      <c r="G172" s="16" t="s">
         <v>672</v>
       </c>
-      <c r="H172" s="16" t="s">
+      <c r="H172" s="17" t="s">
         <v>673</v>
       </c>
-      <c r="I172" s="17"/>
-      <c r="J172" s="17"/>
-      <c r="K172" s="17"/>
-      <c r="L172" s="140" t="s">
+      <c r="I172" s="18"/>
+      <c r="J172" s="18"/>
+      <c r="K172" s="18"/>
+      <c r="L172" s="141" t="s">
         <v>674</v>
       </c>
-      <c r="M172" s="81" t="s">
+      <c r="M172" s="82" t="s">
         <v>263</v>
       </c>
-      <c r="N172" s="19" t="s">
+      <c r="N172" s="20" t="s">
         <v>675</v>
       </c>
-      <c r="O172" s="17"/>
+      <c r="O172" s="18"/>
     </row>
     <row r="173" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="1"/>
-      <c r="B173" s="16"/>
-      <c r="C173" s="28"/>
-      <c r="D173" s="1"/>
-      <c r="E173" s="19"/>
-      <c r="F173" s="17" t="s">
+      <c r="A173" s="2"/>
+      <c r="B173" s="17"/>
+      <c r="C173" s="29"/>
+      <c r="D173" s="2"/>
+      <c r="E173" s="20"/>
+      <c r="F173" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="G173" s="15"/>
-      <c r="H173" s="16" t="s">
+      <c r="G173" s="16"/>
+      <c r="H173" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I173" s="17"/>
-      <c r="J173" s="17"/>
-      <c r="K173" s="17"/>
-      <c r="L173" s="140" t="s">
+      <c r="I173" s="18"/>
+      <c r="J173" s="18"/>
+      <c r="K173" s="18"/>
+      <c r="L173" s="141" t="s">
         <v>107</v>
       </c>
-      <c r="M173" s="81" t="s">
+      <c r="M173" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="N173" s="19"/>
-      <c r="O173" s="73"/>
+      <c r="N173" s="20"/>
+      <c r="O173" s="74"/>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="1"/>
-      <c r="B174" s="16"/>
-      <c r="C174" s="28"/>
-      <c r="D174" s="1"/>
-      <c r="E174" s="19"/>
-      <c r="F174" s="17"/>
-      <c r="G174" s="15"/>
-      <c r="H174" s="16"/>
-      <c r="I174" s="17"/>
-      <c r="J174" s="17"/>
-      <c r="K174" s="17"/>
-      <c r="L174" s="140" t="s">
+      <c r="A174" s="2"/>
+      <c r="B174" s="17"/>
+      <c r="C174" s="29"/>
+      <c r="D174" s="2"/>
+      <c r="E174" s="20"/>
+      <c r="F174" s="18"/>
+      <c r="G174" s="16"/>
+      <c r="H174" s="17"/>
+      <c r="I174" s="18"/>
+      <c r="J174" s="18"/>
+      <c r="K174" s="18"/>
+      <c r="L174" s="141" t="s">
         <v>676</v>
       </c>
-      <c r="M174" s="81" t="s">
+      <c r="M174" s="82" t="s">
         <v>677</v>
       </c>
-      <c r="N174" s="19"/>
-      <c r="O174" s="17"/>
+      <c r="N174" s="20"/>
+      <c r="O174" s="18"/>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="176" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="1"/>
-      <c r="B176" s="16"/>
-      <c r="C176" s="28"/>
-      <c r="D176" s="1"/>
-      <c r="E176" s="19" t="s">
+      <c r="A176" s="2"/>
+      <c r="B176" s="17"/>
+      <c r="C176" s="29"/>
+      <c r="D176" s="2"/>
+      <c r="E176" s="20" t="s">
         <v>678</v>
       </c>
-      <c r="F176" s="17" t="s">
+      <c r="F176" s="18" t="s">
         <v>679</v>
       </c>
-      <c r="G176" s="15" t="s">
+      <c r="G176" s="16" t="s">
         <v>680</v>
       </c>
-      <c r="H176" s="16" t="s">
+      <c r="H176" s="17" t="s">
         <v>681</v>
       </c>
-      <c r="I176" s="17"/>
-      <c r="J176" s="17"/>
-      <c r="K176" s="17"/>
-      <c r="L176" s="141" t="s">
+      <c r="I176" s="18"/>
+      <c r="J176" s="18"/>
+      <c r="K176" s="18"/>
+      <c r="L176" s="142" t="s">
         <v>387</v>
       </c>
-      <c r="M176" s="81" t="s">
+      <c r="M176" s="82" t="s">
         <v>395</v>
       </c>
-      <c r="N176" s="142" t="s">
+      <c r="N176" s="143" t="s">
         <v>396</v>
       </c>
-      <c r="O176" s="19" t="s">
+      <c r="O176" s="20" t="s">
         <v>682</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="1"/>
-      <c r="B177" s="16"/>
-      <c r="C177" s="28"/>
-      <c r="D177" s="1"/>
-      <c r="E177" s="19"/>
-      <c r="F177" s="10" t="s">
+      <c r="A177" s="2"/>
+      <c r="B177" s="17"/>
+      <c r="C177" s="29"/>
+      <c r="D177" s="2"/>
+      <c r="E177" s="20"/>
+      <c r="F177" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G177" s="15"/>
-      <c r="H177" s="28" t="s">
+      <c r="G177" s="16"/>
+      <c r="H177" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="I177" s="17"/>
-      <c r="J177" s="17"/>
-      <c r="K177" s="17"/>
-      <c r="L177" s="141" t="s">
+      <c r="I177" s="18"/>
+      <c r="J177" s="18"/>
+      <c r="K177" s="18"/>
+      <c r="L177" s="142" t="s">
         <v>683</v>
       </c>
-      <c r="M177" s="81" t="s">
+      <c r="M177" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="N177" s="19"/>
-      <c r="O177" s="143"/>
+      <c r="N177" s="20"/>
+      <c r="O177" s="144"/>
     </row>
     <row r="178" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="1"/>
-      <c r="B178" s="16"/>
-      <c r="C178" s="28"/>
-      <c r="D178" s="1"/>
-      <c r="E178" s="19"/>
-      <c r="F178" s="17"/>
-      <c r="G178" s="15"/>
-      <c r="H178" s="16"/>
-      <c r="I178" s="17"/>
-      <c r="J178" s="17"/>
-      <c r="K178" s="17"/>
-      <c r="L178" s="141" t="s">
+      <c r="A178" s="2"/>
+      <c r="B178" s="17"/>
+      <c r="C178" s="29"/>
+      <c r="D178" s="2"/>
+      <c r="E178" s="20"/>
+      <c r="F178" s="18"/>
+      <c r="G178" s="16"/>
+      <c r="H178" s="17"/>
+      <c r="I178" s="18"/>
+      <c r="J178" s="18"/>
+      <c r="K178" s="18"/>
+      <c r="L178" s="142" t="s">
         <v>684</v>
       </c>
-      <c r="M178" s="81" t="s">
+      <c r="M178" s="82" t="s">
         <v>685</v>
       </c>
-      <c r="N178" s="19"/>
-      <c r="O178" s="19"/>
+      <c r="N178" s="20"/>
+      <c r="O178" s="20"/>
     </row>
     <row r="179" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E179" s="13" t="s">
+      <c r="E179" s="14" t="s">
         <v>686</v>
       </c>
-      <c r="F179" s="57" t="s">
+      <c r="F179" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="G179" s="15"/>
-      <c r="H179" s="28" t="s">
+      <c r="G179" s="16"/>
+      <c r="H179" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="Q179" s="144" t="s">
+      <c r="Q179" s="145" t="s">
         <v>687</v>
       </c>
-      <c r="R179" s="105" t="s">
+      <c r="R179" s="106" t="s">
         <v>29</v>
       </c>
-      <c r="S179" s="145"/>
-      <c r="T179" s="146"/>
+      <c r="S179" s="146"/>
+      <c r="T179" s="147"/>
     </row>
     <row r="180" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E180" s="13" t="s">
+      <c r="E180" s="14" t="s">
         <v>686</v>
       </c>
-      <c r="F180" s="147" t="s">
+      <c r="F180" s="148" t="s">
         <v>688</v>
       </c>
-      <c r="G180" s="15" t="s">
+      <c r="G180" s="16" t="s">
         <v>689</v>
       </c>
-      <c r="H180" s="16" t="s">
+      <c r="H180" s="17" t="s">
         <v>688</v>
       </c>
-      <c r="I180" s="17" t="s">
+      <c r="I180" s="18" t="s">
         <v>690</v>
       </c>
-      <c r="J180" s="17"/>
-      <c r="K180" s="17"/>
-      <c r="L180" s="148" t="s">
+      <c r="J180" s="18"/>
+      <c r="K180" s="18"/>
+      <c r="L180" s="149" t="s">
         <v>195</v>
       </c>
-      <c r="M180" s="81" t="s">
+      <c r="M180" s="82" t="s">
         <v>195</v>
       </c>
-      <c r="N180" s="94"/>
-      <c r="O180" s="94"/>
-      <c r="P180" s="97"/>
-      <c r="Q180" s="144" t="s">
+      <c r="N180" s="95"/>
+      <c r="O180" s="95"/>
+      <c r="P180" s="98"/>
+      <c r="Q180" s="145" t="s">
         <v>691</v>
       </c>
-      <c r="R180" s="105" t="s">
+      <c r="R180" s="106" t="s">
         <v>692</v>
       </c>
-      <c r="S180" s="149" t="s">
+      <c r="S180" s="150" t="s">
         <v>693</v>
       </c>
-      <c r="T180" s="44" t="s">
+      <c r="T180" s="45" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E181" s="13" t="s">
+      <c r="E181" s="14" t="s">
         <v>695</v>
       </c>
-      <c r="F181" s="147" t="s">
+      <c r="F181" s="148" t="s">
         <v>256</v>
       </c>
-      <c r="G181" s="15" t="s">
+      <c r="G181" s="16" t="s">
         <v>696</v>
       </c>
-      <c r="H181" s="16" t="s">
+      <c r="H181" s="17" t="s">
         <v>257</v>
       </c>
-      <c r="I181" s="17"/>
-      <c r="J181" s="17"/>
-      <c r="K181" s="17"/>
-      <c r="L181" s="148"/>
-      <c r="M181" s="81"/>
-      <c r="N181" s="94"/>
-      <c r="O181" s="94"/>
-      <c r="P181" s="97"/>
-      <c r="Q181" s="144" t="s">
+      <c r="I181" s="18"/>
+      <c r="J181" s="18"/>
+      <c r="K181" s="18"/>
+      <c r="L181" s="149"/>
+      <c r="M181" s="82"/>
+      <c r="N181" s="95"/>
+      <c r="O181" s="95"/>
+      <c r="P181" s="98"/>
+      <c r="Q181" s="145" t="s">
         <v>697</v>
       </c>
-      <c r="R181" s="105" t="s">
+      <c r="R181" s="106" t="s">
         <v>698</v>
       </c>
-      <c r="S181" s="145"/>
-      <c r="T181" s="150"/>
+      <c r="S181" s="146"/>
+      <c r="T181" s="151"/>
     </row>
     <row r="182" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E182" s="13" t="s">
+      <c r="E182" s="14" t="s">
         <v>695</v>
       </c>
-      <c r="F182" s="147" t="s">
+      <c r="F182" s="148" t="s">
         <v>699</v>
       </c>
-      <c r="G182" s="15" t="s">
+      <c r="G182" s="16" t="s">
         <v>696</v>
       </c>
-      <c r="H182" s="16" t="s">
+      <c r="H182" s="17" t="s">
         <v>699</v>
       </c>
-      <c r="I182" s="17"/>
-      <c r="J182" s="17"/>
-      <c r="K182" s="17"/>
-      <c r="L182" s="148"/>
-      <c r="M182" s="81"/>
-      <c r="N182" s="94"/>
-      <c r="O182" s="94"/>
-      <c r="P182" s="97"/>
-      <c r="Q182" s="151"/>
-      <c r="R182" s="152"/>
-      <c r="S182" s="145"/>
-      <c r="T182" s="150"/>
+      <c r="I182" s="18"/>
+      <c r="J182" s="18"/>
+      <c r="K182" s="18"/>
+      <c r="L182" s="149"/>
+      <c r="M182" s="82"/>
+      <c r="N182" s="95"/>
+      <c r="O182" s="95"/>
+      <c r="P182" s="98"/>
+      <c r="Q182" s="98"/>
+      <c r="R182" s="106"/>
+      <c r="S182" s="146"/>
+      <c r="T182" s="151"/>
     </row>
     <row r="183" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E183" s="13" t="s">
+      <c r="E183" s="14" t="s">
         <v>695</v>
       </c>
-      <c r="F183" s="147" t="s">
+      <c r="F183" s="148" t="s">
         <v>700</v>
       </c>
-      <c r="G183" s="15" t="s">
+      <c r="G183" s="16" t="s">
         <v>696</v>
       </c>
-      <c r="H183" s="16" t="s">
+      <c r="H183" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="I183" s="17"/>
-      <c r="J183" s="17"/>
-      <c r="K183" s="17"/>
-      <c r="L183" s="148"/>
-      <c r="M183" s="81"/>
-      <c r="N183" s="94"/>
-      <c r="O183" s="94"/>
-      <c r="P183" s="153"/>
-      <c r="Q183" s="153"/>
-      <c r="R183" s="105"/>
-      <c r="S183" s="145"/>
-      <c r="T183" s="150"/>
+      <c r="I183" s="18"/>
+      <c r="J183" s="18"/>
+      <c r="K183" s="18"/>
+      <c r="L183" s="149"/>
+      <c r="M183" s="82"/>
+      <c r="N183" s="95"/>
+      <c r="O183" s="95"/>
+      <c r="P183" s="152"/>
+      <c r="Q183" s="152"/>
+      <c r="R183" s="106"/>
+      <c r="S183" s="146"/>
+      <c r="T183" s="151"/>
     </row>
     <row r="185" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E185" s="17" t="s">
+      <c r="E185" s="18" t="s">
         <v>701</v>
       </c>
-      <c r="F185" s="107" t="s">
+      <c r="F185" s="108" t="s">
         <v>188</v>
       </c>
-      <c r="G185" s="15" t="s">
+      <c r="G185" s="16" t="s">
         <v>702</v>
       </c>
-      <c r="H185" s="16" t="s">
+      <c r="H185" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="I185" s="109" t="s">
+      <c r="I185" s="110" t="s">
         <v>189</v>
       </c>
-      <c r="J185" s="17" t="s">
+      <c r="J185" s="18" t="s">
         <v>703</v>
       </c>
-      <c r="K185" s="17"/>
-      <c r="L185" s="2" t="s">
+      <c r="K185" s="18"/>
+      <c r="L185" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="M185" s="81" t="s">
+      <c r="M185" s="82" t="s">
         <v>195</v>
       </c>
-      <c r="O185" s="154"/>
-      <c r="P185" s="154"/>
-      <c r="Q185" s="44" t="s">
+      <c r="O185" s="153"/>
+      <c r="P185" s="153"/>
+      <c r="Q185" s="45" t="s">
         <v>704</v>
       </c>
-      <c r="R185" s="137" t="s">
+      <c r="R185" s="138" t="s">
         <v>705</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E186" s="17" t="s">
+      <c r="E186" s="18" t="s">
         <v>701</v>
       </c>
-      <c r="F186" s="107" t="s">
+      <c r="F186" s="108" t="s">
         <v>706</v>
       </c>
-      <c r="G186" s="15" t="s">
+      <c r="G186" s="16" t="s">
         <v>702</v>
       </c>
-      <c r="H186" s="16" t="s">
+      <c r="H186" s="17" t="s">
         <v>707</v>
       </c>
-      <c r="I186" s="17"/>
-      <c r="J186" s="17"/>
-      <c r="K186" s="17"/>
-      <c r="L186" s="2"/>
-      <c r="M186" s="129"/>
-      <c r="O186" s="154"/>
-      <c r="P186" s="154"/>
-      <c r="Q186" s="44"/>
-      <c r="R186" s="137"/>
+      <c r="I186" s="18"/>
+      <c r="J186" s="18"/>
+      <c r="K186" s="18"/>
+      <c r="L186" s="3"/>
+      <c r="M186" s="130"/>
+      <c r="O186" s="153"/>
+      <c r="P186" s="153"/>
+      <c r="Q186" s="45"/>
+      <c r="R186" s="138"/>
     </row>
     <row r="187" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E187" s="17" t="s">
+      <c r="E187" s="18" t="s">
         <v>708</v>
       </c>
-      <c r="F187" s="107" t="s">
+      <c r="F187" s="108" t="s">
         <v>709</v>
       </c>
-      <c r="G187" s="15" t="s">
+      <c r="G187" s="16" t="s">
         <v>710</v>
       </c>
-      <c r="H187" s="16" t="s">
+      <c r="H187" s="17" t="s">
         <v>711</v>
       </c>
-      <c r="I187" s="17"/>
-      <c r="J187" s="17"/>
-      <c r="K187" s="17"/>
-      <c r="L187" s="2"/>
-      <c r="M187" s="129"/>
-      <c r="O187" s="154"/>
-      <c r="P187" s="154"/>
-      <c r="Q187" s="44"/>
-      <c r="R187" s="137"/>
+      <c r="I187" s="18"/>
+      <c r="J187" s="18"/>
+      <c r="K187" s="18"/>
+      <c r="L187" s="3"/>
+      <c r="M187" s="130"/>
+      <c r="O187" s="153"/>
+      <c r="P187" s="153"/>
+      <c r="Q187" s="45"/>
+      <c r="R187" s="138"/>
     </row>
     <row r="189" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E189" s="17" t="s">
+      <c r="E189" s="18" t="s">
         <v>712</v>
       </c>
-      <c r="F189" s="107" t="s">
+      <c r="F189" s="108" t="s">
         <v>713</v>
       </c>
-      <c r="G189" s="15" t="s">
+      <c r="G189" s="16" t="s">
         <v>714</v>
       </c>
-      <c r="H189" s="16" t="s">
+      <c r="H189" s="17" t="s">
         <v>715</v>
       </c>
-      <c r="I189" s="17"/>
-      <c r="J189" s="17"/>
-      <c r="K189" s="17"/>
-      <c r="L189" s="2" t="s">
+      <c r="I189" s="18"/>
+      <c r="J189" s="18"/>
+      <c r="K189" s="18"/>
+      <c r="L189" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="M189" s="129" t="s">
+      <c r="M189" s="130" t="s">
         <v>195</v>
       </c>
-      <c r="N189" s="19"/>
-      <c r="O189" s="19"/>
-      <c r="P189" s="2"/>
-      <c r="Q189" s="144" t="s">
+      <c r="N189" s="20"/>
+      <c r="O189" s="20"/>
+      <c r="P189" s="3"/>
+      <c r="Q189" s="145" t="s">
         <v>716</v>
       </c>
-      <c r="R189" s="105" t="s">
+      <c r="R189" s="106" t="s">
         <v>717</v>
       </c>
-      <c r="S189" s="97" t="s">
+      <c r="S189" s="98" t="s">
         <v>718</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E190" s="17" t="s">
+      <c r="E190" s="18" t="s">
         <v>719</v>
       </c>
-      <c r="F190" s="107" t="s">
+      <c r="F190" s="108" t="s">
         <v>720</v>
       </c>
-      <c r="G190" s="15" t="s">
+      <c r="G190" s="16" t="s">
         <v>721</v>
       </c>
-      <c r="H190" s="16" t="s">
+      <c r="H190" s="17" t="s">
         <v>720</v>
       </c>
-      <c r="I190" s="17"/>
-      <c r="J190" s="17"/>
-      <c r="K190" s="17"/>
-      <c r="L190" s="2"/>
-      <c r="M190" s="129"/>
-      <c r="N190" s="19"/>
-      <c r="O190" s="19"/>
-      <c r="P190" s="2"/>
-      <c r="Q190" s="144" t="s">
+      <c r="I190" s="18"/>
+      <c r="J190" s="18"/>
+      <c r="K190" s="18"/>
+      <c r="L190" s="3"/>
+      <c r="M190" s="130"/>
+      <c r="N190" s="20"/>
+      <c r="O190" s="20"/>
+      <c r="P190" s="3"/>
+      <c r="Q190" s="145" t="s">
         <v>722</v>
       </c>
-      <c r="R190" s="105" t="s">
+      <c r="R190" s="106" t="s">
         <v>723</v>
       </c>
-      <c r="S190" s="97"/>
+      <c r="S190" s="98"/>
     </row>
     <row r="191" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E191" s="17" t="s">
+      <c r="E191" s="18" t="s">
         <v>724</v>
       </c>
-      <c r="F191" s="107" t="s">
+      <c r="F191" s="108" t="s">
         <v>725</v>
       </c>
-      <c r="G191" s="15" t="s">
+      <c r="G191" s="16" t="s">
         <v>726</v>
       </c>
-      <c r="H191" s="16" t="s">
+      <c r="H191" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="I191" s="17"/>
-      <c r="J191" s="17"/>
-      <c r="K191" s="17"/>
-      <c r="L191" s="2"/>
-      <c r="M191" s="129"/>
-      <c r="N191" s="19"/>
-      <c r="O191" s="19"/>
-      <c r="P191" s="155"/>
-      <c r="Q191" s="155"/>
-      <c r="R191" s="105"/>
-      <c r="S191" s="97"/>
+      <c r="I191" s="18"/>
+      <c r="J191" s="18"/>
+      <c r="K191" s="18"/>
+      <c r="L191" s="3"/>
+      <c r="M191" s="130"/>
+      <c r="N191" s="20"/>
+      <c r="O191" s="20"/>
+      <c r="P191" s="154"/>
+      <c r="Q191" s="154"/>
+      <c r="R191" s="106"/>
+      <c r="S191" s="98"/>
     </row>
     <row r="193" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E193" s="17" t="s">
+      <c r="E193" s="18" t="s">
         <v>727</v>
       </c>
-      <c r="F193" s="17" t="s">
+      <c r="F193" s="18" t="s">
         <v>728</v>
       </c>
-      <c r="G193" s="15" t="s">
+      <c r="G193" s="16" t="s">
         <v>729</v>
       </c>
-      <c r="H193" s="16" t="s">
+      <c r="H193" s="17" t="s">
         <v>730</v>
       </c>
-      <c r="I193" s="17"/>
-      <c r="J193" s="17"/>
-      <c r="K193" s="17"/>
-      <c r="L193" s="2" t="s">
+      <c r="I193" s="18"/>
+      <c r="J193" s="18"/>
+      <c r="K193" s="18"/>
+      <c r="L193" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="M193" s="129" t="s">
+      <c r="M193" s="130" t="s">
         <v>195</v>
       </c>
-      <c r="N193" s="19"/>
-      <c r="O193" s="19"/>
-      <c r="P193" s="2"/>
-      <c r="Q193" s="144" t="s">
+      <c r="N193" s="20"/>
+      <c r="O193" s="20"/>
+      <c r="P193" s="3"/>
+      <c r="Q193" s="145" t="s">
         <v>731</v>
       </c>
-      <c r="R193" s="105" t="s">
+      <c r="R193" s="106" t="s">
         <v>732</v>
       </c>
-      <c r="S193" s="97" t="s">
+      <c r="S193" s="98" t="s">
         <v>733</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E194" s="17"/>
-      <c r="F194" s="17"/>
-      <c r="G194" s="15"/>
-      <c r="H194" s="16"/>
-      <c r="I194" s="17"/>
-      <c r="J194" s="17"/>
-      <c r="K194" s="17"/>
-      <c r="L194" s="2"/>
-      <c r="M194" s="129"/>
-      <c r="N194" s="19"/>
-      <c r="O194" s="19"/>
-      <c r="P194" s="2"/>
-      <c r="Q194" s="144" t="s">
+      <c r="E194" s="18"/>
+      <c r="F194" s="18"/>
+      <c r="G194" s="16"/>
+      <c r="H194" s="17"/>
+      <c r="I194" s="18"/>
+      <c r="J194" s="18"/>
+      <c r="K194" s="18"/>
+      <c r="L194" s="3"/>
+      <c r="M194" s="130"/>
+      <c r="N194" s="20"/>
+      <c r="O194" s="20"/>
+      <c r="P194" s="3"/>
+      <c r="Q194" s="145" t="s">
         <v>734</v>
       </c>
-      <c r="R194" s="105" t="s">
+      <c r="R194" s="106" t="s">
         <v>735</v>
       </c>
-      <c r="S194" s="97"/>
+      <c r="S194" s="98"/>
     </row>
     <row r="195" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E195" s="17"/>
-      <c r="F195" s="17"/>
-      <c r="G195" s="15"/>
-      <c r="H195" s="16"/>
-      <c r="I195" s="17"/>
-      <c r="J195" s="17"/>
-      <c r="K195" s="17"/>
-      <c r="L195" s="2"/>
-      <c r="M195" s="129"/>
-      <c r="N195" s="19"/>
-      <c r="O195" s="19"/>
-      <c r="P195" s="2"/>
-      <c r="Q195" s="144" t="s">
+      <c r="E195" s="18"/>
+      <c r="F195" s="18"/>
+      <c r="G195" s="16"/>
+      <c r="H195" s="17"/>
+      <c r="I195" s="18"/>
+      <c r="J195" s="18"/>
+      <c r="K195" s="18"/>
+      <c r="L195" s="3"/>
+      <c r="M195" s="130"/>
+      <c r="N195" s="20"/>
+      <c r="O195" s="20"/>
+      <c r="P195" s="3"/>
+      <c r="Q195" s="145" t="s">
         <v>736</v>
       </c>
-      <c r="R195" s="105" t="s">
+      <c r="R195" s="106" t="s">
         <v>737</v>
       </c>
-      <c r="S195" s="97"/>
+      <c r="S195" s="98"/>
     </row>
     <row r="197" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E197" s="13" t="s">
+      <c r="E197" s="14" t="s">
         <v>738</v>
       </c>
-      <c r="F197" s="107" t="s">
+      <c r="F197" s="108" t="s">
         <v>188</v>
       </c>
-      <c r="G197" s="15" t="s">
+      <c r="G197" s="16" t="s">
         <v>739</v>
       </c>
-      <c r="H197" s="16" t="s">
+      <c r="H197" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="I197" s="109" t="s">
+      <c r="I197" s="110" t="s">
         <v>629</v>
       </c>
-      <c r="J197" s="17" t="s">
+      <c r="J197" s="18" t="s">
         <v>740</v>
       </c>
-      <c r="K197" s="13"/>
-      <c r="L197" s="2" t="s">
+      <c r="K197" s="14"/>
+      <c r="L197" s="3" t="s">
         <v>741</v>
       </c>
-      <c r="M197" s="74" t="s">
+      <c r="M197" s="75" t="s">
         <v>742</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E198" s="13" t="s">
+      <c r="E198" s="14" t="s">
         <v>738</v>
       </c>
-      <c r="F198" s="107" t="s">
+      <c r="F198" s="108" t="s">
         <v>743</v>
       </c>
-      <c r="G198" s="15" t="s">
+      <c r="G198" s="16" t="s">
         <v>739</v>
       </c>
-      <c r="H198" s="16" t="s">
+      <c r="H198" s="17" t="s">
         <v>744</v>
       </c>
-      <c r="I198" s="13"/>
-      <c r="J198" s="13"/>
-      <c r="K198" s="13"/>
-      <c r="L198" s="2"/>
-      <c r="M198" s="75"/>
+      <c r="I198" s="14"/>
+      <c r="J198" s="14"/>
+      <c r="K198" s="14"/>
+      <c r="L198" s="3"/>
+      <c r="M198" s="76"/>
     </row>
     <row r="199" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E199" s="13" t="s">
+      <c r="E199" s="14" t="s">
         <v>738</v>
       </c>
-      <c r="F199" s="107" t="s">
+      <c r="F199" s="108" t="s">
         <v>341</v>
       </c>
-      <c r="G199" s="15" t="s">
+      <c r="G199" s="16" t="s">
         <v>739</v>
       </c>
-      <c r="H199" s="16" t="s">
+      <c r="H199" s="17" t="s">
         <v>341</v>
       </c>
-      <c r="I199" s="13"/>
-      <c r="J199" s="13"/>
-      <c r="K199" s="13"/>
-      <c r="L199" s="2"/>
-      <c r="M199" s="75"/>
+      <c r="I199" s="14"/>
+      <c r="J199" s="14"/>
+      <c r="K199" s="14"/>
+      <c r="L199" s="3"/>
+      <c r="M199" s="76"/>
     </row>
     <row r="201" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E201" s="17" t="s">
+      <c r="E201" s="18" t="s">
         <v>745</v>
       </c>
-      <c r="F201" s="107" t="s">
+      <c r="F201" s="108" t="s">
         <v>746</v>
       </c>
-      <c r="G201" s="15" t="s">
+      <c r="G201" s="16" t="s">
         <v>747</v>
       </c>
-      <c r="H201" s="16" t="s">
+      <c r="H201" s="17" t="s">
         <v>746</v>
       </c>
-      <c r="I201" s="17" t="s">
+      <c r="I201" s="18" t="s">
         <v>748</v>
       </c>
-      <c r="J201" s="17"/>
-      <c r="K201" s="17"/>
-      <c r="L201" s="113" t="s">
+      <c r="J201" s="18"/>
+      <c r="K201" s="18"/>
+      <c r="L201" s="114" t="s">
         <v>749</v>
       </c>
-      <c r="M201" s="74" t="s">
+      <c r="M201" s="75" t="s">
         <v>750</v>
       </c>
-      <c r="N201" s="114" t="s">
+      <c r="N201" s="115" t="s">
         <v>751</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E202" s="17" t="s">
+      <c r="E202" s="18" t="s">
         <v>745</v>
       </c>
-      <c r="F202" s="107" t="s">
+      <c r="F202" s="108" t="s">
         <v>752</v>
       </c>
-      <c r="G202" s="15" t="s">
+      <c r="G202" s="16" t="s">
         <v>747</v>
       </c>
-      <c r="H202" s="16" t="s">
+      <c r="H202" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="I202" s="17"/>
-      <c r="J202" s="17"/>
-      <c r="K202" s="17"/>
-      <c r="L202" s="113" t="s">
+      <c r="I202" s="18"/>
+      <c r="J202" s="18"/>
+      <c r="K202" s="18"/>
+      <c r="L202" s="114" t="s">
         <v>753</v>
       </c>
-      <c r="M202" s="74" t="s">
+      <c r="M202" s="75" t="s">
         <v>754</v>
       </c>
-      <c r="N202" s="114"/>
+      <c r="N202" s="115"/>
     </row>
     <row r="203" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E203" s="17" t="s">
+      <c r="E203" s="18" t="s">
         <v>755</v>
       </c>
-      <c r="F203" s="107" t="s">
+      <c r="F203" s="108" t="s">
         <v>756</v>
       </c>
-      <c r="G203" s="15" t="s">
+      <c r="G203" s="16" t="s">
         <v>757</v>
       </c>
-      <c r="H203" s="16" t="s">
+      <c r="H203" s="17" t="s">
         <v>758</v>
       </c>
-      <c r="I203" s="17"/>
-      <c r="J203" s="17"/>
-      <c r="K203" s="17"/>
-      <c r="L203" s="113" t="s">
+      <c r="I203" s="18"/>
+      <c r="J203" s="18"/>
+      <c r="K203" s="18"/>
+      <c r="L203" s="114" t="s">
         <v>759</v>
       </c>
-      <c r="M203" s="74" t="s">
+      <c r="M203" s="75" t="s">
         <v>461</v>
       </c>
-      <c r="N203" s="19"/>
+      <c r="N203" s="20"/>
     </row>
     <row r="204" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E204" s="17"/>
-      <c r="F204" s="17"/>
-      <c r="G204" s="15"/>
-      <c r="H204" s="16"/>
-      <c r="I204" s="17"/>
-      <c r="J204" s="17"/>
-      <c r="K204" s="17"/>
-      <c r="L204" s="113" t="s">
+      <c r="E204" s="18"/>
+      <c r="F204" s="18"/>
+      <c r="G204" s="16"/>
+      <c r="H204" s="17"/>
+      <c r="I204" s="18"/>
+      <c r="J204" s="18"/>
+      <c r="K204" s="18"/>
+      <c r="L204" s="114" t="s">
         <v>760</v>
       </c>
-      <c r="M204" s="74" t="s">
+      <c r="M204" s="75" t="s">
         <v>760</v>
       </c>
-      <c r="N204" s="19"/>
+      <c r="N204" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -8748,8 +8744,8 @@
     <mergeCell ref="P191:Q191"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/integrator/test/Proba32.xlsx
+++ b/integrator/test/Proba32.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="761">
   <si>
     <t xml:space="preserve">1/W168a14</t>
   </si>
@@ -2217,34 +2217,34 @@
     <t xml:space="preserve">оуть сꙗ ꙗко-</t>
   </si>
   <si>
+    <t xml:space="preserve">περὶ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">περί </t>
+  </si>
+  <si>
+    <t xml:space="preserve">περί + Acc. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">οἱ περὶ Ἰάκωβον</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38/181a20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">въ  братꙗ его•</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ἰάκωβον</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ἰάκωβος</t>
+  </si>
+  <si>
+    <t xml:space="preserve">братꙗ</t>
+  </si>
+  <si>
     <t xml:space="preserve">аковъ  братꙗ го</t>
-  </si>
-  <si>
-    <t xml:space="preserve">περὶ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">περί </t>
-  </si>
-  <si>
-    <t xml:space="preserve">περί + Acc. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">οἱ περὶ Ἰάκωβον</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38/181a20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">въ  братꙗ его•</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ἰάκωβον</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ἰάκωβος</t>
-  </si>
-  <si>
-    <t xml:space="preserve">братꙗ</t>
   </si>
   <si>
     <t xml:space="preserve">его•</t>
@@ -3667,6 +3667,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="15" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="56" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3676,10 +3680,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="32" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3787,11 +3787,11 @@
   </sheetPr>
   <dimension ref="A1:AA204"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A63" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J76" activeCellId="0" sqref="J76"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A161" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J183" activeCellId="0" sqref="J183"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5625" defaultRowHeight="17.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14"/>
@@ -3801,7 +3801,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="5.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="12.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="10.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="10.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="8.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="6.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="11.22"/>
@@ -3815,7 +3815,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="6.22"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3835,7 +3835,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E2" s="5" t="s">
         <v>6</v>
       </c>
@@ -3856,7 +3856,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -3885,7 +3885,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E4" s="5" t="s">
         <v>19</v>
       </c>
@@ -3905,7 +3905,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E5" s="5" t="s">
         <v>25</v>
       </c>
@@ -3926,7 +3926,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E6" s="12" t="s">
         <v>27</v>
       </c>
@@ -3944,7 +3944,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E7" s="12" t="s">
         <v>27</v>
       </c>
@@ -3964,7 +3964,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E8" s="12" t="s">
         <v>27</v>
       </c>
@@ -3984,7 +3984,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E9" s="12" t="s">
         <v>37</v>
       </c>
@@ -4004,7 +4004,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E10" s="14" t="s">
         <v>43</v>
       </c>
@@ -4027,7 +4027,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E11" s="14" t="s">
         <v>49</v>
       </c>
@@ -4050,7 +4050,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E12" s="5" t="s">
         <v>52</v>
       </c>
@@ -4076,7 +4076,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E13" s="5" t="s">
         <v>60</v>
       </c>
@@ -4102,7 +4102,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E14" s="5" t="s">
         <v>63</v>
       </c>
@@ -4128,7 +4128,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E15" s="5" t="s">
         <v>67</v>
       </c>
@@ -4152,7 +4152,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E16" s="5" t="s">
         <v>74</v>
       </c>
@@ -4172,7 +4172,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E17" s="5" t="s">
         <v>80</v>
       </c>
@@ -4204,7 +4204,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E18" s="5" t="s">
         <v>89</v>
       </c>
@@ -4224,7 +4224,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E19" s="5" t="s">
         <v>80</v>
       </c>
@@ -4250,7 +4250,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E20" s="5" t="s">
         <v>97</v>
       </c>
@@ -4276,7 +4276,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E21" s="5" t="s">
         <v>97</v>
       </c>
@@ -4295,7 +4295,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E22" s="5" t="s">
         <v>97</v>
       </c>
@@ -4309,7 +4309,7 @@
       <c r="L22" s="9"/>
       <c r="M22" s="9"/>
     </row>
-    <row r="23" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E23" s="5"/>
       <c r="F23" s="11"/>
       <c r="G23" s="7"/>
@@ -4317,7 +4317,7 @@
       <c r="L23" s="9"/>
       <c r="M23" s="9"/>
     </row>
-    <row r="24" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E24" s="5" t="s">
         <v>106</v>
       </c>
@@ -4337,7 +4337,7 @@
       <c r="O24" s="25"/>
       <c r="Q24" s="26"/>
     </row>
-    <row r="25" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E25" s="5" t="s">
         <v>106</v>
       </c>
@@ -4363,7 +4363,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E26" s="5"/>
       <c r="F26" s="11"/>
       <c r="G26" s="7"/>
@@ -4372,7 +4372,7 @@
       <c r="M26" s="9"/>
       <c r="Q26" s="21"/>
     </row>
-    <row r="27" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E27" s="5" t="s">
         <v>114</v>
       </c>
@@ -4391,7 +4391,7 @@
       </c>
       <c r="O27" s="25"/>
     </row>
-    <row r="28" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E28" s="5" t="s">
         <v>114</v>
       </c>
@@ -4414,7 +4414,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="28"/>
       <c r="B29" s="8"/>
       <c r="C29" s="2"/>
@@ -4426,7 +4426,7 @@
       <c r="L29" s="3"/>
       <c r="M29" s="9"/>
     </row>
-    <row r="30" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E30" s="5" t="s">
         <v>121</v>
       </c>
@@ -4446,7 +4446,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E31" s="5" t="s">
         <v>121</v>
       </c>
@@ -4466,7 +4466,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E32" s="5"/>
       <c r="F32" s="11"/>
       <c r="G32" s="7"/>
@@ -4474,7 +4474,7 @@
       <c r="L32" s="3"/>
       <c r="M32" s="9"/>
     </row>
-    <row r="33" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E33" s="5" t="s">
         <v>131</v>
       </c>
@@ -4494,7 +4494,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E34" s="5" t="s">
         <v>137</v>
       </c>
@@ -4514,7 +4514,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E35" s="5" t="s">
         <v>137</v>
       </c>
@@ -4534,7 +4534,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E36" s="5" t="s">
         <v>147</v>
       </c>
@@ -4554,7 +4554,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E37" s="5"/>
       <c r="F37" s="11"/>
       <c r="G37" s="7"/>
@@ -4562,7 +4562,7 @@
       <c r="L37" s="3"/>
       <c r="M37" s="9"/>
     </row>
-    <row r="38" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="28" t="s">
         <v>153</v>
       </c>
@@ -4593,7 +4593,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="28" t="s">
         <v>161</v>
       </c>
@@ -4617,7 +4617,7 @@
       <c r="L39" s="3"/>
       <c r="M39" s="9"/>
     </row>
-    <row r="40" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="28"/>
       <c r="B40" s="8"/>
       <c r="C40" s="2"/>
@@ -4641,7 +4641,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="28"/>
       <c r="B41" s="8"/>
       <c r="C41" s="2"/>
@@ -4665,7 +4665,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E42" s="5" t="s">
         <v>173</v>
       </c>
@@ -4685,7 +4685,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E43" s="5" t="s">
         <v>176</v>
       </c>
@@ -4705,7 +4705,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E44" s="5" t="s">
         <v>176</v>
       </c>
@@ -4726,7 +4726,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E45" s="5" t="s">
         <v>183</v>
       </c>
@@ -4747,7 +4747,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E46" s="5" t="s">
         <v>184</v>
       </c>
@@ -4768,7 +4768,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="28" t="s">
         <v>187</v>
       </c>
@@ -4808,7 +4808,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
         <v>198</v>
       </c>
@@ -4834,7 +4834,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
         <v>205</v>
       </c>
@@ -4860,7 +4860,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="28" t="s">
         <v>209</v>
       </c>
@@ -4888,7 +4888,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E52" s="5" t="s">
         <v>217</v>
       </c>
@@ -4908,7 +4908,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="28" t="s">
         <v>222</v>
       </c>
@@ -4936,7 +4936,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
         <v>226</v>
       </c>
@@ -4964,7 +4964,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="28" t="s">
         <v>232</v>
       </c>
@@ -4992,7 +4992,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E56" s="5" t="s">
         <v>237</v>
       </c>
@@ -5012,7 +5012,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E57" s="5" t="s">
         <v>242</v>
       </c>
@@ -5032,7 +5032,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E58" s="5" t="s">
         <v>248</v>
       </c>
@@ -5052,7 +5052,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E59" s="5" t="s">
         <v>237</v>
       </c>
@@ -5072,7 +5072,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E60" s="5" t="s">
         <v>237</v>
       </c>
@@ -5092,7 +5092,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E61" s="5" t="s">
         <v>237</v>
       </c>
@@ -5112,7 +5112,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E62" s="5" t="s">
         <v>237</v>
       </c>
@@ -5132,7 +5132,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E63" s="5" t="s">
         <v>237</v>
       </c>
@@ -5152,7 +5152,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E64" s="5" t="s">
         <v>237</v>
       </c>
@@ -5172,7 +5172,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2"/>
       <c r="B65" s="31"/>
       <c r="C65" s="2"/>
@@ -5198,7 +5198,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="18" t="s">
         <v>269</v>
       </c>
@@ -5260,7 +5260,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="17"/>
       <c r="D69" s="40"/>
       <c r="E69" s="14" t="s">
@@ -5285,7 +5285,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E70" s="14" t="s">
         <v>279</v>
       </c>
@@ -5314,7 +5314,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E71" s="14" t="s">
         <v>279</v>
       </c>
@@ -5343,7 +5343,7 @@
       </c>
       <c r="R71" s="33"/>
     </row>
-    <row r="72" customFormat="false" ht="34.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="47" t="s">
         <v>291</v>
       </c>
@@ -5378,7 +5378,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="34.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="47" t="s">
         <v>301</v>
       </c>
@@ -5406,10 +5406,10 @@
       <c r="M73" s="53"/>
       <c r="Q73" s="30"/>
     </row>
-    <row r="74" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="Q74" s="56"/>
     </row>
-    <row r="75" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="2"/>
       <c r="B75" s="31"/>
       <c r="C75" s="2"/>
@@ -5435,7 +5435,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="18" t="s">
         <v>269</v>
       </c>
@@ -5467,7 +5467,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="78" s="60" customFormat="true" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" s="60" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="57"/>
       <c r="B78" s="57"/>
       <c r="C78" s="57"/>
@@ -5496,7 +5496,7 @@
       <c r="N78" s="59"/>
       <c r="R78" s="61"/>
     </row>
-    <row r="79" s="60" customFormat="true" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" s="60" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="11" t="s">
         <v>314</v>
       </c>
@@ -5527,7 +5527,7 @@
       <c r="N79" s="59"/>
       <c r="R79" s="61"/>
     </row>
-    <row r="80" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="2"/>
       <c r="E80" s="59"/>
       <c r="F80" s="63"/>
@@ -5536,7 +5536,7 @@
       <c r="I80" s="63"/>
       <c r="J80" s="63"/>
     </row>
-    <row r="81" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="64"/>
       <c r="B81" s="64"/>
       <c r="C81" s="64"/>
@@ -5564,7 +5564,7 @@
       </c>
       <c r="N81" s="69"/>
     </row>
-    <row r="82" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E82" s="65" t="s">
         <v>322</v>
       </c>
@@ -5590,7 +5590,7 @@
       </c>
       <c r="N82" s="69"/>
     </row>
-    <row r="83" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="28"/>
       <c r="B83" s="8"/>
       <c r="C83" s="2"/>
@@ -5617,7 +5617,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E84" s="5" t="s">
         <v>334</v>
       </c>
@@ -5640,7 +5640,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="28" t="s">
         <v>340</v>
       </c>
@@ -5671,7 +5671,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="73" t="s">
         <v>348</v>
       </c>
@@ -5702,7 +5702,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E87" s="5" t="s">
         <v>354</v>
       </c>
@@ -5725,7 +5725,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="28" t="s">
         <v>360</v>
       </c>
@@ -5759,7 +5759,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="63" t="s">
         <v>370</v>
       </c>
@@ -5788,7 +5788,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E90" s="5" t="s">
         <v>376</v>
       </c>
@@ -5811,7 +5811,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E91" s="5" t="s">
         <v>381</v>
       </c>
@@ -5831,7 +5831,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E92" s="5"/>
       <c r="F92" s="11" t="s">
         <v>179</v>
@@ -5850,7 +5850,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E93" s="5" t="s">
         <v>390</v>
       </c>
@@ -5869,8 +5869,9 @@
       <c r="M93" s="9" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="94" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T93" s="0"/>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E94" s="5"/>
       <c r="F94" s="11" t="s">
         <v>179</v>
@@ -5888,8 +5889,9 @@
       <c r="N94" s="3" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="95" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T94" s="0"/>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="28" t="s">
         <v>397</v>
       </c>
@@ -5916,8 +5918,9 @@
       <c r="M95" s="9" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="96" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T95" s="0"/>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="28"/>
       <c r="B96" s="8"/>
       <c r="C96" s="2"/>
@@ -5940,8 +5943,9 @@
       <c r="M96" s="9" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="97" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T96" s="0"/>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="28" t="s">
         <v>397</v>
       </c>
@@ -5968,8 +5972,9 @@
       <c r="M97" s="9" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="98" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T97" s="0"/>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="28" t="s">
         <v>401</v>
       </c>
@@ -5997,8 +6002,9 @@
       <c r="N98" s="3" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="99" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T98" s="0"/>
+    </row>
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="18" t="s">
         <v>406</v>
       </c>
@@ -6028,8 +6034,9 @@
       <c r="M99" s="52" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="100" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T99" s="0"/>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E100" s="18" t="s">
         <v>412</v>
       </c>
@@ -6051,8 +6058,9 @@
       <c r="M100" s="20" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="101" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T100" s="0"/>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E101" s="18" t="s">
         <v>415</v>
       </c>
@@ -6074,8 +6082,9 @@
       <c r="M101" s="75" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="102" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T101" s="0"/>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="18" t="s">
         <v>420</v>
       </c>
@@ -6105,8 +6114,9 @@
       <c r="M102" s="76" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="103" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T102" s="0"/>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="18" t="s">
         <v>427</v>
       </c>
@@ -6136,8 +6146,9 @@
       <c r="M103" s="76" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="104" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T103" s="0"/>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="18" t="s">
         <v>429</v>
       </c>
@@ -6167,8 +6178,9 @@
       <c r="M104" s="76" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="105" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T104" s="0"/>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="18" t="s">
         <v>429</v>
       </c>
@@ -6196,8 +6208,9 @@
       <c r="M105" s="76" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="106" s="77" customFormat="true" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T105" s="0"/>
+    </row>
+    <row r="106" s="77" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="17"/>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
@@ -6227,18 +6240,16 @@
       <c r="P106" s="3"/>
       <c r="Q106" s="3"/>
       <c r="R106" s="9"/>
-      <c r="T106" s="78"/>
-      <c r="U106" s="78"/>
-      <c r="V106" s="78"/>
-      <c r="W106" s="78"/>
-      <c r="X106" s="78"/>
-      <c r="Y106" s="78" t="s">
-        <v>442</v>
-      </c>
-      <c r="Z106" s="78"/>
+      <c r="T106" s="0"/>
+      <c r="U106" s="0"/>
+      <c r="V106" s="0"/>
+      <c r="W106" s="0"/>
+      <c r="X106" s="0"/>
+      <c r="Y106" s="0"/>
+      <c r="Z106" s="0"/>
       <c r="AA106" s="78"/>
     </row>
-    <row r="107" s="77" customFormat="true" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" s="77" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="18" t="s">
         <v>443</v>
       </c>
@@ -6273,18 +6284,16 @@
       <c r="P107" s="3"/>
       <c r="Q107" s="3"/>
       <c r="R107" s="9"/>
-      <c r="T107" s="78"/>
-      <c r="U107" s="78"/>
-      <c r="V107" s="78"/>
-      <c r="W107" s="78"/>
-      <c r="X107" s="78"/>
-      <c r="Y107" s="78" t="s">
-        <v>448</v>
-      </c>
-      <c r="Z107" s="78"/>
+      <c r="T107" s="0"/>
+      <c r="U107" s="0"/>
+      <c r="V107" s="0"/>
+      <c r="W107" s="0"/>
+      <c r="X107" s="0"/>
+      <c r="Y107" s="0"/>
+      <c r="Z107" s="0"/>
       <c r="AA107" s="78"/>
     </row>
-    <row r="108" s="77" customFormat="true" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" s="77" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="18" t="s">
         <v>449</v>
       </c>
@@ -6319,16 +6328,16 @@
       <c r="P108" s="3"/>
       <c r="Q108" s="3"/>
       <c r="R108" s="9"/>
-      <c r="T108" s="78"/>
-      <c r="U108" s="78"/>
-      <c r="V108" s="78"/>
-      <c r="W108" s="78"/>
-      <c r="X108" s="78"/>
-      <c r="Y108" s="78"/>
-      <c r="Z108" s="78"/>
+      <c r="T108" s="0"/>
+      <c r="U108" s="0"/>
+      <c r="V108" s="0"/>
+      <c r="W108" s="0"/>
+      <c r="X108" s="0"/>
+      <c r="Y108" s="0"/>
+      <c r="Z108" s="0"/>
       <c r="AA108" s="78"/>
     </row>
-    <row r="109" s="77" customFormat="true" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" s="77" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B109" s="17"/>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
@@ -6358,18 +6367,16 @@
       <c r="P109" s="3"/>
       <c r="Q109" s="3"/>
       <c r="R109" s="9"/>
-      <c r="T109" s="78"/>
-      <c r="U109" s="78"/>
-      <c r="V109" s="78"/>
-      <c r="W109" s="78"/>
-      <c r="X109" s="78"/>
-      <c r="Y109" s="78" t="s">
-        <v>456</v>
-      </c>
-      <c r="Z109" s="78"/>
+      <c r="T109" s="0"/>
+      <c r="U109" s="0"/>
+      <c r="V109" s="0"/>
+      <c r="W109" s="0"/>
+      <c r="X109" s="0"/>
+      <c r="Y109" s="0"/>
+      <c r="Z109" s="0"/>
       <c r="AA109" s="78"/>
     </row>
-    <row r="110" s="77" customFormat="true" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" s="77" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="18" t="s">
         <v>457</v>
       </c>
@@ -6404,18 +6411,16 @@
       <c r="P110" s="3"/>
       <c r="Q110" s="3"/>
       <c r="R110" s="9"/>
-      <c r="T110" s="78"/>
-      <c r="U110" s="78"/>
-      <c r="V110" s="78"/>
-      <c r="W110" s="78"/>
-      <c r="X110" s="78"/>
-      <c r="Y110" s="78" t="s">
-        <v>461</v>
-      </c>
-      <c r="Z110" s="78"/>
+      <c r="T110" s="0"/>
+      <c r="U110" s="0"/>
+      <c r="V110" s="0"/>
+      <c r="W110" s="0"/>
+      <c r="X110" s="0"/>
+      <c r="Y110" s="0"/>
+      <c r="Z110" s="0"/>
       <c r="AA110" s="78"/>
     </row>
-    <row r="111" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="77"/>
       <c r="B111" s="17"/>
       <c r="C111" s="2"/>
@@ -6441,8 +6446,9 @@
       <c r="M111" s="76" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="112" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T111" s="0"/>
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="77"/>
       <c r="B112" s="17"/>
       <c r="C112" s="2"/>
@@ -6471,8 +6477,9 @@
         <v>160</v>
       </c>
       <c r="N112" s="80"/>
-    </row>
-    <row r="113" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T112" s="0"/>
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="77"/>
       <c r="B113" s="17"/>
       <c r="C113" s="2"/>
@@ -6494,8 +6501,9 @@
       <c r="K113" s="18"/>
       <c r="L113" s="77"/>
       <c r="M113" s="76"/>
-    </row>
-    <row r="114" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T113" s="0"/>
+    </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="77"/>
       <c r="B114" s="17"/>
       <c r="C114" s="2"/>
@@ -6522,7 +6530,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="77"/>
       <c r="B115" s="17"/>
       <c r="C115" s="2"/>
@@ -6549,7 +6557,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="77"/>
       <c r="B116" s="17"/>
       <c r="C116" s="2"/>
@@ -6576,7 +6584,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="77"/>
       <c r="B117" s="17"/>
       <c r="C117" s="2"/>
@@ -6603,7 +6611,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="77"/>
       <c r="B118" s="17"/>
       <c r="C118" s="2"/>
@@ -6630,7 +6638,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E120" s="20" t="s">
         <v>484</v>
       </c>
@@ -6663,7 +6671,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E121" s="20"/>
       <c r="F121" s="11"/>
       <c r="G121" s="16"/>
@@ -6684,7 +6692,7 @@
       </c>
       <c r="S121" s="85"/>
     </row>
-    <row r="122" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="18" t="s">
         <v>491</v>
       </c>
@@ -6720,7 +6728,7 @@
       <c r="S122" s="88"/>
       <c r="T122" s="88"/>
     </row>
-    <row r="123" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="14" t="s">
         <v>498</v>
       </c>
@@ -6760,7 +6768,7 @@
       <c r="S123" s="88"/>
       <c r="T123" s="88"/>
     </row>
-    <row r="124" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="88"/>
       <c r="B124" s="88"/>
       <c r="C124" s="88"/>
@@ -6796,7 +6804,7 @@
       <c r="S124" s="88"/>
       <c r="T124" s="88"/>
     </row>
-    <row r="125" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="88"/>
       <c r="B125" s="88"/>
       <c r="C125" s="88"/>
@@ -6834,7 +6842,7 @@
       <c r="S125" s="88"/>
       <c r="T125" s="88"/>
     </row>
-    <row r="126" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="88"/>
       <c r="B126" s="88"/>
       <c r="C126" s="88"/>
@@ -6872,7 +6880,7 @@
       <c r="S126" s="88"/>
       <c r="T126" s="88"/>
     </row>
-    <row r="127" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="88"/>
       <c r="B127" s="88"/>
       <c r="C127" s="88"/>
@@ -6885,7 +6893,7 @@
       <c r="S127" s="88"/>
       <c r="T127" s="88"/>
     </row>
-    <row r="128" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="88"/>
       <c r="B128" s="88"/>
       <c r="C128" s="88"/>
@@ -6921,7 +6929,7 @@
       <c r="S128" s="14"/>
       <c r="T128" s="101"/>
     </row>
-    <row r="129" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="88"/>
       <c r="B129" s="88"/>
       <c r="C129" s="88"/>
@@ -6954,7 +6962,7 @@
       <c r="S129" s="88"/>
       <c r="T129" s="88"/>
     </row>
-    <row r="130" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="88"/>
       <c r="B130" s="88"/>
       <c r="C130" s="88"/>
@@ -6983,7 +6991,7 @@
       <c r="S130" s="88"/>
       <c r="T130" s="88"/>
     </row>
-    <row r="131" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="88"/>
       <c r="B131" s="88"/>
       <c r="C131" s="88"/>
@@ -7008,7 +7016,7 @@
       <c r="S131" s="88"/>
       <c r="T131" s="88"/>
     </row>
-    <row r="132" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="88"/>
       <c r="B132" s="88"/>
       <c r="C132" s="88"/>
@@ -7046,7 +7054,7 @@
       <c r="S132" s="88"/>
       <c r="T132" s="88"/>
     </row>
-    <row r="133" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="88"/>
       <c r="B133" s="88"/>
       <c r="C133" s="88"/>
@@ -7084,7 +7092,7 @@
       <c r="S133" s="88"/>
       <c r="T133" s="88"/>
     </row>
-    <row r="134" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="88"/>
       <c r="B134" s="88"/>
       <c r="C134" s="88"/>
@@ -7122,7 +7130,7 @@
       <c r="S134" s="88"/>
       <c r="T134" s="88"/>
     </row>
-    <row r="135" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="18" t="s">
         <v>547</v>
       </c>
@@ -7164,7 +7172,7 @@
       <c r="S135" s="88"/>
       <c r="T135" s="88"/>
     </row>
-    <row r="136" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="88"/>
       <c r="B136" s="88"/>
       <c r="C136" s="88"/>
@@ -7204,7 +7212,7 @@
       <c r="S136" s="88"/>
       <c r="T136" s="88"/>
     </row>
-    <row r="137" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="88"/>
       <c r="B137" s="88"/>
       <c r="C137" s="88"/>
@@ -7236,7 +7244,7 @@
       <c r="S137" s="88"/>
       <c r="T137" s="88"/>
     </row>
-    <row r="138" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="88"/>
       <c r="B138" s="88"/>
       <c r="C138" s="88"/>
@@ -7266,7 +7274,7 @@
       <c r="S138" s="88"/>
       <c r="T138" s="88"/>
     </row>
-    <row r="139" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="88"/>
       <c r="B139" s="88"/>
       <c r="C139" s="88"/>
@@ -7279,7 +7287,7 @@
       <c r="S139" s="88"/>
       <c r="T139" s="88"/>
     </row>
-    <row r="140" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="88"/>
       <c r="B140" s="88"/>
       <c r="C140" s="88"/>
@@ -7319,7 +7327,7 @@
       </c>
       <c r="T140" s="88"/>
     </row>
-    <row r="141" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="88"/>
       <c r="B141" s="88"/>
       <c r="C141" s="88"/>
@@ -7347,7 +7355,7 @@
       <c r="S141" s="85"/>
       <c r="T141" s="88"/>
     </row>
-    <row r="142" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="88"/>
       <c r="B142" s="88"/>
       <c r="C142" s="88"/>
@@ -7383,7 +7391,7 @@
       <c r="S142" s="88"/>
       <c r="T142" s="88"/>
     </row>
-    <row r="143" customFormat="false" ht="34.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="50" t="s">
         <v>575</v>
       </c>
@@ -7426,7 +7434,7 @@
       <c r="S143" s="88"/>
       <c r="T143" s="88"/>
     </row>
-    <row r="144" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="18" t="s">
         <v>586</v>
       </c>
@@ -7463,7 +7471,7 @@
       <c r="S144" s="88"/>
       <c r="T144" s="88"/>
     </row>
-    <row r="145" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="88"/>
       <c r="B145" s="88"/>
       <c r="C145" s="88"/>
@@ -7476,7 +7484,7 @@
       <c r="S145" s="88"/>
       <c r="T145" s="88"/>
     </row>
-    <row r="146" s="125" customFormat="true" ht="68.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" s="125" customFormat="true" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="116" t="s">
         <v>593</v>
       </c>
@@ -7516,7 +7524,7 @@
       <c r="S146" s="123"/>
       <c r="T146" s="123"/>
     </row>
-    <row r="147" s="125" customFormat="true" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" s="125" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="126" t="s">
         <v>602</v>
       </c>
@@ -7542,7 +7550,7 @@
       <c r="S147" s="123"/>
       <c r="T147" s="123"/>
     </row>
-    <row r="148" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="88"/>
       <c r="B148" s="88"/>
       <c r="C148" s="88"/>
@@ -7555,7 +7563,7 @@
       <c r="S148" s="88"/>
       <c r="T148" s="88"/>
     </row>
-    <row r="149" customFormat="false" ht="34.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="50" t="s">
         <v>604</v>
       </c>
@@ -7591,7 +7599,7 @@
       <c r="S149" s="88"/>
       <c r="T149" s="88"/>
     </row>
-    <row r="150" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="18" t="s">
         <v>612</v>
       </c>
@@ -7627,7 +7635,7 @@
       <c r="S150" s="88"/>
       <c r="T150" s="88"/>
     </row>
-    <row r="151" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="88"/>
       <c r="B151" s="88"/>
       <c r="C151" s="88"/>
@@ -7661,7 +7669,7 @@
       <c r="S151" s="88"/>
       <c r="T151" s="88"/>
     </row>
-    <row r="152" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="28"/>
       <c r="B152" s="8"/>
       <c r="C152" s="131"/>
@@ -7692,7 +7700,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="28"/>
       <c r="B153" s="8"/>
       <c r="C153" s="131"/>
@@ -7714,7 +7722,7 @@
       <c r="L153" s="3"/>
       <c r="M153" s="9"/>
     </row>
-    <row r="155" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E155" s="18" t="s">
         <v>634</v>
       </c>
@@ -7741,7 +7749,7 @@
       <c r="S155" s="95"/>
       <c r="T155" s="137"/>
     </row>
-    <row r="156" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E156" s="18" t="s">
         <v>634</v>
       </c>
@@ -7774,7 +7782,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E157" s="18"/>
       <c r="F157" s="18"/>
       <c r="G157" s="16"/>
@@ -7795,9 +7803,9 @@
       <c r="S157" s="81"/>
       <c r="T157" s="20"/>
     </row>
-    <row r="159" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E159" s="18"/>
-      <c r="F159" s="15" t="s">
+      <c r="F159" s="108" t="s">
         <v>28</v>
       </c>
       <c r="G159" s="16"/>
@@ -7825,7 +7833,7 @@
       <c r="S159" s="98"/>
       <c r="T159" s="137"/>
     </row>
-    <row r="160" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E160" s="18" t="s">
         <v>646</v>
       </c>
@@ -7862,7 +7870,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E161" s="18" t="s">
         <v>646</v>
       </c>
@@ -7889,7 +7897,7 @@
       <c r="R161" s="106"/>
       <c r="S161" s="98"/>
     </row>
-    <row r="162" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E162" s="18" t="s">
         <v>655</v>
       </c>
@@ -7914,7 +7922,7 @@
       <c r="R162" s="106"/>
       <c r="S162" s="98"/>
     </row>
-    <row r="164" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E164" s="18" t="s">
         <v>658</v>
       </c>
@@ -7943,7 +7951,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E165" s="18"/>
       <c r="F165" s="18"/>
       <c r="G165" s="16"/>
@@ -7960,7 +7968,7 @@
       <c r="N165" s="20"/>
       <c r="O165" s="20"/>
     </row>
-    <row r="167" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E167" s="18" t="s">
         <v>658</v>
       </c>
@@ -7994,7 +8002,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E170" s="18" t="s">
         <v>634</v>
       </c>
@@ -8028,7 +8036,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="2"/>
       <c r="B172" s="17"/>
       <c r="C172" s="29"/>
@@ -8059,7 +8067,7 @@
       </c>
       <c r="O172" s="18"/>
     </row>
-    <row r="173" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="2"/>
       <c r="B173" s="17"/>
       <c r="C173" s="29"/>
@@ -8105,8 +8113,7 @@
       <c r="N174" s="20"/>
       <c r="O174" s="18"/>
     </row>
-    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="176" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="2"/>
       <c r="B176" s="17"/>
       <c r="C176" s="29"/>
@@ -8139,7 +8146,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="2"/>
       <c r="B177" s="17"/>
       <c r="C177" s="29"/>
@@ -8164,7 +8171,7 @@
       <c r="N177" s="20"/>
       <c r="O177" s="144"/>
     </row>
-    <row r="178" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="2"/>
       <c r="B178" s="17"/>
       <c r="C178" s="29"/>
@@ -8185,31 +8192,31 @@
       <c r="N178" s="20"/>
       <c r="O178" s="20"/>
     </row>
-    <row r="179" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E179" s="14" t="s">
         <v>686</v>
       </c>
-      <c r="F179" s="58" t="s">
+      <c r="F179" s="145" t="s">
         <v>28</v>
       </c>
       <c r="G179" s="16"/>
       <c r="H179" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="Q179" s="145" t="s">
+      <c r="Q179" s="146" t="s">
         <v>687</v>
       </c>
       <c r="R179" s="106" t="s">
         <v>29</v>
       </c>
-      <c r="S179" s="146"/>
-      <c r="T179" s="147"/>
-    </row>
-    <row r="180" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S179" s="147"/>
+      <c r="T179" s="148"/>
+    </row>
+    <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E180" s="14" t="s">
         <v>686</v>
       </c>
-      <c r="F180" s="148" t="s">
+      <c r="F180" s="145" t="s">
         <v>688</v>
       </c>
       <c r="G180" s="16" t="s">
@@ -8218,9 +8225,7 @@
       <c r="H180" s="17" t="s">
         <v>688</v>
       </c>
-      <c r="I180" s="18" t="s">
-        <v>690</v>
-      </c>
+      <c r="I180" s="0"/>
       <c r="J180" s="18"/>
       <c r="K180" s="18"/>
       <c r="L180" s="149" t="s">
@@ -8232,33 +8237,33 @@
       <c r="N180" s="95"/>
       <c r="O180" s="95"/>
       <c r="P180" s="98"/>
-      <c r="Q180" s="145" t="s">
+      <c r="Q180" s="146" t="s">
+        <v>690</v>
+      </c>
+      <c r="R180" s="106" t="s">
         <v>691</v>
       </c>
-      <c r="R180" s="106" t="s">
+      <c r="S180" s="150" t="s">
         <v>692</v>
       </c>
-      <c r="S180" s="150" t="s">
+      <c r="T180" s="45" t="s">
         <v>693</v>
       </c>
-      <c r="T180" s="45" t="s">
+    </row>
+    <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E181" s="14" t="s">
         <v>694</v>
       </c>
-    </row>
-    <row r="181" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E181" s="14" t="s">
+      <c r="F181" s="145" t="s">
+        <v>256</v>
+      </c>
+      <c r="G181" s="16" t="s">
         <v>695</v>
-      </c>
-      <c r="F181" s="148" t="s">
-        <v>256</v>
-      </c>
-      <c r="G181" s="16" t="s">
-        <v>696</v>
       </c>
       <c r="H181" s="17" t="s">
         <v>257</v>
       </c>
-      <c r="I181" s="18"/>
+      <c r="I181" s="0"/>
       <c r="J181" s="18"/>
       <c r="K181" s="18"/>
       <c r="L181" s="149"/>
@@ -8266,29 +8271,31 @@
       <c r="N181" s="95"/>
       <c r="O181" s="95"/>
       <c r="P181" s="98"/>
-      <c r="Q181" s="145" t="s">
+      <c r="Q181" s="146" t="s">
+        <v>696</v>
+      </c>
+      <c r="R181" s="106" t="s">
         <v>697</v>
       </c>
-      <c r="R181" s="106" t="s">
+      <c r="S181" s="147"/>
+      <c r="T181" s="151"/>
+    </row>
+    <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E182" s="14" t="s">
+        <v>694</v>
+      </c>
+      <c r="F182" s="145" t="s">
         <v>698</v>
       </c>
-      <c r="S181" s="146"/>
-      <c r="T181" s="151"/>
-    </row>
-    <row r="182" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E182" s="14" t="s">
+      <c r="G182" s="16" t="s">
         <v>695</v>
       </c>
-      <c r="F182" s="148" t="s">
+      <c r="H182" s="17" t="s">
+        <v>698</v>
+      </c>
+      <c r="I182" s="18" t="s">
         <v>699</v>
       </c>
-      <c r="G182" s="16" t="s">
-        <v>696</v>
-      </c>
-      <c r="H182" s="17" t="s">
-        <v>699</v>
-      </c>
-      <c r="I182" s="18"/>
       <c r="J182" s="18"/>
       <c r="K182" s="18"/>
       <c r="L182" s="149"/>
@@ -8298,18 +8305,18 @@
       <c r="P182" s="98"/>
       <c r="Q182" s="98"/>
       <c r="R182" s="106"/>
-      <c r="S182" s="146"/>
+      <c r="S182" s="147"/>
       <c r="T182" s="151"/>
     </row>
-    <row r="183" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E183" s="14" t="s">
+        <v>694</v>
+      </c>
+      <c r="F183" s="145" t="s">
+        <v>700</v>
+      </c>
+      <c r="G183" s="16" t="s">
         <v>695</v>
-      </c>
-      <c r="F183" s="148" t="s">
-        <v>700</v>
-      </c>
-      <c r="G183" s="16" t="s">
-        <v>696</v>
       </c>
       <c r="H183" s="17" t="s">
         <v>206</v>
@@ -8324,10 +8331,10 @@
       <c r="P183" s="152"/>
       <c r="Q183" s="152"/>
       <c r="R183" s="106"/>
-      <c r="S183" s="146"/>
+      <c r="S183" s="147"/>
       <c r="T183" s="151"/>
     </row>
-    <row r="185" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E185" s="18" t="s">
         <v>701</v>
       </c>
@@ -8362,7 +8369,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E186" s="18" t="s">
         <v>701</v>
       </c>
@@ -8385,7 +8392,7 @@
       <c r="Q186" s="45"/>
       <c r="R186" s="138"/>
     </row>
-    <row r="187" customFormat="false" ht="17.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E187" s="18" t="s">
         <v>708</v>
       </c>
@@ -8408,7 +8415,7 @@
       <c r="Q187" s="45"/>
       <c r="R187" s="138"/>
     </row>
-    <row r="189" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E189" s="18" t="s">
         <v>712</v>
       </c>
@@ -8433,7 +8440,7 @@
       <c r="N189" s="20"/>
       <c r="O189" s="20"/>
       <c r="P189" s="3"/>
-      <c r="Q189" s="145" t="s">
+      <c r="Q189" s="146" t="s">
         <v>716</v>
       </c>
       <c r="R189" s="106" t="s">
@@ -8443,7 +8450,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E190" s="18" t="s">
         <v>719</v>
       </c>
@@ -8464,7 +8471,7 @@
       <c r="N190" s="20"/>
       <c r="O190" s="20"/>
       <c r="P190" s="3"/>
-      <c r="Q190" s="145" t="s">
+      <c r="Q190" s="146" t="s">
         <v>722</v>
       </c>
       <c r="R190" s="106" t="s">
@@ -8472,7 +8479,7 @@
       </c>
       <c r="S190" s="98"/>
     </row>
-    <row r="191" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E191" s="18" t="s">
         <v>724</v>
       </c>
@@ -8497,7 +8504,7 @@
       <c r="R191" s="106"/>
       <c r="S191" s="98"/>
     </row>
-    <row r="193" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E193" s="18" t="s">
         <v>727</v>
       </c>
@@ -8522,7 +8529,7 @@
       <c r="N193" s="20"/>
       <c r="O193" s="20"/>
       <c r="P193" s="3"/>
-      <c r="Q193" s="145" t="s">
+      <c r="Q193" s="146" t="s">
         <v>731</v>
       </c>
       <c r="R193" s="106" t="s">
@@ -8532,7 +8539,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E194" s="18"/>
       <c r="F194" s="18"/>
       <c r="G194" s="16"/>
@@ -8545,7 +8552,7 @@
       <c r="N194" s="20"/>
       <c r="O194" s="20"/>
       <c r="P194" s="3"/>
-      <c r="Q194" s="145" t="s">
+      <c r="Q194" s="146" t="s">
         <v>734</v>
       </c>
       <c r="R194" s="106" t="s">
@@ -8553,7 +8560,7 @@
       </c>
       <c r="S194" s="98"/>
     </row>
-    <row r="195" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E195" s="18"/>
       <c r="F195" s="18"/>
       <c r="G195" s="16"/>
@@ -8566,7 +8573,7 @@
       <c r="N195" s="20"/>
       <c r="O195" s="20"/>
       <c r="P195" s="3"/>
-      <c r="Q195" s="145" t="s">
+      <c r="Q195" s="146" t="s">
         <v>736</v>
       </c>
       <c r="R195" s="106" t="s">
@@ -8574,7 +8581,7 @@
       </c>
       <c r="S195" s="98"/>
     </row>
-    <row r="197" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E197" s="14" t="s">
         <v>738</v>
       </c>
@@ -8601,7 +8608,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E198" s="14" t="s">
         <v>738</v>
       </c>
@@ -8620,7 +8627,7 @@
       <c r="L198" s="3"/>
       <c r="M198" s="76"/>
     </row>
-    <row r="199" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E199" s="14" t="s">
         <v>738</v>
       </c>
@@ -8639,7 +8646,7 @@
       <c r="L199" s="3"/>
       <c r="M199" s="76"/>
     </row>
-    <row r="201" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E201" s="18" t="s">
         <v>745</v>
       </c>
@@ -8667,7 +8674,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E202" s="18" t="s">
         <v>745</v>
       </c>
@@ -8691,7 +8698,7 @@
       </c>
       <c r="N202" s="115"/>
     </row>
-    <row r="203" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E203" s="18" t="s">
         <v>755</v>
       </c>
@@ -8715,7 +8722,7 @@
       </c>
       <c r="N203" s="20"/>
     </row>
-    <row r="204" customFormat="false" ht="17.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E204" s="18"/>
       <c r="F204" s="18"/>
       <c r="G204" s="16"/>
@@ -8732,17 +8739,6 @@
       <c r="N204" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="C152:D152"/>
-    <mergeCell ref="J152:K152"/>
-    <mergeCell ref="C153:D153"/>
-    <mergeCell ref="J153:K153"/>
-    <mergeCell ref="P183:Q183"/>
-    <mergeCell ref="O185:P185"/>
-    <mergeCell ref="O186:P186"/>
-    <mergeCell ref="O187:P187"/>
-    <mergeCell ref="P191:Q191"/>
-  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
